--- a/Paperwork/Asset List.xlsx
+++ b/Paperwork/Asset List.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="576">
   <si>
     <t>ID Code</t>
   </si>
@@ -1448,24 +1448,12 @@
     <t>2D_PalLantern_25</t>
   </si>
   <si>
-    <t>DEADLINE EIND (16-01 t/m 20-01)</t>
-  </si>
-  <si>
-    <t>DEADLINE PROTOTYPE (07-11 t/m 13-11)</t>
-  </si>
-  <si>
-    <t>Sprint 4 (14-11 t/m 27-11)</t>
-  </si>
-  <si>
     <t>Sprint 5 (28-11 t/m 11-12)</t>
   </si>
   <si>
     <t>Sprint 6 (12-12 t/m 25-12)</t>
   </si>
   <si>
-    <t>Sprint 7 (09-01 t/m 15-01)</t>
-  </si>
-  <si>
     <t>Dragon (56)</t>
   </si>
   <si>
@@ -1740,6 +1728,24 @@
   </si>
   <si>
     <t>12:30 - 14:20</t>
+  </si>
+  <si>
+    <t>Sprint 4 (07-11 t/m 20-11)</t>
+  </si>
+  <si>
+    <t>DEADLINE PROTOTYPE (21-11 t/m 27-11)</t>
+  </si>
+  <si>
+    <t>DEADLINE EIND (23-01 t/m 29-01)</t>
+  </si>
+  <si>
+    <t>22-11 PRESENTATIE</t>
+  </si>
+  <si>
+    <t>24-01 PRESENTATIE</t>
+  </si>
+  <si>
+    <t>Sprint 7 (09-01 t/m 22-01)</t>
   </si>
 </sst>
 </file>
@@ -1925,7 +1931,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2055,21 +2061,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2078,7 +2069,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2351,14 +2342,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Controlecel" xfId="4" builtinId="23"/>
@@ -2678,8 +2673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W725"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2751,30 +2746,30 @@
       <c r="N1" s="97" t="s">
         <v>453</v>
       </c>
-      <c r="O1" s="64" t="s">
+      <c r="O1" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="P1" s="64" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>476</v>
+      </c>
+      <c r="R1" s="35" t="s">
         <v>477</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>479</v>
-      </c>
-      <c r="R1" s="35" t="s">
-        <v>480</v>
       </c>
       <c r="S1" s="75" t="s">
         <v>452</v>
       </c>
       <c r="T1" s="35" t="s">
-        <v>481</v>
+        <v>575</v>
       </c>
       <c r="U1" s="64" t="s">
-        <v>476</v>
+        <v>572</v>
       </c>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="5" t="s">
         <v>88</v>
       </c>
@@ -2812,13 +2807,13 @@
       <c r="M2" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="98" t="s">
+      <c r="N2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="96" t="s">
+      <c r="O2" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="96" t="s">
         <v>13</v>
       </c>
       <c r="Q2" s="34" t="s">
@@ -2868,28 +2863,28 @@
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="L3" s="43" t="s">
         <v>482</v>
-      </c>
-      <c r="L3" s="43" t="s">
-        <v>486</v>
       </c>
       <c r="M3" s="76"/>
       <c r="N3" s="50" t="s">
-        <v>492</v>
-      </c>
-      <c r="O3" s="66"/>
-      <c r="P3" s="7" t="s">
-        <v>501</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="P3" s="66"/>
       <c r="Q3" s="29" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="R3" s="29" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="S3" s="76"/>
       <c r="T3" s="29" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="U3" s="89"/>
       <c r="V3" s="3"/>
@@ -2924,30 +2919,34 @@
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="L4" s="28" t="s">
         <v>483</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>487</v>
       </c>
       <c r="M4" s="77"/>
       <c r="N4" s="28" t="s">
-        <v>493</v>
-      </c>
-      <c r="O4" s="67"/>
-      <c r="P4" s="13" t="s">
-        <v>502</v>
+        <v>489</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="P4" s="104" t="s">
+        <v>573</v>
       </c>
       <c r="Q4" s="28" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="R4" s="28" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="S4" s="77"/>
       <c r="T4" s="28" t="s">
-        <v>561</v>
-      </c>
-      <c r="U4" s="67"/>
+        <v>557</v>
+      </c>
+      <c r="U4" s="104" t="s">
+        <v>574</v>
+      </c>
       <c r="V4" s="3"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -2982,24 +2981,24 @@
         <v>20</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="L5" s="28" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="M5" s="78"/>
       <c r="N5" s="28" t="s">
-        <v>494</v>
-      </c>
-      <c r="O5" s="68"/>
-      <c r="P5" s="14" t="s">
-        <v>503</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="P5" s="68"/>
       <c r="Q5" s="28" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="R5" s="28" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="S5" s="77"/>
       <c r="T5" s="28"/>
@@ -3035,24 +3034,24 @@
         <v>25</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="M6" s="78"/>
       <c r="N6" s="33" t="s">
-        <v>495</v>
-      </c>
-      <c r="O6" s="68"/>
-      <c r="P6" s="14" t="s">
-        <v>504</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="P6" s="68"/>
       <c r="Q6" s="28" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="R6" s="30" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="S6" s="79"/>
       <c r="T6" s="30"/>
@@ -3088,24 +3087,24 @@
         <v>39</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="L7" s="50" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="M7" s="79"/>
       <c r="N7" s="50" t="s">
-        <v>496</v>
-      </c>
-      <c r="O7" s="68"/>
-      <c r="P7" s="50" t="s">
-        <v>505</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="O7" s="50" t="s">
+        <v>501</v>
+      </c>
+      <c r="P7" s="68"/>
       <c r="Q7" s="50" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="R7" s="50" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="S7" s="79"/>
       <c r="T7" s="50"/>
@@ -3141,21 +3140,21 @@
       </c>
       <c r="K8" s="50"/>
       <c r="L8" s="50" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="M8" s="79"/>
       <c r="N8" s="50" t="s">
-        <v>497</v>
-      </c>
-      <c r="O8" s="68"/>
-      <c r="P8" s="50" t="s">
-        <v>506</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="O8" s="50" t="s">
+        <v>502</v>
+      </c>
+      <c r="P8" s="68"/>
       <c r="Q8" s="50" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="R8" s="50" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="S8" s="79"/>
       <c r="T8" s="50"/>
@@ -3182,17 +3181,17 @@
       <c r="K9" s="30"/>
       <c r="M9" s="79"/>
       <c r="N9" s="50" t="s">
-        <v>498</v>
-      </c>
-      <c r="O9" s="68"/>
-      <c r="P9" s="50" t="s">
-        <v>507</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="O9" s="50" t="s">
+        <v>503</v>
+      </c>
+      <c r="P9" s="68"/>
       <c r="Q9" s="50" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="R9" s="50" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="S9" s="79"/>
       <c r="T9" s="50"/>
@@ -3230,17 +3229,17 @@
       <c r="L10" s="50"/>
       <c r="M10" s="79"/>
       <c r="N10" s="50" t="s">
-        <v>499</v>
-      </c>
-      <c r="O10" s="68"/>
-      <c r="P10" s="50" t="s">
-        <v>508</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="O10" s="50" t="s">
+        <v>504</v>
+      </c>
+      <c r="P10" s="68"/>
       <c r="Q10" s="50" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="R10" s="50" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="S10" s="79"/>
       <c r="T10" s="50"/>
@@ -3275,17 +3274,17 @@
       <c r="L11" s="30"/>
       <c r="M11" s="79"/>
       <c r="N11" s="30" t="s">
-        <v>500</v>
-      </c>
-      <c r="O11" s="68"/>
-      <c r="P11" s="30" t="s">
-        <v>509</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="P11" s="68"/>
       <c r="Q11" s="30" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="R11" s="28" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="S11" s="79"/>
       <c r="T11" s="28"/>
@@ -3318,17 +3317,17 @@
       <c r="L12" s="50"/>
       <c r="M12" s="79"/>
       <c r="N12" s="50" t="s">
-        <v>572</v>
-      </c>
-      <c r="O12" s="68"/>
-      <c r="P12" s="50" t="s">
-        <v>510</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="O12" s="50" t="s">
+        <v>506</v>
+      </c>
+      <c r="P12" s="68"/>
       <c r="Q12" s="50" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="R12" s="50" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="S12" s="79"/>
       <c r="T12" s="50"/>
@@ -3361,15 +3360,15 @@
       <c r="L13" s="50"/>
       <c r="M13" s="79"/>
       <c r="N13" s="50"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="50" t="s">
-        <v>511</v>
-      </c>
+      <c r="O13" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="P13" s="68"/>
       <c r="Q13" s="50" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="R13" s="50" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="S13" s="79"/>
       <c r="T13" s="50"/>
@@ -3402,15 +3401,15 @@
       <c r="L14" s="50"/>
       <c r="M14" s="79"/>
       <c r="N14" s="50"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="50" t="s">
-        <v>512</v>
-      </c>
+      <c r="O14" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="P14" s="68"/>
       <c r="Q14" s="50" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="R14" s="50" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="S14" s="79"/>
       <c r="T14" s="50"/>
@@ -3444,15 +3443,15 @@
       <c r="L15" s="50"/>
       <c r="M15" s="79"/>
       <c r="N15" s="50"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="50" t="s">
-        <v>513</v>
-      </c>
+      <c r="O15" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="P15" s="68"/>
       <c r="Q15" s="50" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="R15" s="50" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="S15" s="79"/>
       <c r="T15" s="50"/>
@@ -3485,15 +3484,15 @@
       <c r="L16" s="50"/>
       <c r="M16" s="79"/>
       <c r="N16" s="50"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="50" t="s">
-        <v>514</v>
-      </c>
+      <c r="O16" s="50" t="s">
+        <v>510</v>
+      </c>
+      <c r="P16" s="68"/>
       <c r="Q16" s="50" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="R16" s="50" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="S16" s="79"/>
       <c r="T16" s="50"/>
@@ -3513,15 +3512,15 @@
       <c r="L17" s="50"/>
       <c r="M17" s="79"/>
       <c r="N17" s="50"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="50" t="s">
-        <v>515</v>
-      </c>
+      <c r="O17" s="50" t="s">
+        <v>511</v>
+      </c>
+      <c r="P17" s="68"/>
       <c r="Q17" s="50" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="R17" s="50" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="S17" s="79"/>
       <c r="T17" s="50"/>
@@ -3554,15 +3553,15 @@
       <c r="L18" s="50"/>
       <c r="M18" s="79"/>
       <c r="N18" s="50"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="50" t="s">
-        <v>516</v>
-      </c>
+      <c r="O18" s="50" t="s">
+        <v>512</v>
+      </c>
+      <c r="P18" s="68"/>
       <c r="Q18" s="50" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="R18" s="50" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="S18" s="79"/>
       <c r="T18" s="50"/>
@@ -3595,15 +3594,15 @@
       <c r="L19" s="50"/>
       <c r="M19" s="79"/>
       <c r="N19" s="50"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="50" t="s">
-        <v>517</v>
-      </c>
+      <c r="O19" s="50" t="s">
+        <v>513</v>
+      </c>
+      <c r="P19" s="68"/>
       <c r="Q19" s="50" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="R19" s="50" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="S19" s="79"/>
       <c r="T19" s="50"/>
@@ -3636,15 +3635,15 @@
       <c r="L20" s="50"/>
       <c r="M20" s="79"/>
       <c r="N20" s="50"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="50" t="s">
-        <v>518</v>
-      </c>
+      <c r="O20" s="50" t="s">
+        <v>514</v>
+      </c>
+      <c r="P20" s="68"/>
       <c r="Q20" s="50" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="R20" s="50" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="S20" s="79"/>
       <c r="T20" s="50"/>
@@ -3677,15 +3676,15 @@
       <c r="L21" s="50"/>
       <c r="M21" s="79"/>
       <c r="N21" s="50"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="50" t="s">
-        <v>519</v>
-      </c>
+      <c r="O21" s="50" t="s">
+        <v>515</v>
+      </c>
+      <c r="P21" s="68"/>
       <c r="Q21" s="50" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="R21" s="50" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="S21" s="79"/>
       <c r="T21" s="50"/>
@@ -3718,13 +3717,13 @@
       <c r="L22" s="25"/>
       <c r="M22" s="80"/>
       <c r="N22" s="25"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="69"/>
       <c r="Q22" s="3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="R22" s="25" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="S22" s="79"/>
       <c r="T22" s="25"/>
@@ -3765,8 +3764,8 @@
       <c r="L23" s="60"/>
       <c r="M23" s="88"/>
       <c r="N23" s="60"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="70"/>
       <c r="Q23" s="60"/>
       <c r="R23" s="60"/>
       <c r="S23" s="88"/>
@@ -3799,8 +3798,8 @@
       <c r="L24" s="58"/>
       <c r="M24" s="81"/>
       <c r="N24" s="58"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="71"/>
       <c r="Q24" s="58"/>
       <c r="R24" s="59"/>
       <c r="S24" s="82"/>
@@ -3822,8 +3821,8 @@
       <c r="L25" s="58"/>
       <c r="M25" s="81"/>
       <c r="N25" s="58"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="71"/>
       <c r="Q25" s="58"/>
       <c r="R25" s="59"/>
       <c r="S25" s="82"/>
@@ -3855,8 +3854,8 @@
       <c r="L26" s="58"/>
       <c r="M26" s="82"/>
       <c r="N26" s="58"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="71"/>
       <c r="Q26" s="58"/>
       <c r="R26" s="58"/>
       <c r="S26" s="82"/>
@@ -3889,8 +3888,8 @@
       <c r="L27" s="62"/>
       <c r="M27" s="83"/>
       <c r="N27" s="62"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="72"/>
       <c r="Q27" s="62"/>
       <c r="R27" s="62"/>
       <c r="S27" s="83"/>
@@ -3983,29 +3982,29 @@
       <c r="M31" s="75" t="s">
         <v>451</v>
       </c>
-      <c r="N31" s="35" t="s">
+      <c r="N31" s="97" t="s">
         <v>453</v>
       </c>
-      <c r="O31" s="64" t="s">
+      <c r="O31" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="P31" s="64" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q31" s="35" t="s">
+        <v>476</v>
+      </c>
+      <c r="R31" s="35" t="s">
         <v>477</v>
-      </c>
-      <c r="P31" s="35" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q31" s="35" t="s">
-        <v>479</v>
-      </c>
-      <c r="R31" s="35" t="s">
-        <v>480</v>
       </c>
       <c r="S31" s="75" t="s">
         <v>452</v>
       </c>
       <c r="T31" s="35" t="s">
-        <v>481</v>
+        <v>575</v>
       </c>
       <c r="U31" s="64" t="s">
-        <v>476</v>
+        <v>572</v>
       </c>
       <c r="V31" s="39"/>
     </row>
@@ -4038,10 +4037,10 @@
       <c r="N32" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="O32" s="65" t="s">
+      <c r="O32" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="P32" s="34" t="s">
+      <c r="P32" s="65" t="s">
         <v>17</v>
       </c>
       <c r="Q32" s="34" t="s">
@@ -4078,10 +4077,10 @@
       <c r="N33" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="O33" s="73"/>
-      <c r="P33" s="5" t="s">
+      <c r="O33" s="91" t="s">
         <v>221</v>
       </c>
+      <c r="P33" s="73"/>
       <c r="Q33" s="91" t="s">
         <v>214</v>
       </c>
@@ -4121,10 +4120,10 @@
       <c r="N34" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="O34" s="74"/>
-      <c r="P34" s="5" t="s">
+      <c r="O34" s="92" t="s">
         <v>216</v>
       </c>
+      <c r="P34" s="74"/>
       <c r="Q34" s="92" t="s">
         <v>213</v>
       </c>
@@ -4157,7 +4156,8 @@
       <c r="L35" s="13"/>
       <c r="M35" s="77"/>
       <c r="N35" s="13"/>
-      <c r="O35" s="74"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="74"/>
       <c r="Q35" s="50"/>
       <c r="R35" s="33"/>
       <c r="S35" s="87"/>
@@ -4186,7 +4186,8 @@
       <c r="L36" s="13"/>
       <c r="M36" s="77"/>
       <c r="N36" s="13"/>
-      <c r="O36" s="67"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="67"/>
       <c r="Q36" s="50"/>
       <c r="R36" s="28"/>
       <c r="S36" s="77"/>
@@ -4215,7 +4216,8 @@
       <c r="L37" s="13"/>
       <c r="M37" s="77"/>
       <c r="N37" s="13"/>
-      <c r="O37" s="68"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="68"/>
       <c r="Q37" s="30"/>
       <c r="R37" s="30"/>
       <c r="S37" s="79"/>
@@ -4244,7 +4246,8 @@
       <c r="L38" s="13"/>
       <c r="M38" s="77"/>
       <c r="N38" s="13"/>
-      <c r="O38" s="68"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="68"/>
       <c r="Q38" s="50"/>
       <c r="R38" s="30"/>
       <c r="S38" s="79"/>
@@ -4273,7 +4276,8 @@
       <c r="L39" s="13"/>
       <c r="M39" s="77"/>
       <c r="N39" s="13"/>
-      <c r="O39" s="68"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="68"/>
       <c r="Q39" s="30"/>
       <c r="R39" s="30"/>
       <c r="S39" s="79"/>
@@ -4304,8 +4308,8 @@
       <c r="L40" s="48"/>
       <c r="M40" s="86"/>
       <c r="N40" s="48"/>
-      <c r="O40" s="69"/>
-      <c r="P40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="69"/>
       <c r="Q40" s="23"/>
       <c r="R40" s="31"/>
       <c r="S40" s="80"/>
@@ -4326,8 +4330,8 @@
       <c r="L41" s="25"/>
       <c r="M41" s="80"/>
       <c r="N41" s="25"/>
-      <c r="O41" s="69"/>
-      <c r="P41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="69"/>
       <c r="Q41" s="25"/>
       <c r="R41" s="25"/>
       <c r="S41" s="80"/>
@@ -11921,7 +11925,7 @@
   <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11937,7 +11941,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
         <v>68</v>
       </c>
     </row>
@@ -12022,8 +12026,8 @@
       <c r="E8" s="52"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="100" t="s">
-        <v>563</v>
+      <c r="A10" s="99" t="s">
+        <v>559</v>
       </c>
       <c r="B10" s="51">
         <v>42632</v>
@@ -12058,8 +12062,10 @@
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
       <c r="E11" s="54" t="s">
-        <v>573</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="G11" s="52"/>
+      <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
@@ -12069,6 +12075,8 @@
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
       <c r="E12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
@@ -12078,6 +12086,8 @@
       <c r="C13" s="52"/>
       <c r="D13" s="52"/>
       <c r="E13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
@@ -12087,6 +12097,8 @@
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
       <c r="E14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
@@ -12096,6 +12108,8 @@
       <c r="C15" s="52"/>
       <c r="D15" s="52"/>
       <c r="E15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
@@ -12105,10 +12119,12 @@
       <c r="C16" s="52"/>
       <c r="D16" s="52"/>
       <c r="E16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="100" t="s">
-        <v>564</v>
+      <c r="A18" s="99" t="s">
+        <v>560</v>
       </c>
       <c r="B18" s="51">
         <v>42646</v>
@@ -12139,73 +12155,73 @@
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="101"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="101"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="103" t="s">
-        <v>570</v>
-      </c>
-      <c r="B26" s="99"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
+      <c r="A26" s="102" t="s">
+        <v>566</v>
+      </c>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="100" t="s">
-        <v>565</v>
+      <c r="A28" s="99" t="s">
+        <v>561</v>
       </c>
       <c r="B28" s="51">
         <v>42667</v>
@@ -12263,8 +12279,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="102" t="s">
-        <v>566</v>
+      <c r="A36" s="99" t="s">
+        <v>563</v>
       </c>
       <c r="B36" s="51">
         <v>42681</v>
@@ -12277,6 +12293,18 @@
       </c>
       <c r="E36" s="51">
         <v>42685</v>
+      </c>
+      <c r="G36" s="51">
+        <v>42688</v>
+      </c>
+      <c r="H36" s="51">
+        <v>42689</v>
+      </c>
+      <c r="I36" s="51">
+        <v>42691</v>
+      </c>
+      <c r="J36" s="51">
+        <v>42692</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -12310,31 +12338,19 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="100" t="s">
-        <v>567</v>
+      <c r="A44" s="101" t="s">
+        <v>562</v>
       </c>
       <c r="B44" s="51">
-        <v>42688</v>
-      </c>
-      <c r="C44" s="51">
-        <v>42689</v>
+        <v>42695</v>
+      </c>
+      <c r="C44" s="103">
+        <v>42696</v>
       </c>
       <c r="D44" s="51">
-        <v>42691</v>
+        <v>42698</v>
       </c>
       <c r="E44" s="51">
-        <v>42692</v>
-      </c>
-      <c r="G44" s="51">
-        <v>42695</v>
-      </c>
-      <c r="H44" s="51">
-        <v>42696</v>
-      </c>
-      <c r="I44" s="51">
-        <v>42698</v>
-      </c>
-      <c r="J44" s="51">
         <v>42699</v>
       </c>
     </row>
@@ -12372,8 +12388,8 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="100" t="s">
-        <v>568</v>
+      <c r="A52" s="99" t="s">
+        <v>564</v>
       </c>
       <c r="B52" s="51">
         <v>42702</v>
@@ -12431,8 +12447,8 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="100" t="s">
-        <v>569</v>
+      <c r="A60" s="99" t="s">
+        <v>565</v>
       </c>
       <c r="B60" s="51">
         <v>42716</v>
@@ -12490,22 +12506,22 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="103" t="s">
-        <v>570</v>
-      </c>
-      <c r="B68" s="99"/>
-      <c r="C68" s="99"/>
-      <c r="D68" s="99"/>
-      <c r="E68" s="99"/>
-      <c r="F68" s="99"/>
-      <c r="G68" s="99"/>
-      <c r="H68" s="99"/>
-      <c r="I68" s="99"/>
-      <c r="J68" s="99"/>
+      <c r="A68" s="102" t="s">
+        <v>566</v>
+      </c>
+      <c r="B68" s="98"/>
+      <c r="C68" s="98"/>
+      <c r="D68" s="98"/>
+      <c r="E68" s="98"/>
+      <c r="F68" s="98"/>
+      <c r="G68" s="98"/>
+      <c r="H68" s="98"/>
+      <c r="I68" s="98"/>
+      <c r="J68" s="98"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="100" t="s">
-        <v>571</v>
+      <c r="A70" s="99" t="s">
+        <v>567</v>
       </c>
       <c r="B70" s="51">
         <v>42378</v>
@@ -12518,6 +12534,18 @@
       </c>
       <c r="E70" s="51">
         <v>42382</v>
+      </c>
+      <c r="G70" s="51">
+        <v>42385</v>
+      </c>
+      <c r="H70" s="51">
+        <v>42386</v>
+      </c>
+      <c r="I70" s="51">
+        <v>42388</v>
+      </c>
+      <c r="J70" s="51">
+        <v>42389</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -12551,20 +12579,14 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="102" t="s">
-        <v>566</v>
+      <c r="A78" s="101" t="s">
+        <v>562</v>
       </c>
       <c r="B78" s="51">
-        <v>42385</v>
-      </c>
-      <c r="C78" s="51">
-        <v>42386</v>
-      </c>
-      <c r="D78" s="51">
-        <v>42388</v>
-      </c>
-      <c r="E78" s="51">
-        <v>42389</v>
+        <v>42392</v>
+      </c>
+      <c r="C78" s="103">
+        <v>42393</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">

--- a/Paperwork/Asset List.xlsx
+++ b/Paperwork/Asset List.xlsx
@@ -2069,7 +2069,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2329,9 +2329,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2353,6 +2350,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2673,40 +2679,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W725"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="J10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.83984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.88671875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.15625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.15625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.68359375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="118.3125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.15625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.68359375" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.15625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.41796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="44.15625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44.15625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="44.15625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="44.41796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="47.15625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="45.20703125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="45.20703125" style="4" customWidth="1"/>
-    <col min="22" max="22" width="33.68359375" style="4" customWidth="1"/>
-    <col min="23" max="23" width="23.1015625" style="4" customWidth="1"/>
-    <col min="24" max="24" width="16.26171875" style="4" customWidth="1"/>
-    <col min="25" max="16384" width="9.15625" style="4"/>
+    <col min="4" max="4" width="10.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="118.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="44.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44.109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="44.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="44.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="47.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="45.21875" style="3" customWidth="1"/>
+    <col min="21" max="21" width="45.21875" style="4" customWidth="1"/>
+    <col min="22" max="22" width="33.6640625" style="4" customWidth="1"/>
+    <col min="23" max="23" width="23.109375" style="4" customWidth="1"/>
+    <col min="24" max="24" width="16.21875" style="4" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -2743,7 +2749,7 @@
       <c r="M1" s="75" t="s">
         <v>451</v>
       </c>
-      <c r="N1" s="97" t="s">
+      <c r="N1" s="96" t="s">
         <v>453</v>
       </c>
       <c r="O1" s="35" t="s">
@@ -2769,7 +2775,7 @@
       </c>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>88</v>
       </c>
@@ -2804,16 +2810,16 @@
       <c r="L2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="95" t="s">
+      <c r="M2" s="94" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="105" t="s">
+      <c r="O2" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="96" t="s">
+      <c r="P2" s="95" t="s">
         <v>13</v>
       </c>
       <c r="Q2" s="34" t="s">
@@ -2833,7 +2839,7 @@
       </c>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>89</v>
       </c>
@@ -2889,7 +2895,7 @@
       <c r="U3" s="89"/>
       <c r="V3" s="3"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>90</v>
       </c>
@@ -2931,7 +2937,7 @@
       <c r="O4" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="103" t="s">
         <v>573</v>
       </c>
       <c r="Q4" s="28" t="s">
@@ -2944,12 +2950,12 @@
       <c r="T4" s="28" t="s">
         <v>557</v>
       </c>
-      <c r="U4" s="104" t="s">
+      <c r="U4" s="103" t="s">
         <v>574</v>
       </c>
       <c r="V4" s="3"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>91</v>
       </c>
@@ -3005,7 +3011,7 @@
       <c r="U5" s="67"/>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>92</v>
       </c>
@@ -3058,7 +3064,7 @@
       <c r="U6" s="68"/>
       <c r="V6" s="3"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>93</v>
       </c>
@@ -3110,7 +3116,7 @@
       <c r="T7" s="50"/>
       <c r="U7" s="67"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>229</v>
       </c>
@@ -3160,7 +3166,7 @@
       <c r="T8" s="50"/>
       <c r="U8" s="67"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="22"/>
       <c r="C9" s="7"/>
@@ -3197,7 +3203,7 @@
       <c r="T9" s="50"/>
       <c r="U9" s="67"/>
     </row>
-    <row r="10" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>109</v>
       </c>
@@ -3245,7 +3251,7 @@
       <c r="T10" s="50"/>
       <c r="U10" s="67"/>
     </row>
-    <row r="11" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>142</v>
       </c>
@@ -3290,7 +3296,7 @@
       <c r="T11" s="28"/>
       <c r="U11" s="67"/>
     </row>
-    <row r="12" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>306</v>
       </c>
@@ -3333,7 +3339,7 @@
       <c r="T12" s="50"/>
       <c r="U12" s="67"/>
     </row>
-    <row r="13" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>267</v>
       </c>
@@ -3349,7 +3355,7 @@
       <c r="E13" s="8">
         <v>6</v>
       </c>
-      <c r="F13" s="94"/>
+      <c r="F13" s="93"/>
       <c r="H13" s="44" t="s">
         <v>37</v>
       </c>
@@ -3374,7 +3380,7 @@
       <c r="T13" s="50"/>
       <c r="U13" s="67"/>
     </row>
-    <row r="14" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>236</v>
       </c>
@@ -3390,7 +3396,7 @@
       <c r="E14" s="8">
         <v>6</v>
       </c>
-      <c r="F14" s="94"/>
+      <c r="F14" s="93"/>
       <c r="H14" s="44" t="s">
         <v>38</v>
       </c>
@@ -3415,7 +3421,7 @@
       <c r="T14" s="50"/>
       <c r="U14" s="67"/>
     </row>
-    <row r="15" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>96</v>
       </c>
@@ -3431,7 +3437,7 @@
       <c r="E15" s="8">
         <v>9</v>
       </c>
-      <c r="F15" s="94"/>
+      <c r="F15" s="93"/>
       <c r="G15" s="9"/>
       <c r="H15" s="44" t="s">
         <v>43</v>
@@ -3457,7 +3463,7 @@
       <c r="T15" s="50"/>
       <c r="U15" s="67"/>
     </row>
-    <row r="16" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>248</v>
       </c>
@@ -3498,7 +3504,7 @@
       <c r="T16" s="50"/>
       <c r="U16" s="67"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="G17" s="9"/>
@@ -3526,7 +3532,7 @@
       <c r="T17" s="50"/>
       <c r="U17" s="67"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>110</v>
       </c>
@@ -3567,7 +3573,7 @@
       <c r="T18" s="50"/>
       <c r="U18" s="67"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>143</v>
       </c>
@@ -3608,7 +3614,7 @@
       <c r="T19" s="50"/>
       <c r="U19" s="67"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>307</v>
       </c>
@@ -3649,7 +3655,7 @@
       <c r="T20" s="50"/>
       <c r="U20" s="67"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>268</v>
       </c>
@@ -3690,7 +3696,7 @@
       <c r="T21" s="50"/>
       <c r="U21" s="67"/>
     </row>
-    <row r="22" spans="1:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>237</v>
       </c>
@@ -3732,7 +3738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>97</v>
       </c>
@@ -3773,7 +3779,7 @@
       <c r="U23" s="70"/>
       <c r="V23" s="36"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>249</v>
       </c>
@@ -3807,7 +3813,7 @@
       <c r="U24" s="71"/>
       <c r="V24" s="37"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
@@ -3830,7 +3836,7 @@
       <c r="U25" s="71"/>
       <c r="V25" s="37"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>111</v>
       </c>
@@ -3864,7 +3870,7 @@
       <c r="V26" s="50"/>
       <c r="W26" s="3"/>
     </row>
-    <row r="27" spans="1:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>144</v>
       </c>
@@ -3897,7 +3903,7 @@
       <c r="U27" s="72"/>
       <c r="V27" s="38"/>
     </row>
-    <row r="28" spans="1:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>308</v>
       </c>
@@ -3919,7 +3925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>269</v>
       </c>
@@ -3938,7 +3944,7 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
     </row>
-    <row r="30" spans="1:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>238</v>
       </c>
@@ -3957,7 +3963,7 @@
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
     </row>
-    <row r="31" spans="1:23" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>98</v>
       </c>
@@ -3982,7 +3988,7 @@
       <c r="M31" s="75" t="s">
         <v>451</v>
       </c>
-      <c r="N31" s="97" t="s">
+      <c r="N31" s="96" t="s">
         <v>453</v>
       </c>
       <c r="O31" s="35" t="s">
@@ -4008,7 +4014,7 @@
       </c>
       <c r="V31" s="39"/>
     </row>
-    <row r="32" spans="1:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>250</v>
       </c>
@@ -4060,14 +4066,14 @@
       </c>
       <c r="V32" s="39"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="22"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="J33" s="10"/>
-      <c r="K33" s="93" t="s">
+      <c r="K33" s="105" t="s">
         <v>218</v>
       </c>
       <c r="L33" s="91" t="s">
@@ -4077,7 +4083,7 @@
       <c r="N33" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="O33" s="91" t="s">
+      <c r="O33" s="107" t="s">
         <v>221</v>
       </c>
       <c r="P33" s="73"/>
@@ -4094,7 +4100,7 @@
       <c r="U33" s="73"/>
       <c r="V33" s="39"/>
     </row>
-    <row r="34" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>112</v>
       </c>
@@ -4110,7 +4116,7 @@
       <c r="E34" s="8">
         <v>5</v>
       </c>
-      <c r="K34" s="92" t="s">
+      <c r="K34" s="106" t="s">
         <v>215</v>
       </c>
       <c r="L34" s="5" t="s">
@@ -4135,7 +4141,7 @@
       <c r="U34" s="68"/>
       <c r="V34" s="39"/>
     </row>
-    <row r="35" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>145</v>
       </c>
@@ -4165,7 +4171,7 @@
       <c r="U35" s="74"/>
       <c r="V35" s="39"/>
     </row>
-    <row r="36" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>309</v>
       </c>
@@ -4195,7 +4201,7 @@
       <c r="U36" s="67"/>
       <c r="V36" s="39"/>
     </row>
-    <row r="37" spans="1:23" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:23" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>270</v>
       </c>
@@ -4225,7 +4231,7 @@
       <c r="U37" s="68"/>
       <c r="V37" s="39"/>
     </row>
-    <row r="38" spans="1:23" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:23" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>239</v>
       </c>
@@ -4255,7 +4261,7 @@
       <c r="U38" s="68"/>
       <c r="V38" s="39"/>
     </row>
-    <row r="39" spans="1:23" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:23" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>99</v>
       </c>
@@ -4287,7 +4293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>251</v>
       </c>
@@ -4317,7 +4323,7 @@
       <c r="U40" s="69"/>
       <c r="V40" s="39"/>
     </row>
-    <row r="41" spans="1:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="22"/>
       <c r="C41" s="7"/>
@@ -4339,7 +4345,7 @@
       <c r="U41" s="69"/>
       <c r="V41" s="49"/>
     </row>
-    <row r="42" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>100</v>
       </c>
@@ -4363,7 +4369,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>252</v>
       </c>
@@ -4380,14 +4386,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="22"/>
       <c r="C44" s="7"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>113</v>
       </c>
@@ -4404,7 +4410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>146</v>
       </c>
@@ -4421,7 +4427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>310</v>
       </c>
@@ -4438,7 +4444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>271</v>
       </c>
@@ -4455,7 +4461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>240</v>
       </c>
@@ -4472,7 +4478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>101</v>
       </c>
@@ -4489,7 +4495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>253</v>
       </c>
@@ -4506,13 +4512,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B52" s="22"/>
       <c r="C52" s="7"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="22" t="s">
         <v>147</v>
       </c>
@@ -4529,7 +4535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
         <v>311</v>
       </c>
@@ -4546,7 +4552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
         <v>272</v>
       </c>
@@ -4563,7 +4569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="22" t="s">
         <v>241</v>
       </c>
@@ -4580,7 +4586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="22" t="s">
         <v>102</v>
       </c>
@@ -4597,7 +4603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
         <v>254</v>
       </c>
@@ -4614,14 +4620,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="22"/>
       <c r="C59" s="7"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>148</v>
       </c>
@@ -4638,7 +4644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>312</v>
       </c>
@@ -4655,7 +4661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>273</v>
       </c>
@@ -4676,7 +4682,7 @@
       <c r="S62" s="16"/>
       <c r="T62" s="4"/>
     </row>
-    <row r="63" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>242</v>
       </c>
@@ -4696,7 +4702,7 @@
       <c r="S63" s="16"/>
       <c r="T63" s="4"/>
     </row>
-    <row r="64" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>103</v>
       </c>
@@ -4716,7 +4722,7 @@
       <c r="S64" s="16"/>
       <c r="T64" s="4"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="22"/>
       <c r="C65" s="7"/>
@@ -4726,7 +4732,7 @@
       <c r="S65" s="16"/>
       <c r="T65" s="4"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>114</v>
       </c>
@@ -4746,7 +4752,7 @@
       <c r="S66" s="16"/>
       <c r="T66" s="4"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>149</v>
       </c>
@@ -4766,7 +4772,7 @@
       <c r="S67" s="16"/>
       <c r="T67" s="4"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>313</v>
       </c>
@@ -4786,7 +4792,7 @@
       <c r="S68" s="16"/>
       <c r="T68" s="4"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>274</v>
       </c>
@@ -4806,7 +4812,7 @@
       <c r="S69" s="16"/>
       <c r="T69" s="4"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>243</v>
       </c>
@@ -4826,7 +4832,7 @@
       <c r="S70" s="16"/>
       <c r="T70" s="4"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>104</v>
       </c>
@@ -4846,7 +4852,7 @@
       <c r="S71" s="16"/>
       <c r="T71" s="4"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>255</v>
       </c>
@@ -4866,7 +4872,7 @@
       <c r="S72" s="16"/>
       <c r="T72" s="4"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="22"/>
       <c r="C73" s="7"/>
@@ -4876,7 +4882,7 @@
       <c r="S73" s="16"/>
       <c r="T73" s="4"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>115</v>
       </c>
@@ -4896,7 +4902,7 @@
       <c r="S74" s="16"/>
       <c r="T74" s="4"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>150</v>
       </c>
@@ -4916,7 +4922,7 @@
       <c r="S75" s="16"/>
       <c r="T75" s="4"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>314</v>
       </c>
@@ -4936,7 +4942,7 @@
       <c r="S76" s="8"/>
       <c r="T76" s="4"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>275</v>
       </c>
@@ -4956,7 +4962,7 @@
       <c r="S77" s="8"/>
       <c r="T77" s="4"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>244</v>
       </c>
@@ -4976,7 +4982,7 @@
       <c r="S78" s="8"/>
       <c r="T78" s="4"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>105</v>
       </c>
@@ -4996,7 +5002,7 @@
       <c r="S79" s="8"/>
       <c r="T79" s="4"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>256</v>
       </c>
@@ -5016,7 +5022,7 @@
       <c r="S80" s="8"/>
       <c r="T80" s="4"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="22"/>
       <c r="C81" s="7"/>
@@ -5026,7 +5032,7 @@
       <c r="S81" s="8"/>
       <c r="T81" s="4"/>
     </row>
-    <row r="82" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>116</v>
       </c>
@@ -5046,7 +5052,7 @@
       <c r="S82" s="8"/>
       <c r="T82" s="4"/>
     </row>
-    <row r="83" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>151</v>
       </c>
@@ -5066,7 +5072,7 @@
       <c r="S83" s="8"/>
       <c r="T83" s="4"/>
     </row>
-    <row r="84" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>315</v>
       </c>
@@ -5086,7 +5092,7 @@
       <c r="S84" s="8"/>
       <c r="T84" s="4"/>
     </row>
-    <row r="85" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>276</v>
       </c>
@@ -5106,7 +5112,7 @@
       <c r="S85" s="8"/>
       <c r="T85" s="4"/>
     </row>
-    <row r="86" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>245</v>
       </c>
@@ -5126,7 +5132,7 @@
       <c r="S86" s="8"/>
       <c r="T86" s="4"/>
     </row>
-    <row r="87" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>106</v>
       </c>
@@ -5146,7 +5152,7 @@
       <c r="S87" s="8"/>
       <c r="T87" s="4"/>
     </row>
-    <row r="88" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>257</v>
       </c>
@@ -5166,7 +5172,7 @@
       <c r="S88" s="8"/>
       <c r="T88" s="4"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="22"/>
       <c r="C89" s="7"/>
@@ -5176,7 +5182,7 @@
       <c r="S89" s="8"/>
       <c r="T89" s="4"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>117</v>
       </c>
@@ -5196,7 +5202,7 @@
       <c r="S90" s="8"/>
       <c r="T90" s="4"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>152</v>
       </c>
@@ -5216,7 +5222,7 @@
       <c r="S91" s="8"/>
       <c r="T91" s="4"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>316</v>
       </c>
@@ -5236,7 +5242,7 @@
       <c r="S92" s="8"/>
       <c r="T92" s="4"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>277</v>
       </c>
@@ -5256,7 +5262,7 @@
       <c r="S93" s="8"/>
       <c r="T93" s="4"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>246</v>
       </c>
@@ -5276,7 +5282,7 @@
       <c r="S94" s="8"/>
       <c r="T94" s="4"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>107</v>
       </c>
@@ -5296,7 +5302,7 @@
       <c r="S95" s="8"/>
       <c r="T95" s="4"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>258</v>
       </c>
@@ -5316,7 +5322,7 @@
       <c r="S96" s="8"/>
       <c r="T96" s="4"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
       <c r="B97" s="22"/>
       <c r="C97" s="7"/>
@@ -5326,7 +5332,7 @@
       <c r="S97" s="8"/>
       <c r="T97" s="4"/>
     </row>
-    <row r="98" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>118</v>
       </c>
@@ -5346,7 +5352,7 @@
       <c r="S98" s="8"/>
       <c r="T98" s="4"/>
     </row>
-    <row r="99" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>153</v>
       </c>
@@ -5366,7 +5372,7 @@
       <c r="S99" s="8"/>
       <c r="T99" s="4"/>
     </row>
-    <row r="100" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>317</v>
       </c>
@@ -5385,7 +5391,7 @@
       <c r="S100" s="8"/>
       <c r="T100" s="4"/>
     </row>
-    <row r="101" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>278</v>
       </c>
@@ -5404,7 +5410,7 @@
       <c r="S101" s="8"/>
       <c r="T101" s="4"/>
     </row>
-    <row r="102" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>247</v>
       </c>
@@ -5423,7 +5429,7 @@
       <c r="S102" s="8"/>
       <c r="T102" s="4"/>
     </row>
-    <row r="103" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>108</v>
       </c>
@@ -5442,7 +5448,7 @@
       <c r="S103" s="8"/>
       <c r="T103" s="4"/>
     </row>
-    <row r="104" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>259</v>
       </c>
@@ -5461,7 +5467,7 @@
       <c r="S104" s="8"/>
       <c r="T104" s="4"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -5470,7 +5476,7 @@
       <c r="S105" s="8"/>
       <c r="T105" s="4"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>119</v>
       </c>
@@ -5489,7 +5495,7 @@
       <c r="S106" s="8"/>
       <c r="T106" s="4"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>154</v>
       </c>
@@ -5508,7 +5514,7 @@
       <c r="S107" s="8"/>
       <c r="T107" s="4"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>318</v>
       </c>
@@ -5527,7 +5533,7 @@
       <c r="S108" s="8"/>
       <c r="T108" s="4"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>279</v>
       </c>
@@ -5546,7 +5552,7 @@
       <c r="S109" s="8"/>
       <c r="T109" s="4"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>260</v>
       </c>
@@ -5565,7 +5571,7 @@
       <c r="S110" s="8"/>
       <c r="T110" s="4"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>230</v>
       </c>
@@ -5584,14 +5590,14 @@
       <c r="S111" s="8"/>
       <c r="T111" s="4"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>120</v>
       </c>
@@ -5608,7 +5614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>155</v>
       </c>
@@ -5625,7 +5631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>319</v>
       </c>
@@ -5642,7 +5648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>280</v>
       </c>
@@ -5659,7 +5665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>261</v>
       </c>
@@ -5679,7 +5685,7 @@
       <c r="L117" s="24"/>
       <c r="M117" s="24"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>231</v>
       </c>
@@ -5699,7 +5705,7 @@
       <c r="L118" s="24"/>
       <c r="M118" s="24"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B119" s="22"/>
       <c r="C119" s="7"/>
       <c r="D119" s="8"/>
@@ -5708,7 +5714,7 @@
       <c r="L119" s="24"/>
       <c r="M119" s="24"/>
     </row>
-    <row r="120" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="22" t="s">
         <v>262</v>
       </c>
@@ -5729,7 +5735,7 @@
       <c r="L120" s="24"/>
       <c r="M120" s="24"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B121" s="22"/>
       <c r="C121" s="7"/>
       <c r="D121" s="8"/>
@@ -5739,7 +5745,7 @@
       <c r="L121" s="24"/>
       <c r="M121" s="24"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>121</v>
       </c>
@@ -5760,7 +5766,7 @@
       <c r="L122" s="40"/>
       <c r="M122" s="24"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>156</v>
       </c>
@@ -5780,7 +5786,7 @@
       <c r="L123" s="24"/>
       <c r="M123" s="24"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>320</v>
       </c>
@@ -5800,7 +5806,7 @@
       <c r="L124" s="24"/>
       <c r="M124" s="24"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>281</v>
       </c>
@@ -5820,7 +5826,7 @@
       <c r="L125" s="13"/>
       <c r="M125" s="24"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>456</v>
       </c>
@@ -5840,7 +5846,7 @@
       <c r="L126" s="13"/>
       <c r="M126" s="24"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>457</v>
       </c>
@@ -5860,7 +5866,7 @@
       <c r="L127" s="13"/>
       <c r="M127" s="24"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>263</v>
       </c>
@@ -5880,7 +5886,7 @@
       <c r="L128" s="14"/>
       <c r="M128" s="24"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>232</v>
       </c>
@@ -5900,7 +5906,7 @@
       <c r="L129" s="14"/>
       <c r="M129" s="24"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="22"/>
       <c r="C130" s="7"/>
@@ -5910,7 +5916,7 @@
       <c r="L130" s="24"/>
       <c r="M130" s="24"/>
     </row>
-    <row r="131" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>122</v>
       </c>
@@ -5930,7 +5936,7 @@
       <c r="L131" s="24"/>
       <c r="M131" s="24"/>
     </row>
-    <row r="132" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>157</v>
       </c>
@@ -5950,7 +5956,7 @@
       <c r="L132" s="14"/>
       <c r="M132" s="24"/>
     </row>
-    <row r="133" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>321</v>
       </c>
@@ -5970,7 +5976,7 @@
       <c r="L133" s="14"/>
       <c r="M133" s="24"/>
     </row>
-    <row r="134" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>282</v>
       </c>
@@ -5990,7 +5996,7 @@
       <c r="L134" s="14"/>
       <c r="M134" s="24"/>
     </row>
-    <row r="135" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>458</v>
       </c>
@@ -6010,7 +6016,7 @@
       <c r="L135" s="14"/>
       <c r="M135" s="24"/>
     </row>
-    <row r="136" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>459</v>
       </c>
@@ -6030,7 +6036,7 @@
       <c r="L136" s="14"/>
       <c r="M136" s="24"/>
     </row>
-    <row r="137" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>264</v>
       </c>
@@ -6050,7 +6056,7 @@
       <c r="L137" s="24"/>
       <c r="M137" s="24"/>
     </row>
-    <row r="138" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>233</v>
       </c>
@@ -6067,14 +6073,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="22"/>
       <c r="C139" s="7"/>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
     </row>
-    <row r="140" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>123</v>
       </c>
@@ -6091,7 +6097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>158</v>
       </c>
@@ -6108,7 +6114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>322</v>
       </c>
@@ -6126,7 +6132,7 @@
       </c>
       <c r="F142" s="22"/>
     </row>
-    <row r="143" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>283</v>
       </c>
@@ -6144,7 +6150,7 @@
       </c>
       <c r="F143" s="22"/>
     </row>
-    <row r="144" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>460</v>
       </c>
@@ -6162,7 +6168,7 @@
       </c>
       <c r="F144" s="22"/>
     </row>
-    <row r="145" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>461</v>
       </c>
@@ -6180,7 +6186,7 @@
       </c>
       <c r="F145" s="22"/>
     </row>
-    <row r="146" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>265</v>
       </c>
@@ -6198,7 +6204,7 @@
       </c>
       <c r="F146" s="22"/>
     </row>
-    <row r="147" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>234</v>
       </c>
@@ -6216,13 +6222,13 @@
       </c>
       <c r="F147" s="22"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
     </row>
-    <row r="149" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="22" t="s">
         <v>124</v>
       </c>
@@ -6239,7 +6245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="22" t="s">
         <v>159</v>
       </c>
@@ -6256,7 +6262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="22" t="s">
         <v>323</v>
       </c>
@@ -6273,7 +6279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="22" t="s">
         <v>284</v>
       </c>
@@ -6291,7 +6297,7 @@
       </c>
       <c r="F152" s="27"/>
     </row>
-    <row r="153" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="22" t="s">
         <v>266</v>
       </c>
@@ -6309,7 +6315,7 @@
       </c>
       <c r="F153" s="27"/>
     </row>
-    <row r="154" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="22" t="s">
         <v>235</v>
       </c>
@@ -6328,13 +6334,13 @@
       <c r="F154" s="27"/>
       <c r="I154" s="3"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
       <c r="F155" s="27"/>
       <c r="I155" s="3"/>
     </row>
-    <row r="156" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>455</v>
       </c>
@@ -6356,7 +6362,7 @@
       <c r="R156" s="14"/>
       <c r="T156" s="4"/>
     </row>
-    <row r="157" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>462</v>
       </c>
@@ -6377,7 +6383,7 @@
       <c r="R157" s="13"/>
       <c r="T157" s="4"/>
     </row>
-    <row r="158" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>463</v>
       </c>
@@ -6398,13 +6404,13 @@
       <c r="R158" s="13"/>
       <c r="T158" s="4"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
       <c r="F159" s="27"/>
     </row>
-    <row r="160" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>125</v>
       </c>
@@ -6422,7 +6428,7 @@
       </c>
       <c r="F160" s="27"/>
     </row>
-    <row r="161" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>160</v>
       </c>
@@ -6440,7 +6446,7 @@
       </c>
       <c r="F161" s="27"/>
     </row>
-    <row r="162" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>324</v>
       </c>
@@ -6458,7 +6464,7 @@
       </c>
       <c r="F162" s="27"/>
     </row>
-    <row r="163" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>285</v>
       </c>
@@ -6476,13 +6482,13 @@
       </c>
       <c r="F163" s="27"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
       <c r="F164" s="27"/>
     </row>
-    <row r="165" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>126</v>
       </c>
@@ -6500,7 +6506,7 @@
       </c>
       <c r="F165" s="27"/>
     </row>
-    <row r="166" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>161</v>
       </c>
@@ -6518,7 +6524,7 @@
       </c>
       <c r="F166" s="27"/>
     </row>
-    <row r="167" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>325</v>
       </c>
@@ -6536,7 +6542,7 @@
       </c>
       <c r="F167" s="27"/>
     </row>
-    <row r="168" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
         <v>286</v>
       </c>
@@ -6554,7 +6560,7 @@
       </c>
       <c r="F168" s="27"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
       <c r="B169" s="22"/>
       <c r="C169" s="7"/>
@@ -6562,7 +6568,7 @@
       <c r="E169" s="8"/>
       <c r="F169" s="27"/>
     </row>
-    <row r="170" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>127</v>
       </c>
@@ -6580,7 +6586,7 @@
       </c>
       <c r="F170" s="27"/>
     </row>
-    <row r="171" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>162</v>
       </c>
@@ -6598,7 +6604,7 @@
       </c>
       <c r="F171" s="5"/>
     </row>
-    <row r="172" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>326</v>
       </c>
@@ -6616,7 +6622,7 @@
       </c>
       <c r="F172" s="27"/>
     </row>
-    <row r="173" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>288</v>
       </c>
@@ -6634,12 +6640,12 @@
       </c>
       <c r="F173" s="27"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
       <c r="F174" s="27"/>
     </row>
-    <row r="175" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>128</v>
       </c>
@@ -6657,7 +6663,7 @@
       </c>
       <c r="F175" s="27"/>
     </row>
-    <row r="176" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
         <v>163</v>
       </c>
@@ -6675,7 +6681,7 @@
       </c>
       <c r="F176" s="27"/>
     </row>
-    <row r="177" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
         <v>327</v>
       </c>
@@ -6693,7 +6699,7 @@
       </c>
       <c r="F177" s="27"/>
     </row>
-    <row r="178" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>287</v>
       </c>
@@ -6711,7 +6717,7 @@
       </c>
       <c r="F178" s="27"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="22"/>
       <c r="C179" s="7"/>
@@ -6719,7 +6725,7 @@
       <c r="E179" s="8"/>
       <c r="F179" s="27"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>129</v>
       </c>
@@ -6737,7 +6743,7 @@
       </c>
       <c r="F180" s="27"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>164</v>
       </c>
@@ -6755,7 +6761,7 @@
       </c>
       <c r="F181" s="27"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>328</v>
       </c>
@@ -6773,7 +6779,7 @@
       </c>
       <c r="F182" s="27"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>289</v>
       </c>
@@ -6791,7 +6797,7 @@
       </c>
       <c r="F183" s="27"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
       <c r="B184" s="22"/>
       <c r="C184" s="7"/>
@@ -6799,7 +6805,7 @@
       <c r="E184" s="8"/>
       <c r="F184" s="27"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>165</v>
       </c>
@@ -6817,7 +6823,7 @@
       </c>
       <c r="F185" s="27"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
         <v>329</v>
       </c>
@@ -6835,7 +6841,7 @@
       </c>
       <c r="F186" s="27"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>290</v>
       </c>
@@ -6853,14 +6859,14 @@
       </c>
       <c r="F187" s="27"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="5"/>
       <c r="B188" s="22"/>
       <c r="C188" s="7"/>
       <c r="D188" s="8"/>
       <c r="E188" s="8"/>
     </row>
-    <row r="189" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
         <v>166</v>
       </c>
@@ -6877,7 +6883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>330</v>
       </c>
@@ -6894,7 +6900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>291</v>
       </c>
@@ -6911,13 +6917,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B192" s="22"/>
       <c r="C192" s="7"/>
       <c r="D192" s="8"/>
       <c r="E192" s="8"/>
     </row>
-    <row r="193" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>167</v>
       </c>
@@ -6934,7 +6940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>331</v>
       </c>
@@ -6951,7 +6957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
         <v>292</v>
       </c>
@@ -6968,14 +6974,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="5"/>
       <c r="B196" s="22"/>
       <c r="C196" s="7"/>
       <c r="D196" s="8"/>
       <c r="E196" s="8"/>
     </row>
-    <row r="197" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>130</v>
       </c>
@@ -6992,7 +6998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>168</v>
       </c>
@@ -7009,7 +7015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>332</v>
       </c>
@@ -7026,7 +7032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>293</v>
       </c>
@@ -7043,7 +7049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="5"/>
       <c r="B201" s="22"/>
       <c r="C201" s="7"/>
@@ -7051,7 +7057,7 @@
       <c r="E201" s="8"/>
       <c r="I201" s="47"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>131</v>
       </c>
@@ -7069,7 +7075,7 @@
       </c>
       <c r="I202" s="47"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
         <v>169</v>
       </c>
@@ -7087,7 +7093,7 @@
       </c>
       <c r="I203" s="47"/>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>333</v>
       </c>
@@ -7105,7 +7111,7 @@
       </c>
       <c r="I204" s="47"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
         <v>294</v>
       </c>
@@ -7123,7 +7129,7 @@
       </c>
       <c r="I205" s="47"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="5"/>
       <c r="B206" s="22"/>
       <c r="C206" s="7"/>
@@ -7131,7 +7137,7 @@
       <c r="E206" s="8"/>
       <c r="I206" s="47"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>132</v>
       </c>
@@ -7149,7 +7155,7 @@
       </c>
       <c r="I207" s="47"/>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
         <v>170</v>
       </c>
@@ -7167,7 +7173,7 @@
       </c>
       <c r="I208" s="47"/>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
         <v>334</v>
       </c>
@@ -7188,7 +7194,7 @@
       <c r="K209" s="24"/>
       <c r="L209" s="24"/>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
         <v>295</v>
       </c>
@@ -7209,7 +7215,7 @@
       <c r="K210" s="24"/>
       <c r="L210" s="24"/>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A211" s="5"/>
       <c r="B211" s="22"/>
       <c r="C211" s="7"/>
@@ -7218,7 +7224,7 @@
       <c r="K211" s="24"/>
       <c r="L211" s="24"/>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
         <v>133</v>
       </c>
@@ -7239,7 +7245,7 @@
       <c r="K212" s="24"/>
       <c r="L212" s="24"/>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
         <v>171</v>
       </c>
@@ -7261,7 +7267,7 @@
       <c r="L213" s="24"/>
       <c r="S213" s="24"/>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
         <v>335</v>
       </c>
@@ -7283,7 +7289,7 @@
       <c r="L214" s="24"/>
       <c r="S214" s="24"/>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
         <v>296</v>
       </c>
@@ -7305,7 +7311,7 @@
       <c r="L215" s="24"/>
       <c r="S215" s="24"/>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B216" s="22"/>
       <c r="C216" s="7"/>
       <c r="I216" s="47"/>
@@ -7314,7 +7320,7 @@
       <c r="L216" s="24"/>
       <c r="S216" s="24"/>
     </row>
-    <row r="217" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="22" t="s">
         <v>134</v>
       </c>
@@ -7336,7 +7342,7 @@
       <c r="L217" s="24"/>
       <c r="S217" s="24"/>
     </row>
-    <row r="218" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="22" t="s">
         <v>172</v>
       </c>
@@ -7358,7 +7364,7 @@
       <c r="L218" s="24"/>
       <c r="S218" s="24"/>
     </row>
-    <row r="219" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="22" t="s">
         <v>336</v>
       </c>
@@ -7380,7 +7386,7 @@
       <c r="L219" s="24"/>
       <c r="S219" s="24"/>
     </row>
-    <row r="220" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="22" t="s">
         <v>297</v>
       </c>
@@ -7402,7 +7408,7 @@
       <c r="L220" s="24"/>
       <c r="S220" s="24"/>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A221" s="5"/>
       <c r="B221" s="22"/>
       <c r="C221" s="7"/>
@@ -7412,7 +7418,7 @@
       <c r="L221" s="24"/>
       <c r="S221" s="24"/>
     </row>
-    <row r="222" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
         <v>135</v>
       </c>
@@ -7434,7 +7440,7 @@
       <c r="L222" s="24"/>
       <c r="S222" s="24"/>
     </row>
-    <row r="223" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
         <v>173</v>
       </c>
@@ -7455,7 +7461,7 @@
       <c r="L223" s="24"/>
       <c r="S223" s="24"/>
     </row>
-    <row r="224" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
         <v>337</v>
       </c>
@@ -7476,7 +7482,7 @@
       <c r="L224" s="24"/>
       <c r="S224" s="24"/>
     </row>
-    <row r="225" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
         <v>298</v>
       </c>
@@ -7497,7 +7503,7 @@
       <c r="L225" s="24"/>
       <c r="S225" s="24"/>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A226" s="5"/>
       <c r="B226" s="22"/>
       <c r="C226" s="7"/>
@@ -7506,7 +7512,7 @@
       <c r="L226" s="24"/>
       <c r="S226" s="24"/>
     </row>
-    <row r="227" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
         <v>136</v>
       </c>
@@ -7527,7 +7533,7 @@
       <c r="L227" s="24"/>
       <c r="S227" s="24"/>
     </row>
-    <row r="228" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
         <v>174</v>
       </c>
@@ -7548,7 +7554,7 @@
       <c r="L228" s="24"/>
       <c r="S228" s="24"/>
     </row>
-    <row r="229" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
         <v>338</v>
       </c>
@@ -7568,7 +7574,7 @@
       <c r="K229" s="24"/>
       <c r="L229" s="24"/>
     </row>
-    <row r="230" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
         <v>299</v>
       </c>
@@ -7588,7 +7594,7 @@
       <c r="K230" s="24"/>
       <c r="L230" s="24"/>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A231" s="5"/>
       <c r="B231" s="22"/>
       <c r="C231" s="7"/>
@@ -7596,7 +7602,7 @@
       <c r="I231" s="5"/>
       <c r="J231" s="26"/>
     </row>
-    <row r="232" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
         <v>137</v>
       </c>
@@ -7616,7 +7622,7 @@
       <c r="I232" s="5"/>
       <c r="J232" s="7"/>
     </row>
-    <row r="233" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
         <v>175</v>
       </c>
@@ -7636,7 +7642,7 @@
       <c r="I233" s="5"/>
       <c r="J233" s="7"/>
     </row>
-    <row r="234" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
         <v>339</v>
       </c>
@@ -7655,7 +7661,7 @@
       <c r="H234" s="5"/>
       <c r="I234" s="5"/>
     </row>
-    <row r="235" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
         <v>300</v>
       </c>
@@ -7675,7 +7681,7 @@
       <c r="H235" s="5"/>
       <c r="I235" s="5"/>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A236" s="5"/>
       <c r="B236" s="22"/>
       <c r="C236" s="7"/>
@@ -7683,7 +7689,7 @@
       <c r="H236" s="5"/>
       <c r="I236" s="5"/>
     </row>
-    <row r="237" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
         <v>176</v>
       </c>
@@ -7701,7 +7707,7 @@
       </c>
       <c r="G237" s="9"/>
     </row>
-    <row r="238" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
         <v>340</v>
       </c>
@@ -7719,7 +7725,7 @@
       </c>
       <c r="G238" s="9"/>
     </row>
-    <row r="239" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
         <v>301</v>
       </c>
@@ -7737,11 +7743,11 @@
       </c>
       <c r="G239" s="9"/>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B240" s="22"/>
       <c r="C240" s="7"/>
     </row>
-    <row r="241" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="22" t="s">
         <v>464</v>
       </c>
@@ -7760,7 +7766,7 @@
       <c r="H241" s="5"/>
       <c r="I241" s="5"/>
     </row>
-    <row r="242" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="22" t="s">
         <v>465</v>
       </c>
@@ -7779,7 +7785,7 @@
       <c r="H242" s="5"/>
       <c r="I242" s="5"/>
     </row>
-    <row r="243" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="22" t="s">
         <v>466</v>
       </c>
@@ -7798,7 +7804,7 @@
       <c r="H243" s="5"/>
       <c r="I243" s="5"/>
     </row>
-    <row r="244" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="22" t="s">
         <v>467</v>
       </c>
@@ -7817,7 +7823,7 @@
       <c r="H244" s="5"/>
       <c r="I244" s="5"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="5"/>
       <c r="B245" s="22"/>
       <c r="C245" s="7"/>
@@ -7825,7 +7831,7 @@
       <c r="H245" s="5"/>
       <c r="I245" s="5"/>
     </row>
-    <row r="246" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
         <v>138</v>
       </c>
@@ -7845,7 +7851,7 @@
       <c r="H246" s="5"/>
       <c r="I246" s="5"/>
     </row>
-    <row r="247" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
         <v>177</v>
       </c>
@@ -7863,7 +7869,7 @@
       </c>
       <c r="G247" s="5"/>
     </row>
-    <row r="248" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
         <v>341</v>
       </c>
@@ -7881,7 +7887,7 @@
       </c>
       <c r="G248" s="5"/>
     </row>
-    <row r="249" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
         <v>302</v>
       </c>
@@ -7899,13 +7905,13 @@
       </c>
       <c r="G249" s="5"/>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="5"/>
       <c r="B250" s="22"/>
       <c r="C250" s="7"/>
       <c r="G250" s="5"/>
     </row>
-    <row r="251" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
         <v>139</v>
       </c>
@@ -7922,7 +7928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
         <v>178</v>
       </c>
@@ -7939,7 +7945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
         <v>342</v>
       </c>
@@ -7956,7 +7962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
         <v>303</v>
       </c>
@@ -7973,12 +7979,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="5"/>
       <c r="B255" s="22"/>
       <c r="C255" s="7"/>
     </row>
-    <row r="256" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
         <v>140</v>
       </c>
@@ -7995,7 +8001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
         <v>179</v>
       </c>
@@ -8012,7 +8018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
         <v>343</v>
       </c>
@@ -8029,7 +8035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="5" t="s">
         <v>304</v>
       </c>
@@ -8046,11 +8052,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B260" s="22"/>
       <c r="C260" s="7"/>
     </row>
-    <row r="261" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="22" t="s">
         <v>141</v>
       </c>
@@ -8068,7 +8074,7 @@
       </c>
       <c r="F261" s="27"/>
     </row>
-    <row r="262" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="22" t="s">
         <v>180</v>
       </c>
@@ -8085,7 +8091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="22" t="s">
         <v>344</v>
       </c>
@@ -8102,7 +8108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="22" t="s">
         <v>305</v>
       </c>
@@ -8119,12 +8125,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="5"/>
       <c r="B265" s="22"/>
       <c r="C265" s="7"/>
     </row>
-    <row r="266" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="5" t="s">
         <v>468</v>
       </c>
@@ -8141,7 +8147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="5" t="s">
         <v>469</v>
       </c>
@@ -8158,7 +8164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
         <v>470</v>
       </c>
@@ -8175,7 +8181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="5" t="s">
         <v>471</v>
       </c>
@@ -8192,14 +8198,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="5"/>
       <c r="B270" s="22"/>
       <c r="C270" s="7"/>
       <c r="D270" s="8"/>
       <c r="E270" s="8"/>
     </row>
-    <row r="271" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="5" t="s">
         <v>351</v>
       </c>
@@ -8216,7 +8222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="5" t="s">
         <v>352</v>
       </c>
@@ -8233,7 +8239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="5" t="s">
         <v>353</v>
       </c>
@@ -8250,7 +8256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="5" t="s">
         <v>354</v>
       </c>
@@ -8267,14 +8273,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="5"/>
       <c r="B275" s="22"/>
       <c r="C275" s="7"/>
       <c r="D275" s="8"/>
       <c r="E275" s="8"/>
     </row>
-    <row r="276" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="5" t="s">
         <v>355</v>
       </c>
@@ -8291,7 +8297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
         <v>356</v>
       </c>
@@ -8308,7 +8314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="s">
         <v>357</v>
       </c>
@@ -8325,7 +8331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
         <v>358</v>
       </c>
@@ -8342,13 +8348,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B280" s="22"/>
       <c r="C280" s="7"/>
       <c r="D280" s="8"/>
       <c r="E280" s="8"/>
     </row>
-    <row r="281" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="22" t="s">
         <v>359</v>
       </c>
@@ -8366,7 +8372,7 @@
       </c>
       <c r="F281" s="5"/>
     </row>
-    <row r="282" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="22" t="s">
         <v>360</v>
       </c>
@@ -8384,7 +8390,7 @@
       </c>
       <c r="F282" s="5"/>
     </row>
-    <row r="283" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="22" t="s">
         <v>361</v>
       </c>
@@ -8401,14 +8407,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="5"/>
       <c r="B284" s="22"/>
       <c r="C284" s="7"/>
       <c r="D284" s="8"/>
       <c r="E284" s="8"/>
     </row>
-    <row r="285" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="5" t="s">
         <v>362</v>
       </c>
@@ -8425,7 +8431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="5" t="s">
         <v>363</v>
       </c>
@@ -8442,7 +8448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="5" t="s">
         <v>364</v>
       </c>
@@ -8459,7 +8465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="s">
         <v>365</v>
       </c>
@@ -8476,14 +8482,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="5"/>
       <c r="B289" s="22"/>
       <c r="C289" s="7"/>
       <c r="D289" s="8"/>
       <c r="E289" s="8"/>
     </row>
-    <row r="290" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="5" t="s">
         <v>366</v>
       </c>
@@ -8500,7 +8506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="5" t="s">
         <v>367</v>
       </c>
@@ -8517,7 +8523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="5" t="s">
         <v>368</v>
       </c>
@@ -8534,14 +8540,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="5"/>
       <c r="B293" s="22"/>
       <c r="C293" s="7"/>
       <c r="D293" s="8"/>
       <c r="E293" s="8"/>
     </row>
-    <row r="294" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="5" t="s">
         <v>369</v>
       </c>
@@ -8558,7 +8564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="5" t="s">
         <v>370</v>
       </c>
@@ -8575,7 +8581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="5" t="s">
         <v>371</v>
       </c>
@@ -8592,7 +8598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="5" t="s">
         <v>372</v>
       </c>
@@ -8609,14 +8615,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="5"/>
       <c r="B298" s="22"/>
       <c r="C298" s="7"/>
       <c r="D298" s="8"/>
       <c r="E298" s="8"/>
     </row>
-    <row r="299" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="5" t="s">
         <v>373</v>
       </c>
@@ -8633,7 +8639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="5" t="s">
         <v>374</v>
       </c>
@@ -8650,7 +8656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="5" t="s">
         <v>375</v>
       </c>
@@ -8667,13 +8673,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B302" s="22"/>
       <c r="C302" s="7"/>
       <c r="D302" s="8"/>
       <c r="E302" s="8"/>
     </row>
-    <row r="303" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="22" t="s">
         <v>376</v>
       </c>
@@ -8690,7 +8696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="22" t="s">
         <v>377</v>
       </c>
@@ -8707,7 +8713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="22" t="s">
         <v>378</v>
       </c>
@@ -8724,7 +8730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="22" t="s">
         <v>379</v>
       </c>
@@ -8741,14 +8747,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="5"/>
       <c r="B307" s="22"/>
       <c r="C307" s="7"/>
       <c r="D307" s="8"/>
       <c r="E307" s="8"/>
     </row>
-    <row r="308" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="5" t="s">
         <v>380</v>
       </c>
@@ -8765,7 +8771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="5" t="s">
         <v>381</v>
       </c>
@@ -8782,7 +8788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="5" t="s">
         <v>382</v>
       </c>
@@ -8799,14 +8805,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="5"/>
       <c r="B311" s="22"/>
       <c r="C311" s="7"/>
       <c r="D311" s="8"/>
       <c r="E311" s="8"/>
     </row>
-    <row r="312" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="5" t="s">
         <v>383</v>
       </c>
@@ -8823,7 +8829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="5" t="s">
         <v>384</v>
       </c>
@@ -8840,7 +8846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="5" t="s">
         <v>385</v>
       </c>
@@ -8857,14 +8863,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="5"/>
       <c r="B315" s="22"/>
       <c r="C315" s="7"/>
       <c r="D315" s="8"/>
       <c r="E315" s="8"/>
     </row>
-    <row r="316" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="5" t="s">
         <v>386</v>
       </c>
@@ -8881,7 +8887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="5" t="s">
         <v>387</v>
       </c>
@@ -8898,7 +8904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="5" t="s">
         <v>388</v>
       </c>
@@ -8915,14 +8921,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="5"/>
       <c r="B319" s="22"/>
       <c r="C319" s="7"/>
       <c r="D319" s="8"/>
       <c r="E319" s="8"/>
     </row>
-    <row r="320" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="5" t="s">
         <v>389</v>
       </c>
@@ -8939,7 +8945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="5" t="s">
         <v>390</v>
       </c>
@@ -8956,7 +8962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="5" t="s">
         <v>391</v>
       </c>
@@ -8973,14 +8979,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="5"/>
       <c r="B323" s="22"/>
       <c r="C323" s="7"/>
       <c r="D323" s="8"/>
       <c r="E323" s="8"/>
     </row>
-    <row r="324" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="5" t="s">
         <v>392</v>
       </c>
@@ -8997,7 +9003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="5" t="s">
         <v>393</v>
       </c>
@@ -9014,7 +9020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="5" t="s">
         <v>394</v>
       </c>
@@ -9031,7 +9037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="5" t="s">
         <v>395</v>
       </c>
@@ -9048,13 +9054,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B328" s="22"/>
       <c r="C328" s="7"/>
       <c r="D328" s="8"/>
       <c r="E328" s="8"/>
     </row>
-    <row r="329" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="22" t="s">
         <v>396</v>
       </c>
@@ -9071,7 +9077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="22" t="s">
         <v>397</v>
       </c>
@@ -9088,7 +9094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="22" t="s">
         <v>398</v>
       </c>
@@ -9105,7 +9111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="22" t="s">
         <v>399</v>
       </c>
@@ -9122,14 +9128,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="5"/>
       <c r="B333" s="22"/>
       <c r="C333" s="7"/>
       <c r="D333" s="8"/>
       <c r="E333" s="8"/>
     </row>
-    <row r="334" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="22" t="s">
         <v>400</v>
       </c>
@@ -9147,7 +9153,7 @@
       </c>
       <c r="F334" s="27"/>
     </row>
-    <row r="335" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="22" t="s">
         <v>401</v>
       </c>
@@ -9165,7 +9171,7 @@
       </c>
       <c r="F335" s="5"/>
     </row>
-    <row r="336" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="22" t="s">
         <v>402</v>
       </c>
@@ -9183,7 +9189,7 @@
       </c>
       <c r="F336" s="27"/>
     </row>
-    <row r="337" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="22" t="s">
         <v>403</v>
       </c>
@@ -9201,14 +9207,14 @@
       </c>
       <c r="F337" s="27"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B338" s="22"/>
       <c r="C338" s="7"/>
       <c r="D338" s="8"/>
       <c r="E338" s="8"/>
       <c r="F338" s="27"/>
     </row>
-    <row r="339" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="5" t="s">
         <v>472</v>
       </c>
@@ -9226,7 +9232,7 @@
       </c>
       <c r="F339" s="27"/>
     </row>
-    <row r="340" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="5" t="s">
         <v>473</v>
       </c>
@@ -9244,7 +9250,7 @@
       </c>
       <c r="F340" s="27"/>
     </row>
-    <row r="341" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="5" t="s">
         <v>474</v>
       </c>
@@ -9262,7 +9268,7 @@
       </c>
       <c r="F341" s="27"/>
     </row>
-    <row r="342" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="5" t="s">
         <v>475</v>
       </c>
@@ -9280,14 +9286,14 @@
       </c>
       <c r="F342" s="27"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B343" s="22"/>
       <c r="C343" s="7"/>
       <c r="D343" s="8"/>
       <c r="E343" s="8"/>
       <c r="F343" s="27"/>
     </row>
-    <row r="344" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="22" t="s">
         <v>404</v>
       </c>
@@ -9305,7 +9311,7 @@
       </c>
       <c r="F344" s="27"/>
     </row>
-    <row r="345" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="22" t="s">
         <v>405</v>
       </c>
@@ -9323,7 +9329,7 @@
       </c>
       <c r="F345" s="27"/>
     </row>
-    <row r="346" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="22" t="s">
         <v>406</v>
       </c>
@@ -9341,7 +9347,7 @@
       </c>
       <c r="F346" s="27"/>
     </row>
-    <row r="347" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="22" t="s">
         <v>407</v>
       </c>
@@ -9359,7 +9365,7 @@
       </c>
       <c r="F347" s="27"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="5"/>
       <c r="B348" s="22"/>
       <c r="C348" s="7"/>
@@ -9367,7 +9373,7 @@
       <c r="E348" s="8"/>
       <c r="F348" s="27"/>
     </row>
-    <row r="349" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="22" t="s">
         <v>408</v>
       </c>
@@ -9385,7 +9391,7 @@
       </c>
       <c r="F349" s="27"/>
     </row>
-    <row r="350" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="22" t="s">
         <v>409</v>
       </c>
@@ -9403,7 +9409,7 @@
       </c>
       <c r="F350" s="27"/>
     </row>
-    <row r="351" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="22" t="s">
         <v>410</v>
       </c>
@@ -9421,14 +9427,14 @@
       </c>
       <c r="F351" s="27"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B352" s="22"/>
       <c r="C352" s="7"/>
       <c r="D352" s="8"/>
       <c r="E352" s="8"/>
       <c r="F352" s="27"/>
     </row>
-    <row r="353" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="5" t="s">
         <v>411</v>
       </c>
@@ -9446,7 +9452,7 @@
       </c>
       <c r="F353" s="27"/>
     </row>
-    <row r="354" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="5" t="s">
         <v>412</v>
       </c>
@@ -9464,7 +9470,7 @@
       </c>
       <c r="F354" s="27"/>
     </row>
-    <row r="355" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="5" t="s">
         <v>413</v>
       </c>
@@ -9481,14 +9487,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="5"/>
       <c r="B356" s="22"/>
       <c r="C356" s="7"/>
       <c r="D356" s="8"/>
       <c r="E356" s="8"/>
     </row>
-    <row r="357" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="5" t="s">
         <v>414</v>
       </c>
@@ -9505,7 +9511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="5" t="s">
         <v>415</v>
       </c>
@@ -9522,7 +9528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="5" t="s">
         <v>416</v>
       </c>
@@ -9539,7 +9545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="5" t="s">
         <v>417</v>
       </c>
@@ -9556,14 +9562,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="5"/>
       <c r="B361" s="22"/>
       <c r="C361" s="7"/>
       <c r="D361" s="8"/>
       <c r="E361" s="8"/>
     </row>
-    <row r="362" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="5" t="s">
         <v>418</v>
       </c>
@@ -9580,7 +9586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="5" t="s">
         <v>419</v>
       </c>
@@ -9597,7 +9603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="5" t="s">
         <v>420</v>
       </c>
@@ -9614,7 +9620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="5" t="s">
         <v>421</v>
       </c>
@@ -9631,14 +9637,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="5"/>
       <c r="B366" s="22"/>
       <c r="C366" s="7"/>
       <c r="D366" s="8"/>
       <c r="E366" s="8"/>
     </row>
-    <row r="367" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="5" t="s">
         <v>422</v>
       </c>
@@ -9655,7 +9661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="5" t="s">
         <v>423</v>
       </c>
@@ -9672,7 +9678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="5" t="s">
         <v>424</v>
       </c>
@@ -9689,7 +9695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="5" t="s">
         <v>425</v>
       </c>
@@ -9706,13 +9712,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B371" s="22"/>
       <c r="C371" s="7"/>
       <c r="D371" s="8"/>
       <c r="E371" s="8"/>
     </row>
-    <row r="372" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="5" t="s">
         <v>426</v>
       </c>
@@ -9729,7 +9735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="5" t="s">
         <v>427</v>
       </c>
@@ -9746,7 +9752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="5" t="s">
         <v>428</v>
       </c>
@@ -9763,7 +9769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="5" t="s">
         <v>429</v>
       </c>
@@ -9780,14 +9786,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="5"/>
       <c r="B376" s="22"/>
       <c r="C376" s="7"/>
       <c r="D376" s="8"/>
       <c r="E376" s="8"/>
     </row>
-    <row r="377" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="5" t="s">
         <v>430</v>
       </c>
@@ -9804,7 +9810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="5" t="s">
         <v>431</v>
       </c>
@@ -9821,7 +9827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="5" t="s">
         <v>432</v>
       </c>
@@ -9838,7 +9844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="5" t="s">
         <v>433</v>
       </c>
@@ -9855,14 +9861,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="5"/>
       <c r="B381" s="22"/>
       <c r="C381" s="7"/>
       <c r="D381" s="8"/>
       <c r="E381" s="8"/>
     </row>
-    <row r="382" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="5" t="s">
         <v>434</v>
       </c>
@@ -9879,7 +9885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="5" t="s">
         <v>435</v>
       </c>
@@ -9896,7 +9902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="5" t="s">
         <v>436</v>
       </c>
@@ -9913,13 +9919,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="5"/>
       <c r="B385" s="22"/>
       <c r="D385" s="8"/>
       <c r="E385" s="8"/>
     </row>
-    <row r="386" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="5" t="s">
         <v>437</v>
       </c>
@@ -9936,7 +9942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="5" t="s">
         <v>438</v>
       </c>
@@ -9953,7 +9959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="5" t="s">
         <v>439</v>
       </c>
@@ -9970,7 +9976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="5" t="s">
         <v>440</v>
       </c>
@@ -9987,11 +9993,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="5"/>
       <c r="B390" s="22"/>
     </row>
-    <row r="391" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="5" t="s">
         <v>441</v>
       </c>
@@ -10008,7 +10014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="5" t="s">
         <v>442</v>
       </c>
@@ -10025,7 +10031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="5" t="s">
         <v>443</v>
       </c>
@@ -10042,7 +10048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="5" t="s">
         <v>444</v>
       </c>
@@ -10059,11 +10065,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="5"/>
       <c r="B395" s="22"/>
     </row>
-    <row r="396" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="5" t="s">
         <v>445</v>
       </c>
@@ -10080,7 +10086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="5" t="s">
         <v>446</v>
       </c>
@@ -10097,7 +10103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="5" t="s">
         <v>447</v>
       </c>
@@ -10114,7 +10120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="5" t="s">
         <v>448</v>
       </c>
@@ -10131,11 +10137,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="5"/>
       <c r="B400" s="22"/>
     </row>
-    <row r="401" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="5" t="s">
         <v>345</v>
       </c>
@@ -10152,7 +10158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="5" t="s">
         <v>346</v>
       </c>
@@ -10169,7 +10175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="5" t="s">
         <v>347</v>
       </c>
@@ -10187,11 +10193,11 @@
       </c>
       <c r="F403" s="5"/>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B404" s="22"/>
       <c r="F404" s="5"/>
     </row>
-    <row r="405" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="5" t="s">
         <v>348</v>
       </c>
@@ -10208,7 +10214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="5" t="s">
         <v>349</v>
       </c>
@@ -10225,7 +10231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="5" t="s">
         <v>350</v>
       </c>
@@ -10242,10 +10248,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B408" s="22"/>
     </row>
-    <row r="409" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="5" t="s">
         <v>181</v>
       </c>
@@ -10262,7 +10268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="5" t="s">
         <v>182</v>
       </c>
@@ -10279,7 +10285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="5" t="s">
         <v>183</v>
       </c>
@@ -10296,7 +10302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="5" t="s">
         <v>184</v>
       </c>
@@ -10313,7 +10319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="22" t="s">
         <v>185</v>
       </c>
@@ -10330,7 +10336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" s="5" t="s">
         <v>186</v>
       </c>
@@ -10347,7 +10353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="415" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="5" t="s">
         <v>188</v>
       </c>
@@ -10364,7 +10370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="5" t="s">
         <v>187</v>
       </c>
@@ -10381,7 +10387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="5" t="s">
         <v>189</v>
       </c>
@@ -10398,7 +10404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418" s="22" t="s">
         <v>190</v>
       </c>
@@ -10415,7 +10421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419" s="5" t="s">
         <v>191</v>
       </c>
@@ -10432,7 +10438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="420" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="5" t="s">
         <v>192</v>
       </c>
@@ -10449,11 +10455,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421" s="5"/>
       <c r="B421" s="22"/>
     </row>
-    <row r="422" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="5" t="s">
         <v>193</v>
       </c>
@@ -10470,7 +10476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="5" t="s">
         <v>194</v>
       </c>
@@ -10487,11 +10493,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424" s="5"/>
       <c r="B424" s="22"/>
     </row>
-    <row r="425" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="5" t="s">
         <v>195</v>
       </c>
@@ -10508,7 +10514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="426" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="5" t="s">
         <v>196</v>
       </c>
@@ -10525,12 +10531,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427" s="5"/>
       <c r="B427" s="22"/>
       <c r="F427" s="5"/>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428" s="5" t="s">
         <v>197</v>
       </c>
@@ -10548,7 +10554,7 @@
       </c>
       <c r="I428" s="14"/>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429" s="5" t="s">
         <v>198</v>
       </c>
@@ -10565,11 +10571,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430" s="5"/>
       <c r="B430" s="22"/>
     </row>
-    <row r="431" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="5" t="s">
         <v>199</v>
       </c>
@@ -10586,7 +10592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="5" t="s">
         <v>200</v>
       </c>
@@ -10603,11 +10609,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" s="5"/>
       <c r="B433" s="22"/>
     </row>
-    <row r="434" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="5" t="s">
         <v>201</v>
       </c>
@@ -10624,7 +10630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="435" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="5" t="s">
         <v>202</v>
       </c>
@@ -10641,11 +10647,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="5"/>
       <c r="B436" s="22"/>
     </row>
-    <row r="437" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="5" t="s">
         <v>203</v>
       </c>
@@ -10662,7 +10668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="5" t="s">
         <v>204</v>
       </c>
@@ -10679,11 +10685,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" s="5"/>
       <c r="B439" s="22"/>
     </row>
-    <row r="440" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="5" t="s">
         <v>205</v>
       </c>
@@ -10700,7 +10706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="5" t="s">
         <v>206</v>
       </c>
@@ -10717,11 +10723,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="5"/>
       <c r="B442" s="22"/>
     </row>
-    <row r="443" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="5" t="s">
         <v>207</v>
       </c>
@@ -10738,7 +10744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="444" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="5" t="s">
         <v>228</v>
       </c>
@@ -10755,11 +10761,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" s="5"/>
       <c r="B445" s="22"/>
     </row>
-    <row r="446" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="5" t="s">
         <v>208</v>
       </c>
@@ -10776,7 +10782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="447" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="5" t="s">
         <v>227</v>
       </c>
@@ -10793,11 +10799,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" s="5"/>
       <c r="B448" s="22"/>
     </row>
-    <row r="449" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="5" t="s">
         <v>209</v>
       </c>
@@ -10814,7 +10820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="450" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="5" t="s">
         <v>226</v>
       </c>
@@ -10831,11 +10837,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="5"/>
       <c r="B451" s="22"/>
     </row>
-    <row r="452" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="5" t="s">
         <v>210</v>
       </c>
@@ -10852,7 +10858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="453" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="5" t="s">
         <v>225</v>
       </c>
@@ -10869,11 +10875,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="5"/>
       <c r="B454" s="22"/>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="5" t="s">
         <v>218</v>
       </c>
@@ -10890,7 +10896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" s="5" t="s">
         <v>219</v>
       </c>
@@ -10907,7 +10913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="457" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="5" t="s">
         <v>220</v>
       </c>
@@ -10924,7 +10930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="5" t="s">
         <v>221</v>
       </c>
@@ -10941,7 +10947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="5" t="s">
         <v>222</v>
       </c>
@@ -10958,7 +10964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="460" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="5" t="s">
         <v>223</v>
       </c>
@@ -10975,7 +10981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="22" t="s">
         <v>224</v>
       </c>
@@ -10992,7 +10998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="5" t="s">
         <v>211</v>
       </c>
@@ -11009,7 +11015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="5" t="s">
         <v>212</v>
       </c>
@@ -11026,7 +11032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="465" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="5" t="s">
         <v>213</v>
       </c>
@@ -11043,7 +11049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="5" t="s">
         <v>214</v>
       </c>
@@ -11060,7 +11066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" s="5" t="s">
         <v>215</v>
       </c>
@@ -11077,7 +11083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="468" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="5" t="s">
         <v>216</v>
       </c>
@@ -11094,7 +11100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="470" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="5" t="s">
         <v>217</v>
       </c>
@@ -11111,806 +11117,806 @@
         <v>10</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" s="5"/>
       <c r="B472" s="22"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" s="5"/>
       <c r="B473" s="22"/>
       <c r="G473" s="16"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" s="5"/>
       <c r="B474" s="22"/>
       <c r="G474" s="16"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B475" s="22"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" s="5"/>
       <c r="B476" s="22"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" s="5"/>
       <c r="B477" s="22"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" s="5"/>
       <c r="B478" s="22"/>
     </row>
-    <row r="479" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="5"/>
       <c r="B479" s="22"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B480" s="22"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" s="5"/>
       <c r="B481" s="22"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" s="5"/>
       <c r="B482" s="22"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" s="5"/>
       <c r="B483" s="22"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" s="5"/>
       <c r="B484" s="22"/>
       <c r="F484" s="5"/>
       <c r="G484" s="27"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B485" s="22"/>
       <c r="F485" s="5"/>
       <c r="G485" s="27"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" s="5"/>
       <c r="B486" s="22"/>
       <c r="F486" s="5"/>
       <c r="G486" s="27"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" s="5"/>
       <c r="B487" s="22"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" s="5"/>
       <c r="B488" s="22"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" s="5"/>
       <c r="B489" s="22"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B490" s="22"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" s="5"/>
       <c r="B491" s="22"/>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" s="5"/>
       <c r="B492" s="22"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" s="5"/>
       <c r="B493" s="22"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" s="5"/>
       <c r="B494" s="22"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B495" s="22"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" s="5"/>
       <c r="B496" s="22"/>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A497" s="5"/>
       <c r="B497" s="22"/>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A498" s="5"/>
       <c r="B498" s="22"/>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A499" s="5"/>
       <c r="B499" s="22"/>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B500" s="22"/>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A501" s="5"/>
       <c r="B501" s="22"/>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A502" s="5"/>
       <c r="B502" s="22"/>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A503" s="5"/>
       <c r="B503" s="22"/>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A504" s="5"/>
       <c r="B504" s="22"/>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B505" s="22"/>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A506" s="5"/>
       <c r="B506" s="22"/>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A507" s="5"/>
       <c r="B507" s="22"/>
       <c r="H507" s="4"/>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A508" s="5"/>
       <c r="B508" s="22"/>
       <c r="H508" s="4"/>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A509" s="5"/>
       <c r="B509" s="22"/>
       <c r="H509" s="4"/>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B510" s="22"/>
       <c r="H510" s="4"/>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A511" s="5"/>
       <c r="B511" s="22"/>
       <c r="H511" s="4"/>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A512" s="5"/>
       <c r="B512" s="22"/>
       <c r="H512" s="4"/>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A513" s="5"/>
       <c r="B513" s="22"/>
       <c r="H513" s="4"/>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A514" s="5"/>
       <c r="B514" s="22"/>
       <c r="H514" s="4"/>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B515" s="22"/>
       <c r="H515" s="4"/>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A516" s="5"/>
       <c r="B516" s="22"/>
       <c r="H516" s="4"/>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A517" s="5"/>
       <c r="B517" s="22"/>
       <c r="H517" s="4"/>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A518" s="5"/>
       <c r="B518" s="22"/>
       <c r="H518" s="4"/>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A519" s="5"/>
       <c r="B519" s="22"/>
       <c r="H519" s="4"/>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A520" s="5"/>
       <c r="B520" s="22"/>
       <c r="H520" s="4"/>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B521" s="22"/>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A522" s="5"/>
       <c r="B522" s="22"/>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A523" s="5"/>
       <c r="B523" s="22"/>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A524" s="5"/>
       <c r="B524" s="22"/>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A525" s="5"/>
       <c r="B525" s="22"/>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B526" s="22"/>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A527" s="5"/>
       <c r="B527" s="22"/>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A528" s="5"/>
       <c r="B528" s="22"/>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A529" s="5"/>
       <c r="B529" s="22"/>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A530" s="5"/>
       <c r="B530" s="22"/>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A531" s="5"/>
       <c r="B531" s="22"/>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B532" s="22"/>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A533" s="5"/>
       <c r="B533" s="22"/>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A534" s="5"/>
       <c r="B534" s="22"/>
       <c r="H534" s="4"/>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A535" s="5"/>
       <c r="B535" s="22"/>
       <c r="H535" s="4"/>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A536" s="5"/>
       <c r="B536" s="22"/>
       <c r="H536" s="4"/>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A537" s="5"/>
       <c r="B537" s="22"/>
       <c r="H537" s="4"/>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A538" s="8"/>
       <c r="B538" s="8"/>
       <c r="H538" s="4"/>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A539" s="5"/>
       <c r="B539" s="22"/>
       <c r="H539" s="4"/>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A540" s="5"/>
       <c r="B540" s="22"/>
       <c r="H540" s="4"/>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A541" s="5"/>
       <c r="B541" s="22"/>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A542" s="5"/>
       <c r="B542" s="22"/>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B543" s="22"/>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A544" s="5"/>
       <c r="B544" s="22"/>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A545" s="5"/>
       <c r="B545" s="22"/>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A546" s="5"/>
       <c r="B546" s="22"/>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A547" s="5"/>
       <c r="B547" s="22"/>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B548" s="22"/>
       <c r="F548" s="9"/>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A549" s="5"/>
       <c r="B549" s="22"/>
       <c r="F549" s="9"/>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A550" s="5"/>
       <c r="B550" s="22"/>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A551" s="5"/>
       <c r="B551" s="22"/>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A552" s="5"/>
       <c r="B552" s="22"/>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B553" s="22"/>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A554" s="5"/>
       <c r="B554" s="22"/>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A555" s="5"/>
       <c r="B555" s="22"/>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A556" s="5"/>
       <c r="B556" s="22"/>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A557" s="5"/>
       <c r="B557" s="22"/>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B558" s="22"/>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A559" s="5"/>
       <c r="B559" s="22"/>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A560" s="5"/>
       <c r="B560" s="22"/>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" s="5"/>
       <c r="B561" s="22"/>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" s="5"/>
       <c r="B562" s="22"/>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B563" s="22"/>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" s="5"/>
       <c r="B564" s="22"/>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" s="5"/>
       <c r="B565" s="22"/>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B566" s="22"/>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" s="5"/>
       <c r="B567" s="22"/>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" s="5"/>
       <c r="B568" s="22"/>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B569" s="22"/>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" s="5"/>
       <c r="B570" s="22"/>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" s="5"/>
       <c r="B571" s="22"/>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B572" s="22"/>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" s="5"/>
       <c r="B573" s="22"/>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" s="5"/>
       <c r="B574" s="22"/>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B575" s="22"/>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" s="5"/>
       <c r="B576" s="22"/>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" s="5"/>
       <c r="B577" s="22"/>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B578" s="22"/>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" s="5"/>
       <c r="B579" s="22"/>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" s="5"/>
       <c r="B580" s="22"/>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B581" s="22"/>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" s="5"/>
       <c r="B582" s="22"/>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" s="5"/>
       <c r="B583" s="22"/>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B584" s="22"/>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" s="5"/>
       <c r="B585" s="22"/>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" s="5"/>
       <c r="B586" s="22"/>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B587" s="22"/>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588" s="5"/>
       <c r="B588" s="22"/>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" s="5"/>
       <c r="B589" s="22"/>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B590" s="22"/>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" s="5"/>
       <c r="B591" s="22"/>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592" s="5"/>
       <c r="B592" s="22"/>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B593" s="22"/>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" s="5"/>
       <c r="B594" s="22"/>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595" s="5"/>
       <c r="B595" s="22"/>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B596" s="22"/>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" s="5"/>
       <c r="B597" s="22"/>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" s="5"/>
       <c r="B598" s="22"/>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B599" s="22"/>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" s="5"/>
       <c r="B600" s="22"/>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601" s="5"/>
       <c r="B601" s="22"/>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B602" s="22"/>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603" s="5"/>
       <c r="B603" s="22"/>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604" s="5"/>
       <c r="B604" s="22"/>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B605" s="22"/>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" s="5"/>
       <c r="B606" s="22"/>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B607" s="22"/>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608" s="5"/>
       <c r="B608" s="22"/>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B609" s="22"/>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A610" s="5"/>
       <c r="B610" s="22"/>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B611" s="22"/>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612" s="5"/>
       <c r="B612" s="22"/>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613" s="5"/>
       <c r="B613" s="22"/>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B614" s="22"/>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A615" s="5"/>
       <c r="B615" s="22"/>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616" s="5"/>
       <c r="B616" s="22"/>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617" s="5"/>
       <c r="B617" s="22"/>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618" s="5"/>
       <c r="B618" s="22"/>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619" s="5"/>
       <c r="B619" s="22"/>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620" s="5"/>
       <c r="B620" s="22"/>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A621" s="5"/>
       <c r="B621" s="22"/>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622" s="5"/>
       <c r="B622" s="22"/>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623" s="5"/>
       <c r="B623" s="22"/>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B624" s="22"/>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A625" s="5"/>
       <c r="B625" s="22"/>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A626" s="5"/>
       <c r="B626" s="22"/>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A627" s="5"/>
       <c r="B627" s="22"/>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A628" s="5"/>
       <c r="B628" s="22"/>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A629" s="5"/>
       <c r="B629" s="22"/>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A630" s="5"/>
       <c r="B630" s="22"/>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A631" s="8"/>
       <c r="B631" s="8"/>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A632" s="5"/>
       <c r="B632" s="22"/>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A633" s="5"/>
       <c r="B633" s="22"/>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A634" s="5"/>
       <c r="B634" s="22"/>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A635" s="5"/>
       <c r="B635" s="22"/>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A636" s="5"/>
       <c r="B636" s="22"/>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637" s="5"/>
       <c r="B637" s="22"/>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A638" s="5"/>
       <c r="B638" s="22"/>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A639" s="5"/>
       <c r="B639" s="22"/>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A640" s="5"/>
       <c r="B640" s="22"/>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B641" s="22"/>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A642" s="5"/>
       <c r="B642" s="22"/>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A643" s="5"/>
       <c r="B643" s="22"/>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A644" s="5"/>
       <c r="B644" s="22"/>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A645" s="5"/>
       <c r="B645" s="22"/>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A646" s="5"/>
       <c r="B646" s="22"/>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A647" s="5"/>
       <c r="B647" s="22"/>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A648" s="5"/>
       <c r="B648" s="22"/>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649" s="5"/>
       <c r="B649" s="22"/>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A650" s="5"/>
       <c r="B650" s="22"/>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B651" s="22"/>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652" s="5"/>
       <c r="B652" s="22"/>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A653" s="5"/>
       <c r="B653" s="22"/>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A654" s="5"/>
       <c r="B654" s="22"/>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A655" s="5"/>
       <c r="B655" s="22"/>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656" s="5"/>
       <c r="B656" s="22"/>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657" s="5"/>
       <c r="B657" s="22"/>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658" s="5"/>
       <c r="B658" s="22"/>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659" s="5"/>
       <c r="B659" s="22"/>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660" s="5"/>
       <c r="B660" s="22"/>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A661" s="5"/>
       <c r="B661" s="22"/>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662" s="5"/>
       <c r="B662" s="22"/>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A663" s="5"/>
       <c r="B663" s="22"/>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664" s="5"/>
       <c r="B664" s="22"/>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A665" s="5"/>
       <c r="B665" s="22"/>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B666" s="22"/>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667" s="5"/>
       <c r="B667" s="22"/>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668" s="5"/>
       <c r="B668" s="22"/>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A669" s="5"/>
       <c r="B669" s="22"/>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A670" s="5"/>
       <c r="B670" s="22"/>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A671" s="5"/>
       <c r="B671" s="22"/>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A672" s="5"/>
       <c r="B672" s="22"/>
     </row>
-    <row r="673" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="673" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B673" s="22"/>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A725" s="5"/>
     </row>
   </sheetData>
@@ -11928,24 +11934,24 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.62890625" customWidth="1"/>
-    <col min="2" max="2" width="17.578125" customWidth="1"/>
-    <col min="3" max="3" width="17.9453125" customWidth="1"/>
-    <col min="4" max="6" width="17.578125" customWidth="1"/>
-    <col min="7" max="7" width="17.62890625" customWidth="1"/>
-    <col min="8" max="8" width="17.578125" customWidth="1"/>
-    <col min="9" max="9" width="17.734375" customWidth="1"/>
-    <col min="10" max="11" width="17.578125" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" customWidth="1"/>
+    <col min="10" max="11" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="98" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="51">
         <v>42625</v>
       </c>
@@ -11959,7 +11965,7 @@
         <v>42629</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -11974,7 +11980,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -11983,7 +11989,7 @@
       <c r="D4" s="55"/>
       <c r="E4" s="52"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -11992,7 +11998,7 @@
       <c r="D5" s="55"/>
       <c r="E5" s="52"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -12007,7 +12013,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -12016,7 +12022,7 @@
       <c r="D7" s="55"/>
       <c r="E7" s="52"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -12025,8 +12031,8 @@
       <c r="D8" s="55"/>
       <c r="E8" s="52"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="99" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="98" t="s">
         <v>559</v>
       </c>
       <c r="B10" s="51">
@@ -12054,7 +12060,7 @@
         <v>42643</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -12067,7 +12073,7 @@
       <c r="G11" s="52"/>
       <c r="H11" s="54"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -12078,7 +12084,7 @@
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -12089,7 +12095,7 @@
       <c r="G13" s="52"/>
       <c r="H13" s="52"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -12100,7 +12106,7 @@
       <c r="G14" s="52"/>
       <c r="H14" s="52"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -12111,7 +12117,7 @@
       <c r="G15" s="52"/>
       <c r="H15" s="52"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -12122,8 +12128,8 @@
       <c r="G16" s="52"/>
       <c r="H16" s="52"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="99" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="98" t="s">
         <v>560</v>
       </c>
       <c r="B18" s="51">
@@ -12151,76 +12157,76 @@
         <v>42657</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="100"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="102" t="s">
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="101" t="s">
         <v>566</v>
       </c>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="99" t="s">
+      <c r="B26" s="97"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="98" t="s">
         <v>561</v>
       </c>
       <c r="B28" s="51">
@@ -12248,38 +12254,38 @@
         <v>42678</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="99" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="98" t="s">
         <v>563</v>
       </c>
       <c r="B36" s="51">
@@ -12307,44 +12313,44 @@
         <v>42692</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="101" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="100" t="s">
         <v>562</v>
       </c>
       <c r="B44" s="51">
         <v>42695</v>
       </c>
-      <c r="C44" s="103">
+      <c r="C44" s="102">
         <v>42696</v>
       </c>
       <c r="D44" s="51">
@@ -12354,27 +12360,27 @@
         <v>42699</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -12382,13 +12388,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="99" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="98" t="s">
         <v>564</v>
       </c>
       <c r="B52" s="51">
@@ -12416,38 +12422,38 @@
         <v>42713</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="99" t="s">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="98" t="s">
         <v>565</v>
       </c>
       <c r="B60" s="51">
@@ -12475,52 +12481,52 @@
         <v>42727</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="102" t="s">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="101" t="s">
         <v>566</v>
       </c>
-      <c r="B68" s="98"/>
-      <c r="C68" s="98"/>
-      <c r="D68" s="98"/>
-      <c r="E68" s="98"/>
-      <c r="F68" s="98"/>
-      <c r="G68" s="98"/>
-      <c r="H68" s="98"/>
-      <c r="I68" s="98"/>
-      <c r="J68" s="98"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="99" t="s">
+      <c r="B68" s="97"/>
+      <c r="C68" s="97"/>
+      <c r="D68" s="97"/>
+      <c r="E68" s="97"/>
+      <c r="F68" s="97"/>
+      <c r="G68" s="97"/>
+      <c r="H68" s="97"/>
+      <c r="I68" s="97"/>
+      <c r="J68" s="97"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="98" t="s">
         <v>567</v>
       </c>
       <c r="B70" s="51">
@@ -12548,73 +12554,73 @@
         <v>42389</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="101" t="s">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="100" t="s">
         <v>562</v>
       </c>
       <c r="B78" s="51">
         <v>42392</v>
       </c>
-      <c r="C78" s="103">
+      <c r="C78" s="102">
         <v>42393</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>72</v>
       </c>

--- a/Paperwork/Asset List.xlsx
+++ b/Paperwork/Asset List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19422" windowHeight="11022" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$E$480</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="585">
   <si>
     <t>ID Code</t>
   </si>
@@ -1746,6 +1746,33 @@
   </si>
   <si>
     <t>Sprint 7 (09-01 t/m 22-01)</t>
+  </si>
+  <si>
+    <t>12:30 - 13:40</t>
+  </si>
+  <si>
+    <t>duim kapot</t>
+  </si>
+  <si>
+    <t>12:30 - 14:30</t>
+  </si>
+  <si>
+    <t>LAN Party</t>
+  </si>
+  <si>
+    <t>Diploma uitreiking zus</t>
+  </si>
+  <si>
+    <t>12:30 - 14:00</t>
+  </si>
+  <si>
+    <t>tandarts 13:30 - 15:45</t>
+  </si>
+  <si>
+    <t>7-11-2016 Studiedag</t>
+  </si>
+  <si>
+    <t>12:30 - 13:45</t>
   </si>
 </sst>
 </file>
@@ -1825,7 +1852,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1927,6 +1954,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2329,6 +2362,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2341,7 +2377,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -2351,15 +2386,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="16" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Controlecel" xfId="4" builtinId="23"/>
@@ -2679,40 +2708,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W725"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="42.88671875" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.7890625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.15625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="118.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="44.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44.109375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="44.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="44.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="47.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="45.21875" style="3" customWidth="1"/>
-    <col min="21" max="21" width="45.21875" style="4" customWidth="1"/>
-    <col min="22" max="22" width="33.6640625" style="4" customWidth="1"/>
-    <col min="23" max="23" width="23.109375" style="4" customWidth="1"/>
-    <col min="24" max="24" width="16.21875" style="4" customWidth="1"/>
-    <col min="25" max="16384" width="9.109375" style="4"/>
+    <col min="4" max="4" width="10.15625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7890625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.62890625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.62890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="118.26171875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5234375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.15625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.62890625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.15625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.47265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="44.15625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44.15625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="44.15625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="44.47265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="47.15625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="45.15625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="45.15625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="33.62890625" style="4" customWidth="1"/>
+    <col min="23" max="23" width="23.1015625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="16.26171875" style="4" customWidth="1"/>
+    <col min="25" max="16384" width="9.15625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -2749,7 +2778,7 @@
       <c r="M1" s="75" t="s">
         <v>451</v>
       </c>
-      <c r="N1" s="96" t="s">
+      <c r="N1" s="97" t="s">
         <v>453</v>
       </c>
       <c r="O1" s="35" t="s">
@@ -2775,7 +2804,7 @@
       </c>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="5" t="s">
         <v>88</v>
       </c>
@@ -2810,7 +2839,7 @@
       <c r="L2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="94" t="s">
+      <c r="M2" s="95" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="34" t="s">
@@ -2819,7 +2848,7 @@
       <c r="O2" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="95" t="s">
+      <c r="P2" s="96" t="s">
         <v>13</v>
       </c>
       <c r="Q2" s="34" t="s">
@@ -2839,7 +2868,7 @@
       </c>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>89</v>
       </c>
@@ -2895,7 +2924,7 @@
       <c r="U3" s="89"/>
       <c r="V3" s="3"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>90</v>
       </c>
@@ -2955,7 +2984,7 @@
       </c>
       <c r="V4" s="3"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>91</v>
       </c>
@@ -3011,7 +3040,7 @@
       <c r="U5" s="67"/>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>92</v>
       </c>
@@ -3064,7 +3093,7 @@
       <c r="U6" s="68"/>
       <c r="V6" s="3"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>93</v>
       </c>
@@ -3116,7 +3145,7 @@
       <c r="T7" s="50"/>
       <c r="U7" s="67"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>229</v>
       </c>
@@ -3166,7 +3195,7 @@
       <c r="T8" s="50"/>
       <c r="U8" s="67"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5"/>
       <c r="B9" s="22"/>
       <c r="C9" s="7"/>
@@ -3203,7 +3232,7 @@
       <c r="T9" s="50"/>
       <c r="U9" s="67"/>
     </row>
-    <row r="10" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>109</v>
       </c>
@@ -3251,7 +3280,7 @@
       <c r="T10" s="50"/>
       <c r="U10" s="67"/>
     </row>
-    <row r="11" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>142</v>
       </c>
@@ -3296,7 +3325,7 @@
       <c r="T11" s="28"/>
       <c r="U11" s="67"/>
     </row>
-    <row r="12" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>306</v>
       </c>
@@ -3339,7 +3368,7 @@
       <c r="T12" s="50"/>
       <c r="U12" s="67"/>
     </row>
-    <row r="13" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>267</v>
       </c>
@@ -3355,7 +3384,7 @@
       <c r="E13" s="8">
         <v>6</v>
       </c>
-      <c r="F13" s="93"/>
+      <c r="F13" s="94"/>
       <c r="H13" s="44" t="s">
         <v>37</v>
       </c>
@@ -3380,7 +3409,7 @@
       <c r="T13" s="50"/>
       <c r="U13" s="67"/>
     </row>
-    <row r="14" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>236</v>
       </c>
@@ -3396,7 +3425,7 @@
       <c r="E14" s="8">
         <v>6</v>
       </c>
-      <c r="F14" s="93"/>
+      <c r="F14" s="94"/>
       <c r="H14" s="44" t="s">
         <v>38</v>
       </c>
@@ -3421,7 +3450,7 @@
       <c r="T14" s="50"/>
       <c r="U14" s="67"/>
     </row>
-    <row r="15" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>96</v>
       </c>
@@ -3437,7 +3466,7 @@
       <c r="E15" s="8">
         <v>9</v>
       </c>
-      <c r="F15" s="93"/>
+      <c r="F15" s="94"/>
       <c r="G15" s="9"/>
       <c r="H15" s="44" t="s">
         <v>43</v>
@@ -3463,7 +3492,7 @@
       <c r="T15" s="50"/>
       <c r="U15" s="67"/>
     </row>
-    <row r="16" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>248</v>
       </c>
@@ -3504,7 +3533,7 @@
       <c r="T16" s="50"/>
       <c r="U16" s="67"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="G17" s="9"/>
@@ -3514,10 +3543,16 @@
       <c r="I17" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
+      <c r="K17" s="50">
+        <v>251</v>
+      </c>
+      <c r="L17" s="50">
+        <v>213</v>
+      </c>
       <c r="M17" s="79"/>
-      <c r="N17" s="50"/>
+      <c r="N17" s="50">
+        <v>236</v>
+      </c>
       <c r="O17" s="50" t="s">
         <v>511</v>
       </c>
@@ -3532,7 +3567,7 @@
       <c r="T17" s="50"/>
       <c r="U17" s="67"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>110</v>
       </c>
@@ -3573,7 +3608,7 @@
       <c r="T18" s="50"/>
       <c r="U18" s="67"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>143</v>
       </c>
@@ -3614,7 +3649,7 @@
       <c r="T19" s="50"/>
       <c r="U19" s="67"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>307</v>
       </c>
@@ -3655,7 +3690,7 @@
       <c r="T20" s="50"/>
       <c r="U20" s="67"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5" t="s">
         <v>268</v>
       </c>
@@ -3696,7 +3731,7 @@
       <c r="T21" s="50"/>
       <c r="U21" s="67"/>
     </row>
-    <row r="22" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="5" t="s">
         <v>237</v>
       </c>
@@ -3738,7 +3773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5" t="s">
         <v>97</v>
       </c>
@@ -3772,14 +3807,20 @@
       <c r="N23" s="60"/>
       <c r="O23" s="60"/>
       <c r="P23" s="70"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
+      <c r="Q23" s="60">
+        <v>232</v>
+      </c>
+      <c r="R23" s="60">
+        <v>226</v>
+      </c>
       <c r="S23" s="88"/>
-      <c r="T23" s="60"/>
+      <c r="T23" s="60">
+        <v>84</v>
+      </c>
       <c r="U23" s="70"/>
       <c r="V23" s="36"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5" t="s">
         <v>249</v>
       </c>
@@ -3804,7 +3845,9 @@
       <c r="L24" s="58"/>
       <c r="M24" s="81"/>
       <c r="N24" s="58"/>
-      <c r="O24" s="59"/>
+      <c r="O24" s="59">
+        <v>230</v>
+      </c>
       <c r="P24" s="71"/>
       <c r="Q24" s="58"/>
       <c r="R24" s="59"/>
@@ -3813,7 +3856,7 @@
       <c r="U24" s="71"/>
       <c r="V24" s="37"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5"/>
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
@@ -3836,7 +3879,7 @@
       <c r="U25" s="71"/>
       <c r="V25" s="37"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="5" t="s">
         <v>111</v>
       </c>
@@ -3870,7 +3913,7 @@
       <c r="V26" s="50"/>
       <c r="W26" s="3"/>
     </row>
-    <row r="27" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="5" t="s">
         <v>144</v>
       </c>
@@ -3903,7 +3946,7 @@
       <c r="U27" s="72"/>
       <c r="V27" s="38"/>
     </row>
-    <row r="28" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="5" t="s">
         <v>308</v>
       </c>
@@ -3925,7 +3968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="5" t="s">
         <v>269</v>
       </c>
@@ -3944,7 +3987,7 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
     </row>
-    <row r="30" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="5" t="s">
         <v>238</v>
       </c>
@@ -3963,7 +4006,7 @@
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
     </row>
-    <row r="31" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A31" s="5" t="s">
         <v>98</v>
       </c>
@@ -3988,7 +4031,7 @@
       <c r="M31" s="75" t="s">
         <v>451</v>
       </c>
-      <c r="N31" s="96" t="s">
+      <c r="N31" s="97" t="s">
         <v>453</v>
       </c>
       <c r="O31" s="35" t="s">
@@ -4014,7 +4057,7 @@
       </c>
       <c r="V31" s="39"/>
     </row>
-    <row r="32" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="5" t="s">
         <v>250</v>
       </c>
@@ -4066,14 +4109,14 @@
       </c>
       <c r="V32" s="39"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="5"/>
       <c r="B33" s="22"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="J33" s="10"/>
-      <c r="K33" s="105" t="s">
+      <c r="K33" s="93" t="s">
         <v>218</v>
       </c>
       <c r="L33" s="91" t="s">
@@ -4083,7 +4126,7 @@
       <c r="N33" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="O33" s="107" t="s">
+      <c r="O33" s="91" t="s">
         <v>221</v>
       </c>
       <c r="P33" s="73"/>
@@ -4100,7 +4143,7 @@
       <c r="U33" s="73"/>
       <c r="V33" s="39"/>
     </row>
-    <row r="34" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="5" t="s">
         <v>112</v>
       </c>
@@ -4116,7 +4159,7 @@
       <c r="E34" s="8">
         <v>5</v>
       </c>
-      <c r="K34" s="106" t="s">
+      <c r="K34" s="92" t="s">
         <v>215</v>
       </c>
       <c r="L34" s="5" t="s">
@@ -4141,7 +4184,7 @@
       <c r="U34" s="68"/>
       <c r="V34" s="39"/>
     </row>
-    <row r="35" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="5" t="s">
         <v>145</v>
       </c>
@@ -4171,7 +4214,7 @@
       <c r="U35" s="74"/>
       <c r="V35" s="39"/>
     </row>
-    <row r="36" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="5" t="s">
         <v>309</v>
       </c>
@@ -4201,7 +4244,7 @@
       <c r="U36" s="67"/>
       <c r="V36" s="39"/>
     </row>
-    <row r="37" spans="1:23" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="14.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="5" t="s">
         <v>270</v>
       </c>
@@ -4231,7 +4274,7 @@
       <c r="U37" s="68"/>
       <c r="V37" s="39"/>
     </row>
-    <row r="38" spans="1:23" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="14.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="5" t="s">
         <v>239</v>
       </c>
@@ -4261,7 +4304,7 @@
       <c r="U38" s="68"/>
       <c r="V38" s="39"/>
     </row>
-    <row r="39" spans="1:23" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="14.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="5" t="s">
         <v>99</v>
       </c>
@@ -4293,7 +4336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A40" s="5" t="s">
         <v>251</v>
       </c>
@@ -4323,7 +4366,7 @@
       <c r="U40" s="69"/>
       <c r="V40" s="39"/>
     </row>
-    <row r="41" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A41" s="5"/>
       <c r="B41" s="22"/>
       <c r="C41" s="7"/>
@@ -4345,7 +4388,7 @@
       <c r="U41" s="69"/>
       <c r="V41" s="49"/>
     </row>
-    <row r="42" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A42" s="5" t="s">
         <v>100</v>
       </c>
@@ -4369,7 +4412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="5" t="s">
         <v>252</v>
       </c>
@@ -4386,14 +4429,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="5"/>
       <c r="B44" s="22"/>
       <c r="C44" s="7"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="5" t="s">
         <v>113</v>
       </c>
@@ -4410,7 +4453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="5" t="s">
         <v>146</v>
       </c>
@@ -4427,7 +4470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="5" t="s">
         <v>310</v>
       </c>
@@ -4444,7 +4487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="5" t="s">
         <v>271</v>
       </c>
@@ -4461,7 +4504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="5" t="s">
         <v>240</v>
       </c>
@@ -4478,7 +4521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="5" t="s">
         <v>101</v>
       </c>
@@ -4495,7 +4538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="5" t="s">
         <v>253</v>
       </c>
@@ -4512,13 +4555,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="22"/>
       <c r="C52" s="7"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="22" t="s">
         <v>147</v>
       </c>
@@ -4535,7 +4578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="22" t="s">
         <v>311</v>
       </c>
@@ -4552,7 +4595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="22" t="s">
         <v>272</v>
       </c>
@@ -4569,7 +4612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="22" t="s">
         <v>241</v>
       </c>
@@ -4586,7 +4629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="22" t="s">
         <v>102</v>
       </c>
@@ -4603,7 +4646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="22" t="s">
         <v>254</v>
       </c>
@@ -4620,14 +4663,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="5"/>
       <c r="B59" s="22"/>
       <c r="C59" s="7"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="5" t="s">
         <v>148</v>
       </c>
@@ -4644,7 +4687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="5" t="s">
         <v>312</v>
       </c>
@@ -4661,7 +4704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="5" t="s">
         <v>273</v>
       </c>
@@ -4682,7 +4725,7 @@
       <c r="S62" s="16"/>
       <c r="T62" s="4"/>
     </row>
-    <row r="63" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="5" t="s">
         <v>242</v>
       </c>
@@ -4702,7 +4745,7 @@
       <c r="S63" s="16"/>
       <c r="T63" s="4"/>
     </row>
-    <row r="64" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="5" t="s">
         <v>103</v>
       </c>
@@ -4722,7 +4765,7 @@
       <c r="S64" s="16"/>
       <c r="T64" s="4"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="5"/>
       <c r="B65" s="22"/>
       <c r="C65" s="7"/>
@@ -4732,7 +4775,7 @@
       <c r="S65" s="16"/>
       <c r="T65" s="4"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="5" t="s">
         <v>114</v>
       </c>
@@ -4752,7 +4795,7 @@
       <c r="S66" s="16"/>
       <c r="T66" s="4"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="5" t="s">
         <v>149</v>
       </c>
@@ -4772,7 +4815,7 @@
       <c r="S67" s="16"/>
       <c r="T67" s="4"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="5" t="s">
         <v>313</v>
       </c>
@@ -4792,7 +4835,7 @@
       <c r="S68" s="16"/>
       <c r="T68" s="4"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="5" t="s">
         <v>274</v>
       </c>
@@ -4812,7 +4855,7 @@
       <c r="S69" s="16"/>
       <c r="T69" s="4"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="5" t="s">
         <v>243</v>
       </c>
@@ -4832,7 +4875,7 @@
       <c r="S70" s="16"/>
       <c r="T70" s="4"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="5" t="s">
         <v>104</v>
       </c>
@@ -4852,7 +4895,7 @@
       <c r="S71" s="16"/>
       <c r="T71" s="4"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="5" t="s">
         <v>255</v>
       </c>
@@ -4872,7 +4915,7 @@
       <c r="S72" s="16"/>
       <c r="T72" s="4"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="5"/>
       <c r="B73" s="22"/>
       <c r="C73" s="7"/>
@@ -4882,7 +4925,7 @@
       <c r="S73" s="16"/>
       <c r="T73" s="4"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="5" t="s">
         <v>115</v>
       </c>
@@ -4902,7 +4945,7 @@
       <c r="S74" s="16"/>
       <c r="T74" s="4"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="5" t="s">
         <v>150</v>
       </c>
@@ -4922,7 +4965,7 @@
       <c r="S75" s="16"/>
       <c r="T75" s="4"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="5" t="s">
         <v>314</v>
       </c>
@@ -4942,7 +4985,7 @@
       <c r="S76" s="8"/>
       <c r="T76" s="4"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="5" t="s">
         <v>275</v>
       </c>
@@ -4962,7 +5005,7 @@
       <c r="S77" s="8"/>
       <c r="T77" s="4"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="5" t="s">
         <v>244</v>
       </c>
@@ -4982,7 +5025,7 @@
       <c r="S78" s="8"/>
       <c r="T78" s="4"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="5" t="s">
         <v>105</v>
       </c>
@@ -5002,7 +5045,7 @@
       <c r="S79" s="8"/>
       <c r="T79" s="4"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="5" t="s">
         <v>256</v>
       </c>
@@ -5022,7 +5065,7 @@
       <c r="S80" s="8"/>
       <c r="T80" s="4"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="5"/>
       <c r="B81" s="22"/>
       <c r="C81" s="7"/>
@@ -5032,7 +5075,7 @@
       <c r="S81" s="8"/>
       <c r="T81" s="4"/>
     </row>
-    <row r="82" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="5" t="s">
         <v>116</v>
       </c>
@@ -5052,7 +5095,7 @@
       <c r="S82" s="8"/>
       <c r="T82" s="4"/>
     </row>
-    <row r="83" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="5" t="s">
         <v>151</v>
       </c>
@@ -5072,7 +5115,7 @@
       <c r="S83" s="8"/>
       <c r="T83" s="4"/>
     </row>
-    <row r="84" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="5" t="s">
         <v>315</v>
       </c>
@@ -5092,7 +5135,7 @@
       <c r="S84" s="8"/>
       <c r="T84" s="4"/>
     </row>
-    <row r="85" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="5" t="s">
         <v>276</v>
       </c>
@@ -5112,7 +5155,7 @@
       <c r="S85" s="8"/>
       <c r="T85" s="4"/>
     </row>
-    <row r="86" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="5" t="s">
         <v>245</v>
       </c>
@@ -5132,7 +5175,7 @@
       <c r="S86" s="8"/>
       <c r="T86" s="4"/>
     </row>
-    <row r="87" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="5" t="s">
         <v>106</v>
       </c>
@@ -5152,7 +5195,7 @@
       <c r="S87" s="8"/>
       <c r="T87" s="4"/>
     </row>
-    <row r="88" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="5" t="s">
         <v>257</v>
       </c>
@@ -5172,7 +5215,7 @@
       <c r="S88" s="8"/>
       <c r="T88" s="4"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="5"/>
       <c r="B89" s="22"/>
       <c r="C89" s="7"/>
@@ -5182,7 +5225,7 @@
       <c r="S89" s="8"/>
       <c r="T89" s="4"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="5" t="s">
         <v>117</v>
       </c>
@@ -5202,7 +5245,7 @@
       <c r="S90" s="8"/>
       <c r="T90" s="4"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="5" t="s">
         <v>152</v>
       </c>
@@ -5222,7 +5265,7 @@
       <c r="S91" s="8"/>
       <c r="T91" s="4"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="5" t="s">
         <v>316</v>
       </c>
@@ -5242,7 +5285,7 @@
       <c r="S92" s="8"/>
       <c r="T92" s="4"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="5" t="s">
         <v>277</v>
       </c>
@@ -5262,7 +5305,7 @@
       <c r="S93" s="8"/>
       <c r="T93" s="4"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="5" t="s">
         <v>246</v>
       </c>
@@ -5282,7 +5325,7 @@
       <c r="S94" s="8"/>
       <c r="T94" s="4"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="5" t="s">
         <v>107</v>
       </c>
@@ -5302,7 +5345,7 @@
       <c r="S95" s="8"/>
       <c r="T95" s="4"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="5" t="s">
         <v>258</v>
       </c>
@@ -5322,7 +5365,7 @@
       <c r="S96" s="8"/>
       <c r="T96" s="4"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="5"/>
       <c r="B97" s="22"/>
       <c r="C97" s="7"/>
@@ -5332,7 +5375,7 @@
       <c r="S97" s="8"/>
       <c r="T97" s="4"/>
     </row>
-    <row r="98" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="5" t="s">
         <v>118</v>
       </c>
@@ -5352,7 +5395,7 @@
       <c r="S98" s="8"/>
       <c r="T98" s="4"/>
     </row>
-    <row r="99" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="5" t="s">
         <v>153</v>
       </c>
@@ -5372,7 +5415,7 @@
       <c r="S99" s="8"/>
       <c r="T99" s="4"/>
     </row>
-    <row r="100" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="5" t="s">
         <v>317</v>
       </c>
@@ -5391,7 +5434,7 @@
       <c r="S100" s="8"/>
       <c r="T100" s="4"/>
     </row>
-    <row r="101" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="5" t="s">
         <v>278</v>
       </c>
@@ -5410,7 +5453,7 @@
       <c r="S101" s="8"/>
       <c r="T101" s="4"/>
     </row>
-    <row r="102" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="5" t="s">
         <v>247</v>
       </c>
@@ -5429,7 +5472,7 @@
       <c r="S102" s="8"/>
       <c r="T102" s="4"/>
     </row>
-    <row r="103" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="5" t="s">
         <v>108</v>
       </c>
@@ -5448,7 +5491,7 @@
       <c r="S103" s="8"/>
       <c r="T103" s="4"/>
     </row>
-    <row r="104" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="5" t="s">
         <v>259</v>
       </c>
@@ -5467,7 +5510,7 @@
       <c r="S104" s="8"/>
       <c r="T104" s="4"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="5"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -5476,7 +5519,7 @@
       <c r="S105" s="8"/>
       <c r="T105" s="4"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="5" t="s">
         <v>119</v>
       </c>
@@ -5495,7 +5538,7 @@
       <c r="S106" s="8"/>
       <c r="T106" s="4"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="5" t="s">
         <v>154</v>
       </c>
@@ -5514,7 +5557,7 @@
       <c r="S107" s="8"/>
       <c r="T107" s="4"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="5" t="s">
         <v>318</v>
       </c>
@@ -5533,7 +5576,7 @@
       <c r="S108" s="8"/>
       <c r="T108" s="4"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="5" t="s">
         <v>279</v>
       </c>
@@ -5552,7 +5595,7 @@
       <c r="S109" s="8"/>
       <c r="T109" s="4"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="5" t="s">
         <v>260</v>
       </c>
@@ -5571,7 +5614,7 @@
       <c r="S110" s="8"/>
       <c r="T110" s="4"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="5" t="s">
         <v>230</v>
       </c>
@@ -5590,14 +5633,14 @@
       <c r="S111" s="8"/>
       <c r="T111" s="4"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="5"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="5" t="s">
         <v>120</v>
       </c>
@@ -5614,7 +5657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="5" t="s">
         <v>155</v>
       </c>
@@ -5631,7 +5674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="5" t="s">
         <v>319</v>
       </c>
@@ -5648,7 +5691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="5" t="s">
         <v>280</v>
       </c>
@@ -5665,7 +5708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="5" t="s">
         <v>261</v>
       </c>
@@ -5685,7 +5728,7 @@
       <c r="L117" s="24"/>
       <c r="M117" s="24"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="5" t="s">
         <v>231</v>
       </c>
@@ -5705,7 +5748,7 @@
       <c r="L118" s="24"/>
       <c r="M118" s="24"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" s="22"/>
       <c r="C119" s="7"/>
       <c r="D119" s="8"/>
@@ -5714,7 +5757,7 @@
       <c r="L119" s="24"/>
       <c r="M119" s="24"/>
     </row>
-    <row r="120" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="22" t="s">
         <v>262</v>
       </c>
@@ -5735,7 +5778,7 @@
       <c r="L120" s="24"/>
       <c r="M120" s="24"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" s="22"/>
       <c r="C121" s="7"/>
       <c r="D121" s="8"/>
@@ -5745,7 +5788,7 @@
       <c r="L121" s="24"/>
       <c r="M121" s="24"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="5" t="s">
         <v>121</v>
       </c>
@@ -5766,7 +5809,7 @@
       <c r="L122" s="40"/>
       <c r="M122" s="24"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="5" t="s">
         <v>156</v>
       </c>
@@ -5786,7 +5829,7 @@
       <c r="L123" s="24"/>
       <c r="M123" s="24"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="5" t="s">
         <v>320</v>
       </c>
@@ -5806,7 +5849,7 @@
       <c r="L124" s="24"/>
       <c r="M124" s="24"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="5" t="s">
         <v>281</v>
       </c>
@@ -5826,7 +5869,7 @@
       <c r="L125" s="13"/>
       <c r="M125" s="24"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="5" t="s">
         <v>456</v>
       </c>
@@ -5846,7 +5889,7 @@
       <c r="L126" s="13"/>
       <c r="M126" s="24"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="5" t="s">
         <v>457</v>
       </c>
@@ -5866,7 +5909,7 @@
       <c r="L127" s="13"/>
       <c r="M127" s="24"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="5" t="s">
         <v>263</v>
       </c>
@@ -5886,7 +5929,7 @@
       <c r="L128" s="14"/>
       <c r="M128" s="24"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="5" t="s">
         <v>232</v>
       </c>
@@ -5906,7 +5949,7 @@
       <c r="L129" s="14"/>
       <c r="M129" s="24"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="5"/>
       <c r="B130" s="22"/>
       <c r="C130" s="7"/>
@@ -5916,7 +5959,7 @@
       <c r="L130" s="24"/>
       <c r="M130" s="24"/>
     </row>
-    <row r="131" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="5" t="s">
         <v>122</v>
       </c>
@@ -5936,7 +5979,7 @@
       <c r="L131" s="24"/>
       <c r="M131" s="24"/>
     </row>
-    <row r="132" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="5" t="s">
         <v>157</v>
       </c>
@@ -5956,7 +5999,7 @@
       <c r="L132" s="14"/>
       <c r="M132" s="24"/>
     </row>
-    <row r="133" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="5" t="s">
         <v>321</v>
       </c>
@@ -5976,7 +6019,7 @@
       <c r="L133" s="14"/>
       <c r="M133" s="24"/>
     </row>
-    <row r="134" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="5" t="s">
         <v>282</v>
       </c>
@@ -5996,7 +6039,7 @@
       <c r="L134" s="14"/>
       <c r="M134" s="24"/>
     </row>
-    <row r="135" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="5" t="s">
         <v>458</v>
       </c>
@@ -6016,7 +6059,7 @@
       <c r="L135" s="14"/>
       <c r="M135" s="24"/>
     </row>
-    <row r="136" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="5" t="s">
         <v>459</v>
       </c>
@@ -6036,7 +6079,7 @@
       <c r="L136" s="14"/>
       <c r="M136" s="24"/>
     </row>
-    <row r="137" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="5" t="s">
         <v>264</v>
       </c>
@@ -6056,7 +6099,7 @@
       <c r="L137" s="24"/>
       <c r="M137" s="24"/>
     </row>
-    <row r="138" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="5" t="s">
         <v>233</v>
       </c>
@@ -6073,14 +6116,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="5"/>
       <c r="B139" s="22"/>
       <c r="C139" s="7"/>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
     </row>
-    <row r="140" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="5" t="s">
         <v>123</v>
       </c>
@@ -6097,7 +6140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="5" t="s">
         <v>158</v>
       </c>
@@ -6114,7 +6157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="5" t="s">
         <v>322</v>
       </c>
@@ -6132,7 +6175,7 @@
       </c>
       <c r="F142" s="22"/>
     </row>
-    <row r="143" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="5" t="s">
         <v>283</v>
       </c>
@@ -6150,7 +6193,7 @@
       </c>
       <c r="F143" s="22"/>
     </row>
-    <row r="144" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="5" t="s">
         <v>460</v>
       </c>
@@ -6168,7 +6211,7 @@
       </c>
       <c r="F144" s="22"/>
     </row>
-    <row r="145" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="5" t="s">
         <v>461</v>
       </c>
@@ -6186,7 +6229,7 @@
       </c>
       <c r="F145" s="22"/>
     </row>
-    <row r="146" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="5" t="s">
         <v>265</v>
       </c>
@@ -6204,7 +6247,7 @@
       </c>
       <c r="F146" s="22"/>
     </row>
-    <row r="147" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="5" t="s">
         <v>234</v>
       </c>
@@ -6222,13 +6265,13 @@
       </c>
       <c r="F147" s="22"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
     </row>
-    <row r="149" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="22" t="s">
         <v>124</v>
       </c>
@@ -6245,7 +6288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="22" t="s">
         <v>159</v>
       </c>
@@ -6262,7 +6305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="22" t="s">
         <v>323</v>
       </c>
@@ -6279,7 +6322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="22" t="s">
         <v>284</v>
       </c>
@@ -6297,7 +6340,7 @@
       </c>
       <c r="F152" s="27"/>
     </row>
-    <row r="153" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="22" t="s">
         <v>266</v>
       </c>
@@ -6315,7 +6358,7 @@
       </c>
       <c r="F153" s="27"/>
     </row>
-    <row r="154" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="22" t="s">
         <v>235</v>
       </c>
@@ -6334,13 +6377,13 @@
       <c r="F154" s="27"/>
       <c r="I154" s="3"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
       <c r="F155" s="27"/>
       <c r="I155" s="3"/>
     </row>
-    <row r="156" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="5" t="s">
         <v>455</v>
       </c>
@@ -6362,7 +6405,7 @@
       <c r="R156" s="14"/>
       <c r="T156" s="4"/>
     </row>
-    <row r="157" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="5" t="s">
         <v>462</v>
       </c>
@@ -6383,7 +6426,7 @@
       <c r="R157" s="13"/>
       <c r="T157" s="4"/>
     </row>
-    <row r="158" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="5" t="s">
         <v>463</v>
       </c>
@@ -6404,13 +6447,13 @@
       <c r="R158" s="13"/>
       <c r="T158" s="4"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="5"/>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
       <c r="F159" s="27"/>
     </row>
-    <row r="160" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="5" t="s">
         <v>125</v>
       </c>
@@ -6428,7 +6471,7 @@
       </c>
       <c r="F160" s="27"/>
     </row>
-    <row r="161" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="5" t="s">
         <v>160</v>
       </c>
@@ -6446,7 +6489,7 @@
       </c>
       <c r="F161" s="27"/>
     </row>
-    <row r="162" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="5" t="s">
         <v>324</v>
       </c>
@@ -6464,7 +6507,7 @@
       </c>
       <c r="F162" s="27"/>
     </row>
-    <row r="163" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="5" t="s">
         <v>285</v>
       </c>
@@ -6482,13 +6525,13 @@
       </c>
       <c r="F163" s="27"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="5"/>
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
       <c r="F164" s="27"/>
     </row>
-    <row r="165" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="5" t="s">
         <v>126</v>
       </c>
@@ -6506,7 +6549,7 @@
       </c>
       <c r="F165" s="27"/>
     </row>
-    <row r="166" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="5" t="s">
         <v>161</v>
       </c>
@@ -6524,7 +6567,7 @@
       </c>
       <c r="F166" s="27"/>
     </row>
-    <row r="167" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="5" t="s">
         <v>325</v>
       </c>
@@ -6542,7 +6585,7 @@
       </c>
       <c r="F167" s="27"/>
     </row>
-    <row r="168" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="5" t="s">
         <v>286</v>
       </c>
@@ -6560,7 +6603,7 @@
       </c>
       <c r="F168" s="27"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="5"/>
       <c r="B169" s="22"/>
       <c r="C169" s="7"/>
@@ -6568,7 +6611,7 @@
       <c r="E169" s="8"/>
       <c r="F169" s="27"/>
     </row>
-    <row r="170" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="5" t="s">
         <v>127</v>
       </c>
@@ -6586,7 +6629,7 @@
       </c>
       <c r="F170" s="27"/>
     </row>
-    <row r="171" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="5" t="s">
         <v>162</v>
       </c>
@@ -6604,7 +6647,7 @@
       </c>
       <c r="F171" s="5"/>
     </row>
-    <row r="172" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="5" t="s">
         <v>326</v>
       </c>
@@ -6622,7 +6665,7 @@
       </c>
       <c r="F172" s="27"/>
     </row>
-    <row r="173" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="5" t="s">
         <v>288</v>
       </c>
@@ -6640,12 +6683,12 @@
       </c>
       <c r="F173" s="27"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
       <c r="F174" s="27"/>
     </row>
-    <row r="175" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="5" t="s">
         <v>128</v>
       </c>
@@ -6663,7 +6706,7 @@
       </c>
       <c r="F175" s="27"/>
     </row>
-    <row r="176" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="5" t="s">
         <v>163</v>
       </c>
@@ -6681,7 +6724,7 @@
       </c>
       <c r="F176" s="27"/>
     </row>
-    <row r="177" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="5" t="s">
         <v>327</v>
       </c>
@@ -6699,7 +6742,7 @@
       </c>
       <c r="F177" s="27"/>
     </row>
-    <row r="178" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="5" t="s">
         <v>287</v>
       </c>
@@ -6717,7 +6760,7 @@
       </c>
       <c r="F178" s="27"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="5"/>
       <c r="B179" s="22"/>
       <c r="C179" s="7"/>
@@ -6725,7 +6768,7 @@
       <c r="E179" s="8"/>
       <c r="F179" s="27"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="5" t="s">
         <v>129</v>
       </c>
@@ -6743,7 +6786,7 @@
       </c>
       <c r="F180" s="27"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="5" t="s">
         <v>164</v>
       </c>
@@ -6761,7 +6804,7 @@
       </c>
       <c r="F181" s="27"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="5" t="s">
         <v>328</v>
       </c>
@@ -6779,7 +6822,7 @@
       </c>
       <c r="F182" s="27"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="5" t="s">
         <v>289</v>
       </c>
@@ -6797,7 +6840,7 @@
       </c>
       <c r="F183" s="27"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="5"/>
       <c r="B184" s="22"/>
       <c r="C184" s="7"/>
@@ -6805,7 +6848,7 @@
       <c r="E184" s="8"/>
       <c r="F184" s="27"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="5" t="s">
         <v>165</v>
       </c>
@@ -6823,7 +6866,7 @@
       </c>
       <c r="F185" s="27"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="5" t="s">
         <v>329</v>
       </c>
@@ -6841,7 +6884,7 @@
       </c>
       <c r="F186" s="27"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="5" t="s">
         <v>290</v>
       </c>
@@ -6859,14 +6902,14 @@
       </c>
       <c r="F187" s="27"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="5"/>
       <c r="B188" s="22"/>
       <c r="C188" s="7"/>
       <c r="D188" s="8"/>
       <c r="E188" s="8"/>
     </row>
-    <row r="189" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="5" t="s">
         <v>166</v>
       </c>
@@ -6883,7 +6926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="5" t="s">
         <v>330</v>
       </c>
@@ -6900,7 +6943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="5" t="s">
         <v>291</v>
       </c>
@@ -6917,13 +6960,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B192" s="22"/>
       <c r="C192" s="7"/>
       <c r="D192" s="8"/>
       <c r="E192" s="8"/>
     </row>
-    <row r="193" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="5" t="s">
         <v>167</v>
       </c>
@@ -6940,7 +6983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="5" t="s">
         <v>331</v>
       </c>
@@ -6957,7 +7000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="5" t="s">
         <v>292</v>
       </c>
@@ -6974,14 +7017,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="5"/>
       <c r="B196" s="22"/>
       <c r="C196" s="7"/>
       <c r="D196" s="8"/>
       <c r="E196" s="8"/>
     </row>
-    <row r="197" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="5" t="s">
         <v>130</v>
       </c>
@@ -6998,7 +7041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="5" t="s">
         <v>168</v>
       </c>
@@ -7015,7 +7058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="5" t="s">
         <v>332</v>
       </c>
@@ -7032,7 +7075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="5" t="s">
         <v>293</v>
       </c>
@@ -7049,7 +7092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="5"/>
       <c r="B201" s="22"/>
       <c r="C201" s="7"/>
@@ -7057,7 +7100,7 @@
       <c r="E201" s="8"/>
       <c r="I201" s="47"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="5" t="s">
         <v>131</v>
       </c>
@@ -7075,7 +7118,7 @@
       </c>
       <c r="I202" s="47"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="5" t="s">
         <v>169</v>
       </c>
@@ -7093,7 +7136,7 @@
       </c>
       <c r="I203" s="47"/>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="5" t="s">
         <v>333</v>
       </c>
@@ -7111,7 +7154,7 @@
       </c>
       <c r="I204" s="47"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="5" t="s">
         <v>294</v>
       </c>
@@ -7129,7 +7172,7 @@
       </c>
       <c r="I205" s="47"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="5"/>
       <c r="B206" s="22"/>
       <c r="C206" s="7"/>
@@ -7137,7 +7180,7 @@
       <c r="E206" s="8"/>
       <c r="I206" s="47"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="5" t="s">
         <v>132</v>
       </c>
@@ -7155,7 +7198,7 @@
       </c>
       <c r="I207" s="47"/>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="5" t="s">
         <v>170</v>
       </c>
@@ -7173,7 +7216,7 @@
       </c>
       <c r="I208" s="47"/>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="5" t="s">
         <v>334</v>
       </c>
@@ -7194,7 +7237,7 @@
       <c r="K209" s="24"/>
       <c r="L209" s="24"/>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="5" t="s">
         <v>295</v>
       </c>
@@ -7215,7 +7258,7 @@
       <c r="K210" s="24"/>
       <c r="L210" s="24"/>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="5"/>
       <c r="B211" s="22"/>
       <c r="C211" s="7"/>
@@ -7224,7 +7267,7 @@
       <c r="K211" s="24"/>
       <c r="L211" s="24"/>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="5" t="s">
         <v>133</v>
       </c>
@@ -7245,7 +7288,7 @@
       <c r="K212" s="24"/>
       <c r="L212" s="24"/>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="5" t="s">
         <v>171</v>
       </c>
@@ -7267,7 +7310,7 @@
       <c r="L213" s="24"/>
       <c r="S213" s="24"/>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="5" t="s">
         <v>335</v>
       </c>
@@ -7289,7 +7332,7 @@
       <c r="L214" s="24"/>
       <c r="S214" s="24"/>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="5" t="s">
         <v>296</v>
       </c>
@@ -7311,7 +7354,7 @@
       <c r="L215" s="24"/>
       <c r="S215" s="24"/>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B216" s="22"/>
       <c r="C216" s="7"/>
       <c r="I216" s="47"/>
@@ -7320,7 +7363,7 @@
       <c r="L216" s="24"/>
       <c r="S216" s="24"/>
     </row>
-    <row r="217" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="22" t="s">
         <v>134</v>
       </c>
@@ -7342,7 +7385,7 @@
       <c r="L217" s="24"/>
       <c r="S217" s="24"/>
     </row>
-    <row r="218" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="22" t="s">
         <v>172</v>
       </c>
@@ -7364,7 +7407,7 @@
       <c r="L218" s="24"/>
       <c r="S218" s="24"/>
     </row>
-    <row r="219" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="22" t="s">
         <v>336</v>
       </c>
@@ -7386,7 +7429,7 @@
       <c r="L219" s="24"/>
       <c r="S219" s="24"/>
     </row>
-    <row r="220" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="22" t="s">
         <v>297</v>
       </c>
@@ -7408,7 +7451,7 @@
       <c r="L220" s="24"/>
       <c r="S220" s="24"/>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="5"/>
       <c r="B221" s="22"/>
       <c r="C221" s="7"/>
@@ -7418,7 +7461,7 @@
       <c r="L221" s="24"/>
       <c r="S221" s="24"/>
     </row>
-    <row r="222" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="5" t="s">
         <v>135</v>
       </c>
@@ -7440,7 +7483,7 @@
       <c r="L222" s="24"/>
       <c r="S222" s="24"/>
     </row>
-    <row r="223" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="5" t="s">
         <v>173</v>
       </c>
@@ -7461,7 +7504,7 @@
       <c r="L223" s="24"/>
       <c r="S223" s="24"/>
     </row>
-    <row r="224" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="5" t="s">
         <v>337</v>
       </c>
@@ -7482,7 +7525,7 @@
       <c r="L224" s="24"/>
       <c r="S224" s="24"/>
     </row>
-    <row r="225" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="5" t="s">
         <v>298</v>
       </c>
@@ -7503,7 +7546,7 @@
       <c r="L225" s="24"/>
       <c r="S225" s="24"/>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="5"/>
       <c r="B226" s="22"/>
       <c r="C226" s="7"/>
@@ -7512,7 +7555,7 @@
       <c r="L226" s="24"/>
       <c r="S226" s="24"/>
     </row>
-    <row r="227" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="5" t="s">
         <v>136</v>
       </c>
@@ -7533,7 +7576,7 @@
       <c r="L227" s="24"/>
       <c r="S227" s="24"/>
     </row>
-    <row r="228" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="5" t="s">
         <v>174</v>
       </c>
@@ -7554,7 +7597,7 @@
       <c r="L228" s="24"/>
       <c r="S228" s="24"/>
     </row>
-    <row r="229" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="5" t="s">
         <v>338</v>
       </c>
@@ -7574,7 +7617,7 @@
       <c r="K229" s="24"/>
       <c r="L229" s="24"/>
     </row>
-    <row r="230" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="5" t="s">
         <v>299</v>
       </c>
@@ -7594,7 +7637,7 @@
       <c r="K230" s="24"/>
       <c r="L230" s="24"/>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="5"/>
       <c r="B231" s="22"/>
       <c r="C231" s="7"/>
@@ -7602,7 +7645,7 @@
       <c r="I231" s="5"/>
       <c r="J231" s="26"/>
     </row>
-    <row r="232" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="5" t="s">
         <v>137</v>
       </c>
@@ -7622,7 +7665,7 @@
       <c r="I232" s="5"/>
       <c r="J232" s="7"/>
     </row>
-    <row r="233" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="5" t="s">
         <v>175</v>
       </c>
@@ -7642,7 +7685,7 @@
       <c r="I233" s="5"/>
       <c r="J233" s="7"/>
     </row>
-    <row r="234" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="5" t="s">
         <v>339</v>
       </c>
@@ -7661,7 +7704,7 @@
       <c r="H234" s="5"/>
       <c r="I234" s="5"/>
     </row>
-    <row r="235" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="5" t="s">
         <v>300</v>
       </c>
@@ -7681,7 +7724,7 @@
       <c r="H235" s="5"/>
       <c r="I235" s="5"/>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="5"/>
       <c r="B236" s="22"/>
       <c r="C236" s="7"/>
@@ -7689,7 +7732,7 @@
       <c r="H236" s="5"/>
       <c r="I236" s="5"/>
     </row>
-    <row r="237" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="5" t="s">
         <v>176</v>
       </c>
@@ -7707,7 +7750,7 @@
       </c>
       <c r="G237" s="9"/>
     </row>
-    <row r="238" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="5" t="s">
         <v>340</v>
       </c>
@@ -7725,7 +7768,7 @@
       </c>
       <c r="G238" s="9"/>
     </row>
-    <row r="239" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="5" t="s">
         <v>301</v>
       </c>
@@ -7743,11 +7786,11 @@
       </c>
       <c r="G239" s="9"/>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B240" s="22"/>
       <c r="C240" s="7"/>
     </row>
-    <row r="241" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="22" t="s">
         <v>464</v>
       </c>
@@ -7766,7 +7809,7 @@
       <c r="H241" s="5"/>
       <c r="I241" s="5"/>
     </row>
-    <row r="242" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="22" t="s">
         <v>465</v>
       </c>
@@ -7785,7 +7828,7 @@
       <c r="H242" s="5"/>
       <c r="I242" s="5"/>
     </row>
-    <row r="243" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="22" t="s">
         <v>466</v>
       </c>
@@ -7804,7 +7847,7 @@
       <c r="H243" s="5"/>
       <c r="I243" s="5"/>
     </row>
-    <row r="244" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="22" t="s">
         <v>467</v>
       </c>
@@ -7823,7 +7866,7 @@
       <c r="H244" s="5"/>
       <c r="I244" s="5"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="5"/>
       <c r="B245" s="22"/>
       <c r="C245" s="7"/>
@@ -7831,7 +7874,7 @@
       <c r="H245" s="5"/>
       <c r="I245" s="5"/>
     </row>
-    <row r="246" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="5" t="s">
         <v>138</v>
       </c>
@@ -7851,7 +7894,7 @@
       <c r="H246" s="5"/>
       <c r="I246" s="5"/>
     </row>
-    <row r="247" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="5" t="s">
         <v>177</v>
       </c>
@@ -7869,7 +7912,7 @@
       </c>
       <c r="G247" s="5"/>
     </row>
-    <row r="248" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="5" t="s">
         <v>341</v>
       </c>
@@ -7887,7 +7930,7 @@
       </c>
       <c r="G248" s="5"/>
     </row>
-    <row r="249" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="5" t="s">
         <v>302</v>
       </c>
@@ -7905,13 +7948,13 @@
       </c>
       <c r="G249" s="5"/>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="5"/>
       <c r="B250" s="22"/>
       <c r="C250" s="7"/>
       <c r="G250" s="5"/>
     </row>
-    <row r="251" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="5" t="s">
         <v>139</v>
       </c>
@@ -7928,7 +7971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="5" t="s">
         <v>178</v>
       </c>
@@ -7945,7 +7988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="5" t="s">
         <v>342</v>
       </c>
@@ -7962,7 +8005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="5" t="s">
         <v>303</v>
       </c>
@@ -7979,12 +8022,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="5"/>
       <c r="B255" s="22"/>
       <c r="C255" s="7"/>
     </row>
-    <row r="256" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="5" t="s">
         <v>140</v>
       </c>
@@ -8001,7 +8044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="5" t="s">
         <v>179</v>
       </c>
@@ -8018,7 +8061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="5" t="s">
         <v>343</v>
       </c>
@@ -8035,7 +8078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="5" t="s">
         <v>304</v>
       </c>
@@ -8052,11 +8095,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B260" s="22"/>
       <c r="C260" s="7"/>
     </row>
-    <row r="261" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="22" t="s">
         <v>141</v>
       </c>
@@ -8074,7 +8117,7 @@
       </c>
       <c r="F261" s="27"/>
     </row>
-    <row r="262" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="22" t="s">
         <v>180</v>
       </c>
@@ -8091,7 +8134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="22" t="s">
         <v>344</v>
       </c>
@@ -8108,7 +8151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="22" t="s">
         <v>305</v>
       </c>
@@ -8125,12 +8168,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="5"/>
       <c r="B265" s="22"/>
       <c r="C265" s="7"/>
     </row>
-    <row r="266" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="5" t="s">
         <v>468</v>
       </c>
@@ -8147,7 +8190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="5" t="s">
         <v>469</v>
       </c>
@@ -8164,7 +8207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="5" t="s">
         <v>470</v>
       </c>
@@ -8181,7 +8224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="5" t="s">
         <v>471</v>
       </c>
@@ -8198,14 +8241,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="5"/>
       <c r="B270" s="22"/>
       <c r="C270" s="7"/>
       <c r="D270" s="8"/>
       <c r="E270" s="8"/>
     </row>
-    <row r="271" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="5" t="s">
         <v>351</v>
       </c>
@@ -8222,7 +8265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="5" t="s">
         <v>352</v>
       </c>
@@ -8239,7 +8282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="5" t="s">
         <v>353</v>
       </c>
@@ -8256,7 +8299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="5" t="s">
         <v>354</v>
       </c>
@@ -8273,14 +8316,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="5"/>
       <c r="B275" s="22"/>
       <c r="C275" s="7"/>
       <c r="D275" s="8"/>
       <c r="E275" s="8"/>
     </row>
-    <row r="276" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="5" t="s">
         <v>355</v>
       </c>
@@ -8297,7 +8340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="5" t="s">
         <v>356</v>
       </c>
@@ -8314,7 +8357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="5" t="s">
         <v>357</v>
       </c>
@@ -8331,7 +8374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="5" t="s">
         <v>358</v>
       </c>
@@ -8348,13 +8391,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B280" s="22"/>
       <c r="C280" s="7"/>
       <c r="D280" s="8"/>
       <c r="E280" s="8"/>
     </row>
-    <row r="281" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="22" t="s">
         <v>359</v>
       </c>
@@ -8372,7 +8415,7 @@
       </c>
       <c r="F281" s="5"/>
     </row>
-    <row r="282" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="22" t="s">
         <v>360</v>
       </c>
@@ -8390,7 +8433,7 @@
       </c>
       <c r="F282" s="5"/>
     </row>
-    <row r="283" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="22" t="s">
         <v>361</v>
       </c>
@@ -8407,14 +8450,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="5"/>
       <c r="B284" s="22"/>
       <c r="C284" s="7"/>
       <c r="D284" s="8"/>
       <c r="E284" s="8"/>
     </row>
-    <row r="285" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="5" t="s">
         <v>362</v>
       </c>
@@ -8431,7 +8474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="5" t="s">
         <v>363</v>
       </c>
@@ -8448,7 +8491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="5" t="s">
         <v>364</v>
       </c>
@@ -8465,7 +8508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="5" t="s">
         <v>365</v>
       </c>
@@ -8482,14 +8525,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="5"/>
       <c r="B289" s="22"/>
       <c r="C289" s="7"/>
       <c r="D289" s="8"/>
       <c r="E289" s="8"/>
     </row>
-    <row r="290" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="5" t="s">
         <v>366</v>
       </c>
@@ -8506,7 +8549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="5" t="s">
         <v>367</v>
       </c>
@@ -8523,7 +8566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="5" t="s">
         <v>368</v>
       </c>
@@ -8540,14 +8583,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="5"/>
       <c r="B293" s="22"/>
       <c r="C293" s="7"/>
       <c r="D293" s="8"/>
       <c r="E293" s="8"/>
     </row>
-    <row r="294" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="5" t="s">
         <v>369</v>
       </c>
@@ -8564,7 +8607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="5" t="s">
         <v>370</v>
       </c>
@@ -8581,7 +8624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="5" t="s">
         <v>371</v>
       </c>
@@ -8598,7 +8641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="5" t="s">
         <v>372</v>
       </c>
@@ -8615,14 +8658,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="5"/>
       <c r="B298" s="22"/>
       <c r="C298" s="7"/>
       <c r="D298" s="8"/>
       <c r="E298" s="8"/>
     </row>
-    <row r="299" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="5" t="s">
         <v>373</v>
       </c>
@@ -8639,7 +8682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="5" t="s">
         <v>374</v>
       </c>
@@ -8656,7 +8699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="5" t="s">
         <v>375</v>
       </c>
@@ -8673,13 +8716,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B302" s="22"/>
       <c r="C302" s="7"/>
       <c r="D302" s="8"/>
       <c r="E302" s="8"/>
     </row>
-    <row r="303" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="22" t="s">
         <v>376</v>
       </c>
@@ -8696,7 +8739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="22" t="s">
         <v>377</v>
       </c>
@@ -8713,7 +8756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="22" t="s">
         <v>378</v>
       </c>
@@ -8730,7 +8773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="22" t="s">
         <v>379</v>
       </c>
@@ -8747,14 +8790,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="5"/>
       <c r="B307" s="22"/>
       <c r="C307" s="7"/>
       <c r="D307" s="8"/>
       <c r="E307" s="8"/>
     </row>
-    <row r="308" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="5" t="s">
         <v>380</v>
       </c>
@@ -8771,7 +8814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="5" t="s">
         <v>381</v>
       </c>
@@ -8788,7 +8831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="5" t="s">
         <v>382</v>
       </c>
@@ -8805,14 +8848,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="5"/>
       <c r="B311" s="22"/>
       <c r="C311" s="7"/>
       <c r="D311" s="8"/>
       <c r="E311" s="8"/>
     </row>
-    <row r="312" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="5" t="s">
         <v>383</v>
       </c>
@@ -8829,7 +8872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="5" t="s">
         <v>384</v>
       </c>
@@ -8846,7 +8889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="5" t="s">
         <v>385</v>
       </c>
@@ -8863,14 +8906,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="5"/>
       <c r="B315" s="22"/>
       <c r="C315" s="7"/>
       <c r="D315" s="8"/>
       <c r="E315" s="8"/>
     </row>
-    <row r="316" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="5" t="s">
         <v>386</v>
       </c>
@@ -8887,7 +8930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="5" t="s">
         <v>387</v>
       </c>
@@ -8904,7 +8947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="5" t="s">
         <v>388</v>
       </c>
@@ -8921,14 +8964,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="5"/>
       <c r="B319" s="22"/>
       <c r="C319" s="7"/>
       <c r="D319" s="8"/>
       <c r="E319" s="8"/>
     </row>
-    <row r="320" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="5" t="s">
         <v>389</v>
       </c>
@@ -8945,7 +8988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="5" t="s">
         <v>390</v>
       </c>
@@ -8962,7 +9005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="5" t="s">
         <v>391</v>
       </c>
@@ -8979,14 +9022,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="5"/>
       <c r="B323" s="22"/>
       <c r="C323" s="7"/>
       <c r="D323" s="8"/>
       <c r="E323" s="8"/>
     </row>
-    <row r="324" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="5" t="s">
         <v>392</v>
       </c>
@@ -9003,7 +9046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="5" t="s">
         <v>393</v>
       </c>
@@ -9020,7 +9063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="5" t="s">
         <v>394</v>
       </c>
@@ -9037,7 +9080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="5" t="s">
         <v>395</v>
       </c>
@@ -9054,13 +9097,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B328" s="22"/>
       <c r="C328" s="7"/>
       <c r="D328" s="8"/>
       <c r="E328" s="8"/>
     </row>
-    <row r="329" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="22" t="s">
         <v>396</v>
       </c>
@@ -9077,7 +9120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="22" t="s">
         <v>397</v>
       </c>
@@ -9094,7 +9137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="22" t="s">
         <v>398</v>
       </c>
@@ -9111,7 +9154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="22" t="s">
         <v>399</v>
       </c>
@@ -9128,14 +9171,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="5"/>
       <c r="B333" s="22"/>
       <c r="C333" s="7"/>
       <c r="D333" s="8"/>
       <c r="E333" s="8"/>
     </row>
-    <row r="334" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="22" t="s">
         <v>400</v>
       </c>
@@ -9153,7 +9196,7 @@
       </c>
       <c r="F334" s="27"/>
     </row>
-    <row r="335" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="22" t="s">
         <v>401</v>
       </c>
@@ -9171,7 +9214,7 @@
       </c>
       <c r="F335" s="5"/>
     </row>
-    <row r="336" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="22" t="s">
         <v>402</v>
       </c>
@@ -9189,7 +9232,7 @@
       </c>
       <c r="F336" s="27"/>
     </row>
-    <row r="337" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="22" t="s">
         <v>403</v>
       </c>
@@ -9207,14 +9250,14 @@
       </c>
       <c r="F337" s="27"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B338" s="22"/>
       <c r="C338" s="7"/>
       <c r="D338" s="8"/>
       <c r="E338" s="8"/>
       <c r="F338" s="27"/>
     </row>
-    <row r="339" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="5" t="s">
         <v>472</v>
       </c>
@@ -9232,7 +9275,7 @@
       </c>
       <c r="F339" s="27"/>
     </row>
-    <row r="340" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="5" t="s">
         <v>473</v>
       </c>
@@ -9250,7 +9293,7 @@
       </c>
       <c r="F340" s="27"/>
     </row>
-    <row r="341" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="5" t="s">
         <v>474</v>
       </c>
@@ -9268,7 +9311,7 @@
       </c>
       <c r="F341" s="27"/>
     </row>
-    <row r="342" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="5" t="s">
         <v>475</v>
       </c>
@@ -9286,14 +9329,14 @@
       </c>
       <c r="F342" s="27"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B343" s="22"/>
       <c r="C343" s="7"/>
       <c r="D343" s="8"/>
       <c r="E343" s="8"/>
       <c r="F343" s="27"/>
     </row>
-    <row r="344" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="22" t="s">
         <v>404</v>
       </c>
@@ -9311,7 +9354,7 @@
       </c>
       <c r="F344" s="27"/>
     </row>
-    <row r="345" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="22" t="s">
         <v>405</v>
       </c>
@@ -9329,7 +9372,7 @@
       </c>
       <c r="F345" s="27"/>
     </row>
-    <row r="346" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="22" t="s">
         <v>406</v>
       </c>
@@ -9347,7 +9390,7 @@
       </c>
       <c r="F346" s="27"/>
     </row>
-    <row r="347" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="22" t="s">
         <v>407</v>
       </c>
@@ -9365,7 +9408,7 @@
       </c>
       <c r="F347" s="27"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="5"/>
       <c r="B348" s="22"/>
       <c r="C348" s="7"/>
@@ -9373,7 +9416,7 @@
       <c r="E348" s="8"/>
       <c r="F348" s="27"/>
     </row>
-    <row r="349" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="22" t="s">
         <v>408</v>
       </c>
@@ -9391,7 +9434,7 @@
       </c>
       <c r="F349" s="27"/>
     </row>
-    <row r="350" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="22" t="s">
         <v>409</v>
       </c>
@@ -9409,7 +9452,7 @@
       </c>
       <c r="F350" s="27"/>
     </row>
-    <row r="351" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="22" t="s">
         <v>410</v>
       </c>
@@ -9427,14 +9470,14 @@
       </c>
       <c r="F351" s="27"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B352" s="22"/>
       <c r="C352" s="7"/>
       <c r="D352" s="8"/>
       <c r="E352" s="8"/>
       <c r="F352" s="27"/>
     </row>
-    <row r="353" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="5" t="s">
         <v>411</v>
       </c>
@@ -9452,7 +9495,7 @@
       </c>
       <c r="F353" s="27"/>
     </row>
-    <row r="354" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="5" t="s">
         <v>412</v>
       </c>
@@ -9470,7 +9513,7 @@
       </c>
       <c r="F354" s="27"/>
     </row>
-    <row r="355" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="5" t="s">
         <v>413</v>
       </c>
@@ -9487,14 +9530,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="5"/>
       <c r="B356" s="22"/>
       <c r="C356" s="7"/>
       <c r="D356" s="8"/>
       <c r="E356" s="8"/>
     </row>
-    <row r="357" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="5" t="s">
         <v>414</v>
       </c>
@@ -9511,7 +9554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="5" t="s">
         <v>415</v>
       </c>
@@ -9528,7 +9571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="5" t="s">
         <v>416</v>
       </c>
@@ -9545,7 +9588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="5" t="s">
         <v>417</v>
       </c>
@@ -9562,14 +9605,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="5"/>
       <c r="B361" s="22"/>
       <c r="C361" s="7"/>
       <c r="D361" s="8"/>
       <c r="E361" s="8"/>
     </row>
-    <row r="362" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="5" t="s">
         <v>418</v>
       </c>
@@ -9586,7 +9629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="5" t="s">
         <v>419</v>
       </c>
@@ -9603,7 +9646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="5" t="s">
         <v>420</v>
       </c>
@@ -9620,7 +9663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="5" t="s">
         <v>421</v>
       </c>
@@ -9637,14 +9680,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="5"/>
       <c r="B366" s="22"/>
       <c r="C366" s="7"/>
       <c r="D366" s="8"/>
       <c r="E366" s="8"/>
     </row>
-    <row r="367" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="5" t="s">
         <v>422</v>
       </c>
@@ -9661,7 +9704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="5" t="s">
         <v>423</v>
       </c>
@@ -9678,7 +9721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="5" t="s">
         <v>424</v>
       </c>
@@ -9695,7 +9738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="5" t="s">
         <v>425</v>
       </c>
@@ -9712,13 +9755,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B371" s="22"/>
       <c r="C371" s="7"/>
       <c r="D371" s="8"/>
       <c r="E371" s="8"/>
     </row>
-    <row r="372" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="5" t="s">
         <v>426</v>
       </c>
@@ -9735,7 +9778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="5" t="s">
         <v>427</v>
       </c>
@@ -9752,7 +9795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="5" t="s">
         <v>428</v>
       </c>
@@ -9769,7 +9812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="5" t="s">
         <v>429</v>
       </c>
@@ -9786,14 +9829,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="5"/>
       <c r="B376" s="22"/>
       <c r="C376" s="7"/>
       <c r="D376" s="8"/>
       <c r="E376" s="8"/>
     </row>
-    <row r="377" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="5" t="s">
         <v>430</v>
       </c>
@@ -9810,7 +9853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="5" t="s">
         <v>431</v>
       </c>
@@ -9827,7 +9870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="5" t="s">
         <v>432</v>
       </c>
@@ -9844,7 +9887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="5" t="s">
         <v>433</v>
       </c>
@@ -9861,14 +9904,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="5"/>
       <c r="B381" s="22"/>
       <c r="C381" s="7"/>
       <c r="D381" s="8"/>
       <c r="E381" s="8"/>
     </row>
-    <row r="382" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="5" t="s">
         <v>434</v>
       </c>
@@ -9885,7 +9928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="5" t="s">
         <v>435</v>
       </c>
@@ -9902,7 +9945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="5" t="s">
         <v>436</v>
       </c>
@@ -9919,13 +9962,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="5"/>
       <c r="B385" s="22"/>
       <c r="D385" s="8"/>
       <c r="E385" s="8"/>
     </row>
-    <row r="386" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="5" t="s">
         <v>437</v>
       </c>
@@ -9942,7 +9985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="5" t="s">
         <v>438</v>
       </c>
@@ -9959,7 +10002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="5" t="s">
         <v>439</v>
       </c>
@@ -9976,7 +10019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="5" t="s">
         <v>440</v>
       </c>
@@ -9993,11 +10036,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="5"/>
       <c r="B390" s="22"/>
     </row>
-    <row r="391" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="5" t="s">
         <v>441</v>
       </c>
@@ -10014,7 +10057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="5" t="s">
         <v>442</v>
       </c>
@@ -10031,7 +10074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="5" t="s">
         <v>443</v>
       </c>
@@ -10048,7 +10091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="5" t="s">
         <v>444</v>
       </c>
@@ -10065,11 +10108,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="5"/>
       <c r="B395" s="22"/>
     </row>
-    <row r="396" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="5" t="s">
         <v>445</v>
       </c>
@@ -10086,7 +10129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="5" t="s">
         <v>446</v>
       </c>
@@ -10103,7 +10146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="5" t="s">
         <v>447</v>
       </c>
@@ -10120,7 +10163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="5" t="s">
         <v>448</v>
       </c>
@@ -10137,11 +10180,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="5"/>
       <c r="B400" s="22"/>
     </row>
-    <row r="401" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="5" t="s">
         <v>345</v>
       </c>
@@ -10158,7 +10201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="5" t="s">
         <v>346</v>
       </c>
@@ -10175,7 +10218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="5" t="s">
         <v>347</v>
       </c>
@@ -10193,11 +10236,11 @@
       </c>
       <c r="F403" s="5"/>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B404" s="22"/>
       <c r="F404" s="5"/>
     </row>
-    <row r="405" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="5" t="s">
         <v>348</v>
       </c>
@@ -10214,7 +10257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="5" t="s">
         <v>349</v>
       </c>
@@ -10231,7 +10274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="5" t="s">
         <v>350</v>
       </c>
@@ -10248,10 +10291,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B408" s="22"/>
     </row>
-    <row r="409" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="5" t="s">
         <v>181</v>
       </c>
@@ -10268,7 +10311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="5" t="s">
         <v>182</v>
       </c>
@@ -10285,7 +10328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="5" t="s">
         <v>183</v>
       </c>
@@ -10302,7 +10345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="5" t="s">
         <v>184</v>
       </c>
@@ -10319,7 +10362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="22" t="s">
         <v>185</v>
       </c>
@@ -10336,7 +10379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="5" t="s">
         <v>186</v>
       </c>
@@ -10353,7 +10396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="415" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="5" t="s">
         <v>188</v>
       </c>
@@ -10370,7 +10413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="5" t="s">
         <v>187</v>
       </c>
@@ -10387,7 +10430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="5" t="s">
         <v>189</v>
       </c>
@@ -10404,7 +10447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="22" t="s">
         <v>190</v>
       </c>
@@ -10421,7 +10464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="5" t="s">
         <v>191</v>
       </c>
@@ -10438,7 +10481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="420" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="5" t="s">
         <v>192</v>
       </c>
@@ -10455,11 +10498,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="5"/>
       <c r="B421" s="22"/>
     </row>
-    <row r="422" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="5" t="s">
         <v>193</v>
       </c>
@@ -10476,7 +10519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="5" t="s">
         <v>194</v>
       </c>
@@ -10493,11 +10536,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="5"/>
       <c r="B424" s="22"/>
     </row>
-    <row r="425" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="5" t="s">
         <v>195</v>
       </c>
@@ -10514,7 +10557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="426" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="5" t="s">
         <v>196</v>
       </c>
@@ -10531,12 +10574,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="5"/>
       <c r="B427" s="22"/>
       <c r="F427" s="5"/>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="5" t="s">
         <v>197</v>
       </c>
@@ -10554,7 +10597,7 @@
       </c>
       <c r="I428" s="14"/>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="5" t="s">
         <v>198</v>
       </c>
@@ -10571,11 +10614,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="5"/>
       <c r="B430" s="22"/>
     </row>
-    <row r="431" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="5" t="s">
         <v>199</v>
       </c>
@@ -10592,7 +10635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="5" t="s">
         <v>200</v>
       </c>
@@ -10609,11 +10652,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="5"/>
       <c r="B433" s="22"/>
     </row>
-    <row r="434" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="5" t="s">
         <v>201</v>
       </c>
@@ -10630,7 +10673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="435" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="5" t="s">
         <v>202</v>
       </c>
@@ -10647,11 +10690,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="5"/>
       <c r="B436" s="22"/>
     </row>
-    <row r="437" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="5" t="s">
         <v>203</v>
       </c>
@@ -10668,7 +10711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="5" t="s">
         <v>204</v>
       </c>
@@ -10685,11 +10728,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="5"/>
       <c r="B439" s="22"/>
     </row>
-    <row r="440" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="5" t="s">
         <v>205</v>
       </c>
@@ -10706,7 +10749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="5" t="s">
         <v>206</v>
       </c>
@@ -10723,11 +10766,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="5"/>
       <c r="B442" s="22"/>
     </row>
-    <row r="443" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="5" t="s">
         <v>207</v>
       </c>
@@ -10744,7 +10787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="444" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="5" t="s">
         <v>228</v>
       </c>
@@ -10761,11 +10804,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="5"/>
       <c r="B445" s="22"/>
     </row>
-    <row r="446" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="5" t="s">
         <v>208</v>
       </c>
@@ -10782,7 +10825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="447" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="5" t="s">
         <v>227</v>
       </c>
@@ -10799,11 +10842,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="5"/>
       <c r="B448" s="22"/>
     </row>
-    <row r="449" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="5" t="s">
         <v>209</v>
       </c>
@@ -10820,7 +10863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="450" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="5" t="s">
         <v>226</v>
       </c>
@@ -10837,11 +10880,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="5"/>
       <c r="B451" s="22"/>
     </row>
-    <row r="452" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="5" t="s">
         <v>210</v>
       </c>
@@ -10858,7 +10901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="453" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="5" t="s">
         <v>225</v>
       </c>
@@ -10875,11 +10918,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="5"/>
       <c r="B454" s="22"/>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="5" t="s">
         <v>218</v>
       </c>
@@ -10896,7 +10939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="5" t="s">
         <v>219</v>
       </c>
@@ -10913,7 +10956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="457" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="5" t="s">
         <v>220</v>
       </c>
@@ -10930,7 +10973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="5" t="s">
         <v>221</v>
       </c>
@@ -10947,7 +10990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="5" t="s">
         <v>222</v>
       </c>
@@ -10964,7 +11007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="460" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="5" t="s">
         <v>223</v>
       </c>
@@ -10981,7 +11024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="22" t="s">
         <v>224</v>
       </c>
@@ -10998,7 +11041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="5" t="s">
         <v>211</v>
       </c>
@@ -11015,7 +11058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="5" t="s">
         <v>212</v>
       </c>
@@ -11032,7 +11075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="465" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="5" t="s">
         <v>213</v>
       </c>
@@ -11049,7 +11092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="5" t="s">
         <v>214</v>
       </c>
@@ -11066,7 +11109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="5" t="s">
         <v>215</v>
       </c>
@@ -11083,7 +11126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="468" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="5" t="s">
         <v>216</v>
       </c>
@@ -11100,7 +11143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="470" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="5" t="s">
         <v>217</v>
       </c>
@@ -11117,806 +11160,806 @@
         <v>10</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="5"/>
       <c r="B472" s="22"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="5"/>
       <c r="B473" s="22"/>
       <c r="G473" s="16"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="5"/>
       <c r="B474" s="22"/>
       <c r="G474" s="16"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B475" s="22"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="5"/>
       <c r="B476" s="22"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="5"/>
       <c r="B477" s="22"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="5"/>
       <c r="B478" s="22"/>
     </row>
-    <row r="479" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="5"/>
       <c r="B479" s="22"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B480" s="22"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="5"/>
       <c r="B481" s="22"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" s="5"/>
       <c r="B482" s="22"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" s="5"/>
       <c r="B483" s="22"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" s="5"/>
       <c r="B484" s="22"/>
       <c r="F484" s="5"/>
       <c r="G484" s="27"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B485" s="22"/>
       <c r="F485" s="5"/>
       <c r="G485" s="27"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" s="5"/>
       <c r="B486" s="22"/>
       <c r="F486" s="5"/>
       <c r="G486" s="27"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" s="5"/>
       <c r="B487" s="22"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" s="5"/>
       <c r="B488" s="22"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" s="5"/>
       <c r="B489" s="22"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B490" s="22"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" s="5"/>
       <c r="B491" s="22"/>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" s="5"/>
       <c r="B492" s="22"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" s="5"/>
       <c r="B493" s="22"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" s="5"/>
       <c r="B494" s="22"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B495" s="22"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" s="5"/>
       <c r="B496" s="22"/>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" s="5"/>
       <c r="B497" s="22"/>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" s="5"/>
       <c r="B498" s="22"/>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" s="5"/>
       <c r="B499" s="22"/>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B500" s="22"/>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" s="5"/>
       <c r="B501" s="22"/>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" s="5"/>
       <c r="B502" s="22"/>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" s="5"/>
       <c r="B503" s="22"/>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" s="5"/>
       <c r="B504" s="22"/>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B505" s="22"/>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" s="5"/>
       <c r="B506" s="22"/>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" s="5"/>
       <c r="B507" s="22"/>
       <c r="H507" s="4"/>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" s="5"/>
       <c r="B508" s="22"/>
       <c r="H508" s="4"/>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" s="5"/>
       <c r="B509" s="22"/>
       <c r="H509" s="4"/>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B510" s="22"/>
       <c r="H510" s="4"/>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" s="5"/>
       <c r="B511" s="22"/>
       <c r="H511" s="4"/>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" s="5"/>
       <c r="B512" s="22"/>
       <c r="H512" s="4"/>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" s="5"/>
       <c r="B513" s="22"/>
       <c r="H513" s="4"/>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" s="5"/>
       <c r="B514" s="22"/>
       <c r="H514" s="4"/>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B515" s="22"/>
       <c r="H515" s="4"/>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" s="5"/>
       <c r="B516" s="22"/>
       <c r="H516" s="4"/>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" s="5"/>
       <c r="B517" s="22"/>
       <c r="H517" s="4"/>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" s="5"/>
       <c r="B518" s="22"/>
       <c r="H518" s="4"/>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" s="5"/>
       <c r="B519" s="22"/>
       <c r="H519" s="4"/>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" s="5"/>
       <c r="B520" s="22"/>
       <c r="H520" s="4"/>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B521" s="22"/>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" s="5"/>
       <c r="B522" s="22"/>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" s="5"/>
       <c r="B523" s="22"/>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" s="5"/>
       <c r="B524" s="22"/>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" s="5"/>
       <c r="B525" s="22"/>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B526" s="22"/>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" s="5"/>
       <c r="B527" s="22"/>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" s="5"/>
       <c r="B528" s="22"/>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" s="5"/>
       <c r="B529" s="22"/>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" s="5"/>
       <c r="B530" s="22"/>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" s="5"/>
       <c r="B531" s="22"/>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B532" s="22"/>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" s="5"/>
       <c r="B533" s="22"/>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" s="5"/>
       <c r="B534" s="22"/>
       <c r="H534" s="4"/>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" s="5"/>
       <c r="B535" s="22"/>
       <c r="H535" s="4"/>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" s="5"/>
       <c r="B536" s="22"/>
       <c r="H536" s="4"/>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" s="5"/>
       <c r="B537" s="22"/>
       <c r="H537" s="4"/>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" s="8"/>
       <c r="B538" s="8"/>
       <c r="H538" s="4"/>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" s="5"/>
       <c r="B539" s="22"/>
       <c r="H539" s="4"/>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" s="5"/>
       <c r="B540" s="22"/>
       <c r="H540" s="4"/>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" s="5"/>
       <c r="B541" s="22"/>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" s="5"/>
       <c r="B542" s="22"/>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B543" s="22"/>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" s="5"/>
       <c r="B544" s="22"/>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" s="5"/>
       <c r="B545" s="22"/>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" s="5"/>
       <c r="B546" s="22"/>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" s="5"/>
       <c r="B547" s="22"/>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B548" s="22"/>
       <c r="F548" s="9"/>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" s="5"/>
       <c r="B549" s="22"/>
       <c r="F549" s="9"/>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" s="5"/>
       <c r="B550" s="22"/>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" s="5"/>
       <c r="B551" s="22"/>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" s="5"/>
       <c r="B552" s="22"/>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B553" s="22"/>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" s="5"/>
       <c r="B554" s="22"/>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" s="5"/>
       <c r="B555" s="22"/>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" s="5"/>
       <c r="B556" s="22"/>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" s="5"/>
       <c r="B557" s="22"/>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B558" s="22"/>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" s="5"/>
       <c r="B559" s="22"/>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" s="5"/>
       <c r="B560" s="22"/>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" s="5"/>
       <c r="B561" s="22"/>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" s="5"/>
       <c r="B562" s="22"/>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B563" s="22"/>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" s="5"/>
       <c r="B564" s="22"/>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" s="5"/>
       <c r="B565" s="22"/>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B566" s="22"/>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" s="5"/>
       <c r="B567" s="22"/>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" s="5"/>
       <c r="B568" s="22"/>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B569" s="22"/>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" s="5"/>
       <c r="B570" s="22"/>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" s="5"/>
       <c r="B571" s="22"/>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B572" s="22"/>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" s="5"/>
       <c r="B573" s="22"/>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" s="5"/>
       <c r="B574" s="22"/>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B575" s="22"/>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" s="5"/>
       <c r="B576" s="22"/>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" s="5"/>
       <c r="B577" s="22"/>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B578" s="22"/>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" s="5"/>
       <c r="B579" s="22"/>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" s="5"/>
       <c r="B580" s="22"/>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B581" s="22"/>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" s="5"/>
       <c r="B582" s="22"/>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" s="5"/>
       <c r="B583" s="22"/>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B584" s="22"/>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" s="5"/>
       <c r="B585" s="22"/>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" s="5"/>
       <c r="B586" s="22"/>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B587" s="22"/>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" s="5"/>
       <c r="B588" s="22"/>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" s="5"/>
       <c r="B589" s="22"/>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B590" s="22"/>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" s="5"/>
       <c r="B591" s="22"/>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" s="5"/>
       <c r="B592" s="22"/>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B593" s="22"/>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" s="5"/>
       <c r="B594" s="22"/>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" s="5"/>
       <c r="B595" s="22"/>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B596" s="22"/>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" s="5"/>
       <c r="B597" s="22"/>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" s="5"/>
       <c r="B598" s="22"/>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B599" s="22"/>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" s="5"/>
       <c r="B600" s="22"/>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" s="5"/>
       <c r="B601" s="22"/>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B602" s="22"/>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" s="5"/>
       <c r="B603" s="22"/>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" s="5"/>
       <c r="B604" s="22"/>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B605" s="22"/>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" s="5"/>
       <c r="B606" s="22"/>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B607" s="22"/>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" s="5"/>
       <c r="B608" s="22"/>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B609" s="22"/>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" s="5"/>
       <c r="B610" s="22"/>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B611" s="22"/>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" s="5"/>
       <c r="B612" s="22"/>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" s="5"/>
       <c r="B613" s="22"/>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B614" s="22"/>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" s="5"/>
       <c r="B615" s="22"/>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" s="5"/>
       <c r="B616" s="22"/>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" s="5"/>
       <c r="B617" s="22"/>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" s="5"/>
       <c r="B618" s="22"/>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" s="5"/>
       <c r="B619" s="22"/>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" s="5"/>
       <c r="B620" s="22"/>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" s="5"/>
       <c r="B621" s="22"/>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" s="5"/>
       <c r="B622" s="22"/>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" s="5"/>
       <c r="B623" s="22"/>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B624" s="22"/>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" s="5"/>
       <c r="B625" s="22"/>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" s="5"/>
       <c r="B626" s="22"/>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" s="5"/>
       <c r="B627" s="22"/>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" s="5"/>
       <c r="B628" s="22"/>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" s="5"/>
       <c r="B629" s="22"/>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" s="5"/>
       <c r="B630" s="22"/>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" s="8"/>
       <c r="B631" s="8"/>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" s="5"/>
       <c r="B632" s="22"/>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" s="5"/>
       <c r="B633" s="22"/>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" s="5"/>
       <c r="B634" s="22"/>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" s="5"/>
       <c r="B635" s="22"/>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" s="5"/>
       <c r="B636" s="22"/>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" s="5"/>
       <c r="B637" s="22"/>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" s="5"/>
       <c r="B638" s="22"/>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" s="5"/>
       <c r="B639" s="22"/>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" s="5"/>
       <c r="B640" s="22"/>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B641" s="22"/>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" s="5"/>
       <c r="B642" s="22"/>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" s="5"/>
       <c r="B643" s="22"/>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" s="5"/>
       <c r="B644" s="22"/>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" s="5"/>
       <c r="B645" s="22"/>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" s="5"/>
       <c r="B646" s="22"/>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" s="5"/>
       <c r="B647" s="22"/>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" s="5"/>
       <c r="B648" s="22"/>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" s="5"/>
       <c r="B649" s="22"/>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" s="5"/>
       <c r="B650" s="22"/>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B651" s="22"/>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" s="5"/>
       <c r="B652" s="22"/>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" s="5"/>
       <c r="B653" s="22"/>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" s="5"/>
       <c r="B654" s="22"/>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" s="5"/>
       <c r="B655" s="22"/>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" s="5"/>
       <c r="B656" s="22"/>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" s="5"/>
       <c r="B657" s="22"/>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" s="5"/>
       <c r="B658" s="22"/>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" s="5"/>
       <c r="B659" s="22"/>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" s="5"/>
       <c r="B660" s="22"/>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" s="5"/>
       <c r="B661" s="22"/>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" s="5"/>
       <c r="B662" s="22"/>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" s="5"/>
       <c r="B663" s="22"/>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" s="5"/>
       <c r="B664" s="22"/>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" s="5"/>
       <c r="B665" s="22"/>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B666" s="22"/>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" s="5"/>
       <c r="B667" s="22"/>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" s="5"/>
       <c r="B668" s="22"/>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" s="5"/>
       <c r="B669" s="22"/>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" s="5"/>
       <c r="B670" s="22"/>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" s="5"/>
       <c r="B671" s="22"/>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" s="5"/>
       <c r="B672" s="22"/>
     </row>
-    <row r="673" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="673" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B673" s="22"/>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" s="5"/>
     </row>
   </sheetData>
@@ -11928,30 +11971,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" customWidth="1"/>
-    <col min="10" max="11" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.62890625" customWidth="1"/>
+    <col min="2" max="2" width="17.5234375" customWidth="1"/>
+    <col min="3" max="3" width="17.89453125" customWidth="1"/>
+    <col min="4" max="6" width="17.5234375" customWidth="1"/>
+    <col min="7" max="7" width="17.62890625" customWidth="1"/>
+    <col min="8" max="8" width="17.5234375" customWidth="1"/>
+    <col min="9" max="9" width="18.3671875" customWidth="1"/>
+    <col min="10" max="11" width="17.5234375" customWidth="1"/>
+    <col min="12" max="12" width="17.734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="99" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="51">
         <v>42625</v>
       </c>
@@ -11965,7 +12009,7 @@
         <v>42629</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -11980,7 +12024,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -11989,7 +12033,7 @@
       <c r="D4" s="55"/>
       <c r="E4" s="52"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -11998,7 +12042,7 @@
       <c r="D5" s="55"/>
       <c r="E5" s="52"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -12013,7 +12057,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -12022,7 +12066,7 @@
       <c r="D7" s="55"/>
       <c r="E7" s="52"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -12031,8 +12075,8 @@
       <c r="D8" s="55"/>
       <c r="E8" s="52"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="98" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="99" t="s">
         <v>559</v>
       </c>
       <c r="B10" s="51">
@@ -12060,7 +12104,7 @@
         <v>42643</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -12071,9 +12115,15 @@
         <v>569</v>
       </c>
       <c r="G11" s="52"/>
-      <c r="H11" s="54"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H11" s="53" t="s">
+        <v>576</v>
+      </c>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -12083,8 +12133,10 @@
       <c r="E12" s="52"/>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -12094,8 +12146,10 @@
       <c r="E13" s="52"/>
       <c r="G13" s="52"/>
       <c r="H13" s="52"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -12105,8 +12159,12 @@
       <c r="E14" s="52"/>
       <c r="G14" s="52"/>
       <c r="H14" s="52"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I14" s="54" t="s">
+        <v>577</v>
+      </c>
+      <c r="J14" s="54"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -12116,8 +12174,10 @@
       <c r="E15" s="52"/>
       <c r="G15" s="52"/>
       <c r="H15" s="52"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -12127,9 +12187,11 @@
       <c r="E16" s="52"/>
       <c r="G16" s="52"/>
       <c r="H16" s="52"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="98" t="s">
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="99" t="s">
         <v>560</v>
       </c>
       <c r="B18" s="51">
@@ -12157,76 +12219,118 @@
         <v>42657</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="54" t="s">
+        <v>579</v>
+      </c>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="53" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="99"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="54" t="s">
+        <v>579</v>
+      </c>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="54" t="s">
+        <v>579</v>
+      </c>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="52"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="53" t="s">
+        <v>580</v>
+      </c>
+      <c r="J24" s="52"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="101" t="s">
         <v>566</v>
       </c>
-      <c r="B26" s="97"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="97"/>
-      <c r="J26" s="97"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="98" t="s">
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="99" t="s">
         <v>561</v>
       </c>
       <c r="B28" s="51">
@@ -12254,42 +12358,110 @@
         <v>42678</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="54"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="54"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="52"/>
+      <c r="H33" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="I33" s="53" t="s">
+        <v>582</v>
+      </c>
+      <c r="J33" s="52"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="98" t="s">
+      <c r="B34" s="52"/>
+      <c r="C34" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="52"/>
+      <c r="H34" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="99" t="s">
         <v>563</v>
       </c>
-      <c r="B36" s="51">
-        <v>42681</v>
+      <c r="B36" s="105" t="s">
+        <v>583</v>
       </c>
       <c r="C36" s="51">
         <v>42682</v>
@@ -12307,43 +12479,110 @@
         <v>42689</v>
       </c>
       <c r="I36" s="51">
+        <v>42690</v>
+      </c>
+      <c r="J36" s="51">
         <v>42691</v>
       </c>
-      <c r="J36" s="51">
+      <c r="K36" s="51">
         <v>42692</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="106"/>
+      <c r="C37" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="52"/>
+      <c r="E37" s="53" t="s">
+        <v>454</v>
+      </c>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="53" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="106"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="106"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="106"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="106"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="106"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="G42" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="H42" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="100" t="s">
         <v>562</v>
       </c>
@@ -12354,47 +12593,60 @@
         <v>42696</v>
       </c>
       <c r="D44" s="51">
+        <v>42697</v>
+      </c>
+      <c r="E44" s="51">
         <v>42698</v>
       </c>
-      <c r="E44" s="51">
+      <c r="F44" s="51">
         <v>42699</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="52"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B46" s="54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B47" s="52"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B48" s="54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>71</v>
       </c>
+      <c r="B49" s="52"/>
       <c r="I49" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="98" t="s">
+      <c r="B50" s="52"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="99" t="s">
         <v>564</v>
       </c>
       <c r="B52" s="51">
@@ -12403,57 +12655,60 @@
       <c r="C52" s="51">
         <v>42703</v>
       </c>
-      <c r="D52" s="51">
+      <c r="E52" s="51">
         <v>42705</v>
       </c>
-      <c r="E52" s="51">
+      <c r="F52" s="51">
         <v>42706</v>
       </c>
-      <c r="G52" s="51">
+      <c r="H52" s="51">
         <v>42709</v>
       </c>
-      <c r="H52" s="51">
+      <c r="I52" s="51">
         <v>42710</v>
       </c>
-      <c r="I52" s="51">
+      <c r="J52" s="51">
+        <v>42711</v>
+      </c>
+      <c r="K52" s="51">
         <v>42712</v>
       </c>
-      <c r="J52" s="51">
+      <c r="L52" s="51">
         <v>42713</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="98" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="99" t="s">
         <v>565</v>
       </c>
       <c r="B60" s="51">
@@ -12463,70 +12718,76 @@
         <v>42717</v>
       </c>
       <c r="D60" s="51">
+        <v>42718</v>
+      </c>
+      <c r="E60" s="51">
         <v>42719</v>
       </c>
-      <c r="E60" s="51">
+      <c r="F60" s="51">
         <v>42720</v>
       </c>
-      <c r="G60" s="51">
+      <c r="H60" s="51">
         <v>42723</v>
       </c>
-      <c r="H60" s="51">
+      <c r="I60" s="51">
         <v>42724</v>
       </c>
-      <c r="I60" s="51">
+      <c r="J60" s="51">
+        <v>42725</v>
+      </c>
+      <c r="K60" s="51">
         <v>42726</v>
       </c>
-      <c r="J60" s="51">
+      <c r="L60" s="51">
         <v>42727</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="101" t="s">
         <v>566</v>
       </c>
-      <c r="B68" s="97"/>
-      <c r="C68" s="97"/>
-      <c r="D68" s="97"/>
-      <c r="E68" s="97"/>
-      <c r="F68" s="97"/>
-      <c r="G68" s="97"/>
-      <c r="H68" s="97"/>
-      <c r="I68" s="97"/>
-      <c r="J68" s="97"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="98" t="s">
+      <c r="B68" s="98"/>
+      <c r="C68" s="98"/>
+      <c r="D68" s="98"/>
+      <c r="E68" s="98"/>
+      <c r="F68" s="98"/>
+      <c r="G68" s="98"/>
+      <c r="H68" s="98"/>
+      <c r="I68" s="98"/>
+      <c r="J68" s="98"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="99" t="s">
         <v>567</v>
       </c>
       <c r="B70" s="51">
@@ -12536,55 +12797,61 @@
         <v>42379</v>
       </c>
       <c r="D70" s="51">
+        <v>42380</v>
+      </c>
+      <c r="E70" s="51">
         <v>42381</v>
       </c>
-      <c r="E70" s="51">
+      <c r="F70" s="51">
         <v>42382</v>
       </c>
-      <c r="G70" s="51">
+      <c r="H70" s="51">
         <v>42385</v>
       </c>
-      <c r="H70" s="51">
+      <c r="I70" s="51">
         <v>42386</v>
       </c>
-      <c r="I70" s="51">
+      <c r="J70" s="51">
+        <v>42387</v>
+      </c>
+      <c r="K70" s="51">
         <v>42388</v>
       </c>
-      <c r="J70" s="51">
+      <c r="L70" s="51">
         <v>42389</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="100" t="s">
         <v>562</v>
       </c>
@@ -12595,32 +12862,32 @@
         <v>42393</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>72</v>
       </c>

--- a/Paperwork/Asset List.xlsx
+++ b/Paperwork/Asset List.xlsx
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$E$480</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="674">
   <si>
     <t>ID Code</t>
   </si>
@@ -1773,6 +1773,273 @@
   </si>
   <si>
     <t>12:30 - 13:45</t>
+  </si>
+  <si>
+    <t>14:15 - 14:45</t>
+  </si>
+  <si>
+    <t>trein reed niet</t>
+  </si>
+  <si>
+    <t>trein</t>
+  </si>
+  <si>
+    <t>Geen Gamelab</t>
+  </si>
+  <si>
+    <t>14:15 - 15:00</t>
+  </si>
+  <si>
+    <t>beurs</t>
+  </si>
+  <si>
+    <t>12-9-2016 - 3 uur</t>
+  </si>
+  <si>
+    <t>13-9-2016 - 4.75 uur</t>
+  </si>
+  <si>
+    <t>15-9-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>16-9-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>Aanwezig</t>
+  </si>
+  <si>
+    <t>Ziek</t>
+  </si>
+  <si>
+    <t>Afspraak</t>
+  </si>
+  <si>
+    <t>Absent/Te Laat</t>
+  </si>
+  <si>
+    <t>Uitval les</t>
+  </si>
+  <si>
+    <t>Allergie prik - 12:30 - 12:55</t>
+  </si>
+  <si>
+    <t>19-9-2016 - 3 uur</t>
+  </si>
+  <si>
+    <t>20-9-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>22-9-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>23-9-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>26-9-2016 - 3 uur</t>
+  </si>
+  <si>
+    <t>27-9-2016 - 4.75 uur</t>
+  </si>
+  <si>
+    <t>29-9-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>30-9-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>4-10-2016 - 4.75 uur</t>
+  </si>
+  <si>
+    <t>3-10-2016 - 3 uur</t>
+  </si>
+  <si>
+    <t>6-10-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>7-10-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>10-10-2016 - 3 uur</t>
+  </si>
+  <si>
+    <t>11-10-2016 - 4.75 uur</t>
+  </si>
+  <si>
+    <t>13-10-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>14-10-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>24-10-2016 - 3 uur</t>
+  </si>
+  <si>
+    <t>25-10-2016 - 4.75 uur</t>
+  </si>
+  <si>
+    <t>27-10-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>28-10-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>31-10-2016 - 3 uur</t>
+  </si>
+  <si>
+    <t>1-11-2016 - 4.75 uur</t>
+  </si>
+  <si>
+    <t>3-11-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>4-11-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>8-11-2016 - 4.75 uur</t>
+  </si>
+  <si>
+    <t>10-11-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>11-11-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>14-11-2016 - 3 uur</t>
+  </si>
+  <si>
+    <t>15-11-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>16-11-2016 - 1.5 uur</t>
+  </si>
+  <si>
+    <t>17-11-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>18-11-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>21-11-2016 - 3 uur</t>
+  </si>
+  <si>
+    <t>23-11-2016 - 1.5 uur</t>
+  </si>
+  <si>
+    <t>24-11-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>25-11-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>28-11-2016 - 3 uur</t>
+  </si>
+  <si>
+    <t>29-11-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30-11-2016 - 1.5 uur</t>
+  </si>
+  <si>
+    <t>1-12-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>2-12-2016 3.25 uur</t>
+  </si>
+  <si>
+    <t>5-12-2016 - 3 uur</t>
+  </si>
+  <si>
+    <t>6-12-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>7-12-2016 - 1.5 uur</t>
+  </si>
+  <si>
+    <t>8-12-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>9-12-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>12-12-2016 - 3 uur</t>
+  </si>
+  <si>
+    <t>13-12-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>14-12-2016 - 1.5 uur</t>
+  </si>
+  <si>
+    <t>15-12-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>16-12-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>19-12-2016 - 3 uur</t>
+  </si>
+  <si>
+    <t>20-12-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>22-12-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>9-1-2016 - 3 uur</t>
+  </si>
+  <si>
+    <t>10-1-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>11-1-2016 - 1.5 uur</t>
+  </si>
+  <si>
+    <t>12-1-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>13-1-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>16-1-2016 - 3 uur</t>
+  </si>
+  <si>
+    <t>17-1-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>18-1-2016 - 1.5 uur</t>
+  </si>
+  <si>
+    <t>19-1-2016 - 3.25 uur</t>
+  </si>
+  <si>
+    <t>Totaal uren: 14,25</t>
+  </si>
+  <si>
+    <t>Totaal uren: 12,75</t>
+  </si>
+  <si>
+    <t>Totaal uren: 11,25</t>
+  </si>
+  <si>
+    <t>Totaal uren: 11</t>
+  </si>
+  <si>
+    <t>Totaal uren: 9,5</t>
+  </si>
+  <si>
+    <t>Afwezig</t>
+  </si>
+  <si>
+    <t>Waarvan ongeoorloofd</t>
+  </si>
+  <si>
+    <t>Totaal uren</t>
+  </si>
+  <si>
+    <t>% aanwezig</t>
+  </si>
+  <si>
+    <t>Totaal afwezig</t>
   </si>
 </sst>
 </file>
@@ -1852,7 +2119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1963,8 +2230,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2094,6 +2385,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2102,7 +2402,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2274,7 +2574,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2388,7 +2687,14 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Controlecel" xfId="4" builtinId="23"/>
@@ -2775,16 +3081,16 @@
       <c r="L1" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="M1" s="75" t="s">
+      <c r="M1" s="74" t="s">
         <v>451</v>
       </c>
-      <c r="N1" s="97" t="s">
+      <c r="N1" s="96" t="s">
         <v>453</v>
       </c>
       <c r="O1" s="35" t="s">
         <v>570</v>
       </c>
-      <c r="P1" s="64" t="s">
+      <c r="P1" s="63" t="s">
         <v>571</v>
       </c>
       <c r="Q1" s="35" t="s">
@@ -2793,13 +3099,13 @@
       <c r="R1" s="35" t="s">
         <v>477</v>
       </c>
-      <c r="S1" s="75" t="s">
+      <c r="S1" s="74" t="s">
         <v>452</v>
       </c>
       <c r="T1" s="35" t="s">
         <v>575</v>
       </c>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="63" t="s">
         <v>572</v>
       </c>
       <c r="V1" s="3"/>
@@ -2839,16 +3145,16 @@
       <c r="L2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="95" t="s">
+      <c r="M2" s="94" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="104" t="s">
+      <c r="O2" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="96" t="s">
+      <c r="P2" s="95" t="s">
         <v>13</v>
       </c>
       <c r="Q2" s="34" t="s">
@@ -2857,13 +3163,13 @@
       <c r="R2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="84" t="s">
+      <c r="S2" s="83" t="s">
         <v>13</v>
       </c>
       <c r="T2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="65" t="s">
+      <c r="U2" s="64" t="s">
         <v>13</v>
       </c>
       <c r="V2" s="3"/>
@@ -2903,25 +3209,25 @@
       <c r="L3" s="43" t="s">
         <v>482</v>
       </c>
-      <c r="M3" s="76"/>
+      <c r="M3" s="75"/>
       <c r="N3" s="50" t="s">
         <v>488</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="P3" s="66"/>
+      <c r="P3" s="65"/>
       <c r="Q3" s="29" t="s">
         <v>516</v>
       </c>
       <c r="R3" s="29" t="s">
         <v>536</v>
       </c>
-      <c r="S3" s="76"/>
+      <c r="S3" s="75"/>
       <c r="T3" s="29" t="s">
         <v>556</v>
       </c>
-      <c r="U3" s="89"/>
+      <c r="U3" s="88"/>
       <c r="V3" s="3"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -2959,14 +3265,14 @@
       <c r="L4" s="28" t="s">
         <v>483</v>
       </c>
-      <c r="M4" s="77"/>
+      <c r="M4" s="76"/>
       <c r="N4" s="28" t="s">
         <v>489</v>
       </c>
       <c r="O4" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="P4" s="103" t="s">
+      <c r="P4" s="102" t="s">
         <v>573</v>
       </c>
       <c r="Q4" s="28" t="s">
@@ -2975,11 +3281,11 @@
       <c r="R4" s="28" t="s">
         <v>537</v>
       </c>
-      <c r="S4" s="77"/>
+      <c r="S4" s="76"/>
       <c r="T4" s="28" t="s">
         <v>557</v>
       </c>
-      <c r="U4" s="103" t="s">
+      <c r="U4" s="102" t="s">
         <v>574</v>
       </c>
       <c r="V4" s="3"/>
@@ -3021,23 +3327,23 @@
       <c r="L5" s="28" t="s">
         <v>484</v>
       </c>
-      <c r="M5" s="78"/>
+      <c r="M5" s="77"/>
       <c r="N5" s="28" t="s">
         <v>490</v>
       </c>
       <c r="O5" s="14" t="s">
         <v>499</v>
       </c>
-      <c r="P5" s="68"/>
+      <c r="P5" s="67"/>
       <c r="Q5" s="28" t="s">
         <v>518</v>
       </c>
       <c r="R5" s="28" t="s">
         <v>538</v>
       </c>
-      <c r="S5" s="77"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="28"/>
-      <c r="U5" s="67"/>
+      <c r="U5" s="66"/>
       <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -3074,23 +3380,23 @@
       <c r="L6" s="30" t="s">
         <v>485</v>
       </c>
-      <c r="M6" s="78"/>
+      <c r="M6" s="77"/>
       <c r="N6" s="33" t="s">
         <v>491</v>
       </c>
       <c r="O6" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="P6" s="68"/>
+      <c r="P6" s="67"/>
       <c r="Q6" s="28" t="s">
         <v>519</v>
       </c>
       <c r="R6" s="30" t="s">
         <v>539</v>
       </c>
-      <c r="S6" s="79"/>
+      <c r="S6" s="78"/>
       <c r="T6" s="30"/>
-      <c r="U6" s="68"/>
+      <c r="U6" s="67"/>
       <c r="V6" s="3"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -3127,23 +3433,23 @@
       <c r="L7" s="50" t="s">
         <v>486</v>
       </c>
-      <c r="M7" s="79"/>
+      <c r="M7" s="78"/>
       <c r="N7" s="50" t="s">
         <v>492</v>
       </c>
       <c r="O7" s="50" t="s">
         <v>501</v>
       </c>
-      <c r="P7" s="68"/>
+      <c r="P7" s="67"/>
       <c r="Q7" s="50" t="s">
         <v>520</v>
       </c>
       <c r="R7" s="50" t="s">
         <v>540</v>
       </c>
-      <c r="S7" s="79"/>
+      <c r="S7" s="78"/>
       <c r="T7" s="50"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="66"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
@@ -3177,23 +3483,23 @@
       <c r="L8" s="50" t="s">
         <v>487</v>
       </c>
-      <c r="M8" s="79"/>
+      <c r="M8" s="78"/>
       <c r="N8" s="50" t="s">
         <v>493</v>
       </c>
       <c r="O8" s="50" t="s">
         <v>502</v>
       </c>
-      <c r="P8" s="68"/>
+      <c r="P8" s="67"/>
       <c r="Q8" s="50" t="s">
         <v>521</v>
       </c>
       <c r="R8" s="50" t="s">
         <v>541</v>
       </c>
-      <c r="S8" s="79"/>
+      <c r="S8" s="78"/>
       <c r="T8" s="50"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="66"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5"/>
@@ -3214,23 +3520,23 @@
         <v>27</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="M9" s="79"/>
+      <c r="M9" s="78"/>
       <c r="N9" s="50" t="s">
         <v>494</v>
       </c>
       <c r="O9" s="50" t="s">
         <v>503</v>
       </c>
-      <c r="P9" s="68"/>
+      <c r="P9" s="67"/>
       <c r="Q9" s="50" t="s">
         <v>522</v>
       </c>
       <c r="R9" s="50" t="s">
         <v>542</v>
       </c>
-      <c r="S9" s="79"/>
+      <c r="S9" s="78"/>
       <c r="T9" s="50"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="66"/>
     </row>
     <row r="10" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
@@ -3262,23 +3568,23 @@
       </c>
       <c r="K10" s="50"/>
       <c r="L10" s="50"/>
-      <c r="M10" s="79"/>
+      <c r="M10" s="78"/>
       <c r="N10" s="50" t="s">
         <v>495</v>
       </c>
       <c r="O10" s="50" t="s">
         <v>504</v>
       </c>
-      <c r="P10" s="68"/>
+      <c r="P10" s="67"/>
       <c r="Q10" s="50" t="s">
         <v>523</v>
       </c>
       <c r="R10" s="50" t="s">
         <v>543</v>
       </c>
-      <c r="S10" s="79"/>
+      <c r="S10" s="78"/>
       <c r="T10" s="50"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="66"/>
     </row>
     <row r="11" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
@@ -3307,23 +3613,23 @@
       <c r="J11" s="10"/>
       <c r="K11" s="28"/>
       <c r="L11" s="30"/>
-      <c r="M11" s="79"/>
+      <c r="M11" s="78"/>
       <c r="N11" s="30" t="s">
         <v>496</v>
       </c>
       <c r="O11" s="30" t="s">
         <v>505</v>
       </c>
-      <c r="P11" s="68"/>
+      <c r="P11" s="67"/>
       <c r="Q11" s="30" t="s">
         <v>524</v>
       </c>
       <c r="R11" s="28" t="s">
         <v>544</v>
       </c>
-      <c r="S11" s="79"/>
+      <c r="S11" s="78"/>
       <c r="T11" s="28"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="66"/>
     </row>
     <row r="12" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
@@ -3350,23 +3656,23 @@
       </c>
       <c r="K12" s="28"/>
       <c r="L12" s="50"/>
-      <c r="M12" s="79"/>
+      <c r="M12" s="78"/>
       <c r="N12" s="50" t="s">
         <v>568</v>
       </c>
       <c r="O12" s="50" t="s">
         <v>506</v>
       </c>
-      <c r="P12" s="68"/>
+      <c r="P12" s="67"/>
       <c r="Q12" s="50" t="s">
         <v>526</v>
       </c>
       <c r="R12" s="50" t="s">
         <v>545</v>
       </c>
-      <c r="S12" s="79"/>
+      <c r="S12" s="78"/>
       <c r="T12" s="50"/>
-      <c r="U12" s="67"/>
+      <c r="U12" s="66"/>
     </row>
     <row r="13" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
@@ -3384,7 +3690,7 @@
       <c r="E13" s="8">
         <v>6</v>
       </c>
-      <c r="F13" s="94"/>
+      <c r="F13" s="93"/>
       <c r="H13" s="44" t="s">
         <v>37</v>
       </c>
@@ -3393,21 +3699,21 @@
       </c>
       <c r="K13" s="30"/>
       <c r="L13" s="50"/>
-      <c r="M13" s="79"/>
+      <c r="M13" s="78"/>
       <c r="N13" s="50"/>
       <c r="O13" s="50" t="s">
         <v>507</v>
       </c>
-      <c r="P13" s="68"/>
+      <c r="P13" s="67"/>
       <c r="Q13" s="50" t="s">
         <v>525</v>
       </c>
       <c r="R13" s="50" t="s">
         <v>546</v>
       </c>
-      <c r="S13" s="79"/>
+      <c r="S13" s="78"/>
       <c r="T13" s="50"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="66"/>
     </row>
     <row r="14" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
@@ -3425,7 +3731,7 @@
       <c r="E14" s="8">
         <v>6</v>
       </c>
-      <c r="F14" s="94"/>
+      <c r="F14" s="93"/>
       <c r="H14" s="44" t="s">
         <v>38</v>
       </c>
@@ -3434,21 +3740,21 @@
       </c>
       <c r="K14" s="50"/>
       <c r="L14" s="50"/>
-      <c r="M14" s="79"/>
+      <c r="M14" s="78"/>
       <c r="N14" s="50"/>
       <c r="O14" s="50" t="s">
         <v>508</v>
       </c>
-      <c r="P14" s="68"/>
+      <c r="P14" s="67"/>
       <c r="Q14" s="50" t="s">
         <v>527</v>
       </c>
       <c r="R14" s="50" t="s">
         <v>547</v>
       </c>
-      <c r="S14" s="79"/>
+      <c r="S14" s="78"/>
       <c r="T14" s="50"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="66"/>
     </row>
     <row r="15" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
@@ -3466,7 +3772,7 @@
       <c r="E15" s="8">
         <v>9</v>
       </c>
-      <c r="F15" s="94"/>
+      <c r="F15" s="93"/>
       <c r="G15" s="9"/>
       <c r="H15" s="44" t="s">
         <v>43</v>
@@ -3476,21 +3782,21 @@
       </c>
       <c r="K15" s="28"/>
       <c r="L15" s="50"/>
-      <c r="M15" s="79"/>
+      <c r="M15" s="78"/>
       <c r="N15" s="50"/>
       <c r="O15" s="50" t="s">
         <v>509</v>
       </c>
-      <c r="P15" s="68"/>
+      <c r="P15" s="67"/>
       <c r="Q15" s="50" t="s">
         <v>528</v>
       </c>
       <c r="R15" s="50" t="s">
         <v>548</v>
       </c>
-      <c r="S15" s="79"/>
+      <c r="S15" s="78"/>
       <c r="T15" s="50"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="66"/>
     </row>
     <row r="16" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
@@ -3517,21 +3823,21 @@
       </c>
       <c r="K16" s="50"/>
       <c r="L16" s="50"/>
-      <c r="M16" s="79"/>
+      <c r="M16" s="78"/>
       <c r="N16" s="50"/>
       <c r="O16" s="50" t="s">
         <v>510</v>
       </c>
-      <c r="P16" s="68"/>
+      <c r="P16" s="67"/>
       <c r="Q16" s="50" t="s">
         <v>529</v>
       </c>
       <c r="R16" s="50" t="s">
         <v>549</v>
       </c>
-      <c r="S16" s="79"/>
+      <c r="S16" s="78"/>
       <c r="T16" s="50"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="66"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="8"/>
@@ -3549,23 +3855,23 @@
       <c r="L17" s="50">
         <v>213</v>
       </c>
-      <c r="M17" s="79"/>
+      <c r="M17" s="78"/>
       <c r="N17" s="50">
         <v>236</v>
       </c>
       <c r="O17" s="50" t="s">
         <v>511</v>
       </c>
-      <c r="P17" s="68"/>
+      <c r="P17" s="67"/>
       <c r="Q17" s="50" t="s">
         <v>530</v>
       </c>
       <c r="R17" s="50" t="s">
         <v>550</v>
       </c>
-      <c r="S17" s="79"/>
+      <c r="S17" s="78"/>
       <c r="T17" s="50"/>
-      <c r="U17" s="67"/>
+      <c r="U17" s="66"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
@@ -3592,21 +3898,21 @@
       </c>
       <c r="K18" s="50"/>
       <c r="L18" s="50"/>
-      <c r="M18" s="79"/>
+      <c r="M18" s="78"/>
       <c r="N18" s="50"/>
       <c r="O18" s="50" t="s">
         <v>512</v>
       </c>
-      <c r="P18" s="68"/>
+      <c r="P18" s="67"/>
       <c r="Q18" s="50" t="s">
         <v>531</v>
       </c>
       <c r="R18" s="50" t="s">
         <v>551</v>
       </c>
-      <c r="S18" s="79"/>
+      <c r="S18" s="78"/>
       <c r="T18" s="50"/>
-      <c r="U18" s="67"/>
+      <c r="U18" s="66"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
@@ -3633,21 +3939,21 @@
       </c>
       <c r="K19" s="50"/>
       <c r="L19" s="50"/>
-      <c r="M19" s="79"/>
+      <c r="M19" s="78"/>
       <c r="N19" s="50"/>
       <c r="O19" s="50" t="s">
         <v>513</v>
       </c>
-      <c r="P19" s="68"/>
+      <c r="P19" s="67"/>
       <c r="Q19" s="50" t="s">
         <v>532</v>
       </c>
       <c r="R19" s="50" t="s">
         <v>552</v>
       </c>
-      <c r="S19" s="79"/>
+      <c r="S19" s="78"/>
       <c r="T19" s="50"/>
-      <c r="U19" s="67"/>
+      <c r="U19" s="66"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
@@ -3674,21 +3980,21 @@
       </c>
       <c r="K20" s="50"/>
       <c r="L20" s="50"/>
-      <c r="M20" s="79"/>
+      <c r="M20" s="78"/>
       <c r="N20" s="50"/>
       <c r="O20" s="50" t="s">
         <v>514</v>
       </c>
-      <c r="P20" s="68"/>
+      <c r="P20" s="67"/>
       <c r="Q20" s="50" t="s">
         <v>533</v>
       </c>
       <c r="R20" s="50" t="s">
         <v>555</v>
       </c>
-      <c r="S20" s="79"/>
+      <c r="S20" s="78"/>
       <c r="T20" s="50"/>
-      <c r="U20" s="67"/>
+      <c r="U20" s="66"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5" t="s">
@@ -3715,21 +4021,21 @@
       </c>
       <c r="K21" s="50"/>
       <c r="L21" s="50"/>
-      <c r="M21" s="79"/>
+      <c r="M21" s="78"/>
       <c r="N21" s="50"/>
       <c r="O21" s="50" t="s">
         <v>515</v>
       </c>
-      <c r="P21" s="68"/>
+      <c r="P21" s="67"/>
       <c r="Q21" s="50" t="s">
         <v>534</v>
       </c>
       <c r="R21" s="50" t="s">
         <v>554</v>
       </c>
-      <c r="S21" s="79"/>
+      <c r="S21" s="78"/>
       <c r="T21" s="50"/>
-      <c r="U21" s="67"/>
+      <c r="U21" s="66"/>
     </row>
     <row r="22" spans="1:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="5" t="s">
@@ -3756,19 +4062,19 @@
       </c>
       <c r="K22" s="32"/>
       <c r="L22" s="25"/>
-      <c r="M22" s="80"/>
+      <c r="M22" s="79"/>
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
-      <c r="P22" s="69"/>
+      <c r="P22" s="68"/>
       <c r="Q22" s="3" t="s">
         <v>535</v>
       </c>
       <c r="R22" s="25" t="s">
         <v>553</v>
       </c>
-      <c r="S22" s="79"/>
+      <c r="S22" s="78"/>
       <c r="T22" s="25"/>
-      <c r="U22" s="90"/>
+      <c r="U22" s="89"/>
       <c r="V22" s="39" t="s">
         <v>15</v>
       </c>
@@ -3803,21 +4109,21 @@
         <v>20</v>
       </c>
       <c r="L23" s="60"/>
-      <c r="M23" s="88"/>
+      <c r="M23" s="87"/>
       <c r="N23" s="60"/>
       <c r="O23" s="60"/>
-      <c r="P23" s="70"/>
+      <c r="P23" s="69"/>
       <c r="Q23" s="60">
         <v>232</v>
       </c>
       <c r="R23" s="60">
         <v>226</v>
       </c>
-      <c r="S23" s="88"/>
+      <c r="S23" s="87"/>
       <c r="T23" s="60">
         <v>84</v>
       </c>
-      <c r="U23" s="70"/>
+      <c r="U23" s="69"/>
       <c r="V23" s="36"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
@@ -3843,17 +4149,17 @@
       </c>
       <c r="K24" s="61"/>
       <c r="L24" s="58"/>
-      <c r="M24" s="81"/>
+      <c r="M24" s="80"/>
       <c r="N24" s="58"/>
       <c r="O24" s="59">
         <v>230</v>
       </c>
-      <c r="P24" s="71"/>
+      <c r="P24" s="70"/>
       <c r="Q24" s="58"/>
       <c r="R24" s="59"/>
-      <c r="S24" s="82"/>
+      <c r="S24" s="81"/>
       <c r="T24" s="58"/>
-      <c r="U24" s="71"/>
+      <c r="U24" s="70"/>
       <c r="V24" s="37"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
@@ -3868,15 +4174,15 @@
       </c>
       <c r="K25" s="58"/>
       <c r="L25" s="58"/>
-      <c r="M25" s="81"/>
+      <c r="M25" s="80"/>
       <c r="N25" s="58"/>
       <c r="O25" s="59"/>
-      <c r="P25" s="71"/>
+      <c r="P25" s="70"/>
       <c r="Q25" s="58"/>
       <c r="R25" s="59"/>
-      <c r="S25" s="82"/>
+      <c r="S25" s="81"/>
       <c r="T25" s="58"/>
-      <c r="U25" s="71"/>
+      <c r="U25" s="70"/>
       <c r="V25" s="37"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
@@ -3901,15 +4207,15 @@
       </c>
       <c r="K26" s="58"/>
       <c r="L26" s="58"/>
-      <c r="M26" s="82"/>
+      <c r="M26" s="81"/>
       <c r="N26" s="58"/>
       <c r="O26" s="58"/>
-      <c r="P26" s="71"/>
+      <c r="P26" s="70"/>
       <c r="Q26" s="58"/>
       <c r="R26" s="58"/>
-      <c r="S26" s="82"/>
+      <c r="S26" s="81"/>
       <c r="T26" s="58"/>
-      <c r="U26" s="71"/>
+      <c r="U26" s="70"/>
       <c r="V26" s="50"/>
       <c r="W26" s="3"/>
     </row>
@@ -3935,15 +4241,15 @@
       </c>
       <c r="K27" s="62"/>
       <c r="L27" s="62"/>
-      <c r="M27" s="83"/>
+      <c r="M27" s="82"/>
       <c r="N27" s="62"/>
       <c r="O27" s="62"/>
-      <c r="P27" s="72"/>
+      <c r="P27" s="71"/>
       <c r="Q27" s="62"/>
       <c r="R27" s="62"/>
-      <c r="S27" s="83"/>
+      <c r="S27" s="82"/>
       <c r="T27" s="62"/>
-      <c r="U27" s="72"/>
+      <c r="U27" s="71"/>
       <c r="V27" s="38"/>
     </row>
     <row r="28" spans="1:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -4028,16 +4334,16 @@
       <c r="L31" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="M31" s="75" t="s">
+      <c r="M31" s="74" t="s">
         <v>451</v>
       </c>
-      <c r="N31" s="97" t="s">
+      <c r="N31" s="96" t="s">
         <v>453</v>
       </c>
       <c r="O31" s="35" t="s">
         <v>570</v>
       </c>
-      <c r="P31" s="64" t="s">
+      <c r="P31" s="63" t="s">
         <v>571</v>
       </c>
       <c r="Q31" s="35" t="s">
@@ -4046,13 +4352,13 @@
       <c r="R31" s="35" t="s">
         <v>477</v>
       </c>
-      <c r="S31" s="75" t="s">
+      <c r="S31" s="74" t="s">
         <v>452</v>
       </c>
       <c r="T31" s="35" t="s">
         <v>575</v>
       </c>
-      <c r="U31" s="64" t="s">
+      <c r="U31" s="63" t="s">
         <v>572</v>
       </c>
       <c r="V31" s="39"/>
@@ -4080,7 +4386,7 @@
       <c r="L32" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="M32" s="84" t="s">
+      <c r="M32" s="83" t="s">
         <v>17</v>
       </c>
       <c r="N32" s="34" t="s">
@@ -4089,7 +4395,7 @@
       <c r="O32" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="P32" s="65" t="s">
+      <c r="P32" s="64" t="s">
         <v>17</v>
       </c>
       <c r="Q32" s="34" t="s">
@@ -4098,13 +4404,13 @@
       <c r="R32" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="S32" s="84" t="s">
+      <c r="S32" s="83" t="s">
         <v>17</v>
       </c>
       <c r="T32" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="U32" s="65" t="s">
+      <c r="U32" s="64" t="s">
         <v>17</v>
       </c>
       <c r="V32" s="39"/>
@@ -4116,31 +4422,31 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="J33" s="10"/>
-      <c r="K33" s="93" t="s">
+      <c r="K33" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="L33" s="91" t="s">
+      <c r="L33" s="90" t="s">
         <v>219</v>
       </c>
-      <c r="M33" s="85"/>
+      <c r="M33" s="84"/>
       <c r="N33" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="O33" s="91" t="s">
+      <c r="O33" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="91" t="s">
+      <c r="P33" s="72"/>
+      <c r="Q33" s="90" t="s">
         <v>214</v>
       </c>
-      <c r="R33" s="91" t="s">
+      <c r="R33" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="S33" s="85"/>
+      <c r="S33" s="84"/>
       <c r="T33" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="U33" s="73"/>
+      <c r="U33" s="72"/>
       <c r="V33" s="39"/>
     </row>
     <row r="34" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4159,29 +4465,29 @@
       <c r="E34" s="8">
         <v>5</v>
       </c>
-      <c r="K34" s="92" t="s">
+      <c r="K34" s="91" t="s">
         <v>215</v>
       </c>
       <c r="L34" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="M34" s="77"/>
+      <c r="M34" s="76"/>
       <c r="N34" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="O34" s="92" t="s">
+      <c r="O34" s="91" t="s">
         <v>216</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="92" t="s">
+      <c r="P34" s="73"/>
+      <c r="Q34" s="91" t="s">
         <v>213</v>
       </c>
-      <c r="R34" s="92" t="s">
+      <c r="R34" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="S34" s="79"/>
+      <c r="S34" s="78"/>
       <c r="T34" s="30"/>
-      <c r="U34" s="68"/>
+      <c r="U34" s="67"/>
       <c r="V34" s="39"/>
     </row>
     <row r="35" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4203,15 +4509,15 @@
       <c r="J35" s="10"/>
       <c r="K35" s="28"/>
       <c r="L35" s="13"/>
-      <c r="M35" s="77"/>
+      <c r="M35" s="76"/>
       <c r="N35" s="13"/>
       <c r="O35" s="50"/>
-      <c r="P35" s="74"/>
+      <c r="P35" s="73"/>
       <c r="Q35" s="50"/>
       <c r="R35" s="33"/>
-      <c r="S35" s="87"/>
+      <c r="S35" s="86"/>
       <c r="T35" s="33"/>
-      <c r="U35" s="74"/>
+      <c r="U35" s="73"/>
       <c r="V35" s="39"/>
     </row>
     <row r="36" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4233,15 +4539,15 @@
       <c r="J36" s="10"/>
       <c r="K36" s="28"/>
       <c r="L36" s="13"/>
-      <c r="M36" s="77"/>
+      <c r="M36" s="76"/>
       <c r="N36" s="13"/>
       <c r="O36" s="50"/>
-      <c r="P36" s="67"/>
+      <c r="P36" s="66"/>
       <c r="Q36" s="50"/>
       <c r="R36" s="28"/>
-      <c r="S36" s="77"/>
+      <c r="S36" s="76"/>
       <c r="T36" s="28"/>
-      <c r="U36" s="67"/>
+      <c r="U36" s="66"/>
       <c r="V36" s="39"/>
     </row>
     <row r="37" spans="1:23" ht="14.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4263,15 +4569,15 @@
       <c r="J37" s="1"/>
       <c r="K37" s="28"/>
       <c r="L37" s="13"/>
-      <c r="M37" s="77"/>
+      <c r="M37" s="76"/>
       <c r="N37" s="13"/>
       <c r="O37" s="50"/>
-      <c r="P37" s="68"/>
+      <c r="P37" s="67"/>
       <c r="Q37" s="30"/>
       <c r="R37" s="30"/>
-      <c r="S37" s="79"/>
+      <c r="S37" s="78"/>
       <c r="T37" s="30"/>
-      <c r="U37" s="68"/>
+      <c r="U37" s="67"/>
       <c r="V37" s="39"/>
     </row>
     <row r="38" spans="1:23" ht="14.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4293,15 +4599,15 @@
       <c r="J38" s="1"/>
       <c r="K38" s="28"/>
       <c r="L38" s="13"/>
-      <c r="M38" s="77"/>
+      <c r="M38" s="76"/>
       <c r="N38" s="13"/>
       <c r="O38" s="50"/>
-      <c r="P38" s="68"/>
+      <c r="P38" s="67"/>
       <c r="Q38" s="50"/>
       <c r="R38" s="30"/>
-      <c r="S38" s="79"/>
+      <c r="S38" s="78"/>
       <c r="T38" s="30"/>
-      <c r="U38" s="68"/>
+      <c r="U38" s="67"/>
       <c r="V38" s="39"/>
     </row>
     <row r="39" spans="1:23" ht="14.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4323,15 +4629,15 @@
       <c r="J39" s="10"/>
       <c r="K39" s="28"/>
       <c r="L39" s="13"/>
-      <c r="M39" s="77"/>
+      <c r="M39" s="76"/>
       <c r="N39" s="13"/>
       <c r="O39" s="50"/>
-      <c r="P39" s="68"/>
+      <c r="P39" s="67"/>
       <c r="Q39" s="30"/>
       <c r="R39" s="30"/>
-      <c r="S39" s="79"/>
+      <c r="S39" s="78"/>
       <c r="T39" s="30"/>
-      <c r="U39" s="68"/>
+      <c r="U39" s="67"/>
       <c r="V39" s="39" t="s">
         <v>15</v>
       </c>
@@ -4355,15 +4661,15 @@
       <c r="J40" s="10"/>
       <c r="K40" s="32"/>
       <c r="L40" s="48"/>
-      <c r="M40" s="86"/>
+      <c r="M40" s="85"/>
       <c r="N40" s="48"/>
       <c r="O40" s="31"/>
-      <c r="P40" s="69"/>
+      <c r="P40" s="68"/>
       <c r="Q40" s="23"/>
       <c r="R40" s="31"/>
-      <c r="S40" s="80"/>
+      <c r="S40" s="79"/>
       <c r="T40" s="31"/>
-      <c r="U40" s="69"/>
+      <c r="U40" s="68"/>
       <c r="V40" s="39"/>
     </row>
     <row r="41" spans="1:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -4377,15 +4683,15 @@
       </c>
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
-      <c r="M41" s="80"/>
+      <c r="M41" s="79"/>
       <c r="N41" s="25"/>
       <c r="O41" s="25"/>
-      <c r="P41" s="69"/>
+      <c r="P41" s="68"/>
       <c r="Q41" s="25"/>
       <c r="R41" s="25"/>
-      <c r="S41" s="80"/>
+      <c r="S41" s="79"/>
       <c r="T41" s="25"/>
-      <c r="U41" s="69"/>
+      <c r="U41" s="68"/>
       <c r="V41" s="49"/>
     </row>
     <row r="42" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -11971,60 +12277,85 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L84"/>
+  <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17.62890625" customWidth="1"/>
     <col min="2" max="2" width="17.5234375" customWidth="1"/>
-    <col min="3" max="3" width="17.89453125" customWidth="1"/>
-    <col min="4" max="6" width="17.5234375" customWidth="1"/>
+    <col min="3" max="3" width="18.9453125" customWidth="1"/>
+    <col min="4" max="4" width="19.7890625" customWidth="1"/>
+    <col min="5" max="6" width="17.5234375" customWidth="1"/>
     <col min="7" max="7" width="17.62890625" customWidth="1"/>
-    <col min="8" max="8" width="17.5234375" customWidth="1"/>
+    <col min="8" max="8" width="19.26171875" customWidth="1"/>
     <col min="9" max="9" width="18.3671875" customWidth="1"/>
     <col min="10" max="11" width="17.5234375" customWidth="1"/>
     <col min="12" max="12" width="17.734375" customWidth="1"/>
+    <col min="13" max="13" width="18.41796875" customWidth="1"/>
+    <col min="14" max="14" width="20.5234375" customWidth="1"/>
+    <col min="15" max="15" width="21.62890625" customWidth="1"/>
+    <col min="16" max="16" width="18.26171875" customWidth="1"/>
+    <col min="17" max="17" width="18.578125" customWidth="1"/>
+    <col min="18" max="18" width="18.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="98" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="51">
-        <v>42625</v>
-      </c>
-      <c r="C2" s="51">
-        <v>42626</v>
-      </c>
-      <c r="D2" s="51">
-        <v>42628</v>
-      </c>
-      <c r="E2" s="51">
-        <v>42629</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="51" t="s">
+        <v>591</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>592</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>593</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>594</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>664</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="53" t="s">
         <v>73</v>
       </c>
       <c r="D3" s="55"/>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="54" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="G3" s="112">
+        <v>8.75</v>
+      </c>
+      <c r="H3" s="112">
+        <v>1</v>
+      </c>
+      <c r="J3" s="52" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -12032,8 +12363,17 @@
       <c r="C4" s="52"/>
       <c r="D4" s="55"/>
       <c r="E4" s="52"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -12041,23 +12381,41 @@
       <c r="C5" s="52"/>
       <c r="D5" s="55"/>
       <c r="E5" s="52"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="108" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>70</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="53" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="G6" s="112">
+        <v>11.25</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="54" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -12065,8 +12423,17 @@
       <c r="C7" s="52"/>
       <c r="D7" s="55"/>
       <c r="E7" s="52"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="107" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -12074,37 +12441,61 @@
       <c r="C8" s="52"/>
       <c r="D8" s="55"/>
       <c r="E8" s="52"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="99" t="s">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="98" t="s">
         <v>559</v>
       </c>
-      <c r="B10" s="51">
-        <v>42632</v>
-      </c>
-      <c r="C10" s="51">
-        <v>42633</v>
-      </c>
-      <c r="D10" s="51">
-        <v>42635</v>
-      </c>
-      <c r="E10" s="51">
-        <v>42636</v>
-      </c>
-      <c r="G10" s="51">
-        <v>42639</v>
-      </c>
-      <c r="H10" s="51">
-        <v>42640</v>
-      </c>
-      <c r="I10" s="51">
-        <v>42642</v>
-      </c>
-      <c r="J10" s="51">
-        <v>42643</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="51" t="s">
+        <v>601</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>602</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>603</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>604</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>665</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>670</v>
+      </c>
+      <c r="J10" s="51" t="s">
+        <v>605</v>
+      </c>
+      <c r="K10" s="51" t="s">
+        <v>606</v>
+      </c>
+      <c r="L10" s="51" t="s">
+        <v>607</v>
+      </c>
+      <c r="M10" s="51" t="s">
+        <v>608</v>
+      </c>
+      <c r="N10" s="51" t="s">
+        <v>664</v>
+      </c>
+      <c r="O10" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="P10" s="51" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -12114,16 +12505,28 @@
       <c r="E11" s="54" t="s">
         <v>569</v>
       </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="53" t="s">
+      <c r="G11" s="112">
+        <v>1.75</v>
+      </c>
+      <c r="H11" s="112">
+        <v>1.75</v>
+      </c>
+      <c r="J11" s="52"/>
+      <c r="K11" s="54" t="s">
         <v>576</v>
       </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53" t="s">
+      <c r="L11" s="52"/>
+      <c r="M11" s="54" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="O11" s="112">
+        <v>3.75</v>
+      </c>
+      <c r="P11" s="112">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -12131,12 +12534,24 @@
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
       <c r="E12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
       <c r="J12" s="52"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -12144,12 +12559,24 @@
       <c r="C13" s="52"/>
       <c r="D13" s="52"/>
       <c r="E13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
       <c r="J13" s="52"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -12157,14 +12584,26 @@
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
       <c r="E14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="54" t="s">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="53" t="s">
         <v>577</v>
       </c>
-      <c r="J14" s="54"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M14" s="53"/>
+      <c r="O14" s="112">
+        <v>6.5</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -12172,12 +12611,24 @@
       <c r="C15" s="52"/>
       <c r="D15" s="52"/>
       <c r="E15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
       <c r="J15" s="52"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -12185,105 +12636,183 @@
       <c r="C16" s="52"/>
       <c r="D16" s="52"/>
       <c r="E16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
       <c r="J16" s="52"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="99" t="s">
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="98" t="s">
         <v>560</v>
       </c>
-      <c r="B18" s="51">
-        <v>42646</v>
-      </c>
-      <c r="C18" s="51">
-        <v>42647</v>
-      </c>
-      <c r="D18" s="51">
-        <v>42649</v>
-      </c>
-      <c r="E18" s="51">
-        <v>42650</v>
-      </c>
-      <c r="G18" s="51">
-        <v>42653</v>
-      </c>
-      <c r="H18" s="51">
-        <v>42654</v>
-      </c>
-      <c r="I18" s="51">
-        <v>42656</v>
-      </c>
-      <c r="J18" s="51">
-        <v>42657</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="51" t="s">
+        <v>610</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>609</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>611</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>612</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>664</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>670</v>
+      </c>
+      <c r="J18" s="51" t="s">
+        <v>613</v>
+      </c>
+      <c r="K18" s="51" t="s">
+        <v>614</v>
+      </c>
+      <c r="L18" s="51" t="s">
+        <v>615</v>
+      </c>
+      <c r="M18" s="51" t="s">
+        <v>616</v>
+      </c>
+      <c r="N18" s="51" t="s">
+        <v>664</v>
+      </c>
+      <c r="O18" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="P18" s="51" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="52"/>
       <c r="C19" s="52"/>
       <c r="D19" s="52"/>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="108" t="s">
         <v>579</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="53" t="s">
+      <c r="G19" s="112">
+        <v>3.25</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="54" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="O19" s="112">
+        <v>1.5</v>
+      </c>
+      <c r="P19" s="112">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="53" t="s">
         <v>73</v>
       </c>
       <c r="D20" s="52"/>
       <c r="E20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
+      <c r="G20" s="112">
+        <v>7.75</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
       <c r="J20" s="52"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>69</v>
       </c>
       <c r="B21" s="52"/>
       <c r="C21" s="52"/>
       <c r="D21" s="52"/>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="108" t="s">
         <v>579</v>
       </c>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
+      <c r="G21" s="112">
+        <v>3.25</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
       <c r="J21" s="52"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
       <c r="D22" s="52"/>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="108" t="s">
         <v>579</v>
       </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
+      <c r="G22" s="112">
+        <v>3.25</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
       <c r="J22" s="52"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -12291,16 +12820,28 @@
       <c r="C23" s="52"/>
       <c r="D23" s="52"/>
       <c r="E23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="54" t="s">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="J23" s="52"/>
+      <c r="K23" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="I23" s="54" t="s">
+      <c r="L23" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="J23" s="52"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M23" s="52"/>
+      <c r="O23" s="112">
+        <v>8</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -12308,57 +12849,93 @@
       <c r="C24" s="52"/>
       <c r="D24" s="52"/>
       <c r="E24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="53" t="s">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="108" t="s">
         <v>580</v>
       </c>
-      <c r="J24" s="52"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="101" t="s">
+      <c r="M24" s="52"/>
+      <c r="O24" s="112">
+        <v>3.25</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="100" t="s">
         <v>566</v>
       </c>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="99" t="s">
+      <c r="B26" s="97"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="97"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="98" t="s">
         <v>561</v>
       </c>
-      <c r="B28" s="51">
-        <v>42667</v>
-      </c>
-      <c r="C28" s="51">
-        <v>42668</v>
-      </c>
-      <c r="D28" s="51">
-        <v>42670</v>
-      </c>
-      <c r="E28" s="51">
-        <v>42671</v>
-      </c>
-      <c r="G28" s="51">
-        <v>42674</v>
-      </c>
-      <c r="H28" s="51">
-        <v>42675</v>
-      </c>
-      <c r="I28" s="51">
-        <v>42677</v>
-      </c>
-      <c r="J28" s="51">
-        <v>42678</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="51" t="s">
+        <v>617</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>618</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>619</v>
+      </c>
+      <c r="E28" s="51" t="s">
+        <v>620</v>
+      </c>
+      <c r="F28" s="51" t="s">
+        <v>664</v>
+      </c>
+      <c r="G28" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="H28" s="51" t="s">
+        <v>670</v>
+      </c>
+      <c r="J28" s="51" t="s">
+        <v>621</v>
+      </c>
+      <c r="K28" s="51" t="s">
+        <v>622</v>
+      </c>
+      <c r="L28" s="51" t="s">
+        <v>623</v>
+      </c>
+      <c r="M28" s="51" t="s">
+        <v>624</v>
+      </c>
+      <c r="N28" s="51" t="s">
+        <v>664</v>
+      </c>
+      <c r="O28" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="P28" s="51" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -12366,12 +12943,24 @@
       <c r="C29" s="52"/>
       <c r="D29" s="52"/>
       <c r="E29" s="54"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
+      <c r="G29" s="112">
+        <v>3.25</v>
+      </c>
+      <c r="H29" s="112">
+        <v>3.25</v>
+      </c>
       <c r="J29" s="52"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -12379,12 +12968,24 @@
       <c r="C30" s="52"/>
       <c r="D30" s="52"/>
       <c r="E30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
+      <c r="G30" s="112">
+        <v>3.25</v>
+      </c>
+      <c r="H30" s="112">
+        <v>3.25</v>
+      </c>
       <c r="J30" s="52"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -12392,12 +12993,24 @@
       <c r="C31" s="52"/>
       <c r="D31" s="52"/>
       <c r="E31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
       <c r="J31" s="52"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -12405,491 +13018,1344 @@
       <c r="C32" s="52"/>
       <c r="D32" s="52"/>
       <c r="E32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
       <c r="J32" s="52"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="54" t="s">
+      <c r="D33" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="G33" s="52"/>
-      <c r="H33" s="54" t="s">
+      <c r="G33" s="112">
+        <v>14.25</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="J33" s="52"/>
+      <c r="K33" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="I33" s="53" t="s">
+      <c r="L33" s="108" t="s">
         <v>582</v>
       </c>
-      <c r="J33" s="52"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="M33" s="52"/>
+      <c r="O33" s="112">
+        <v>7</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>72</v>
       </c>
       <c r="B34" s="52"/>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="54" t="s">
+      <c r="D34" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="54" t="s">
+      <c r="E34" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="G34" s="52"/>
-      <c r="H34" s="54" t="s">
+      <c r="G34" s="112">
+        <v>11.25</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="J34" s="52"/>
+      <c r="K34" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="99" t="s">
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="O34" s="112">
+        <v>4.75</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="98" t="s">
         <v>563</v>
       </c>
-      <c r="B36" s="105" t="s">
+      <c r="B36" s="104" t="s">
         <v>583</v>
       </c>
-      <c r="C36" s="51">
-        <v>42682</v>
-      </c>
-      <c r="D36" s="51">
-        <v>42684</v>
-      </c>
-      <c r="E36" s="51">
-        <v>42685</v>
-      </c>
-      <c r="G36" s="51">
-        <v>42688</v>
-      </c>
-      <c r="H36" s="51">
-        <v>42689</v>
-      </c>
-      <c r="I36" s="51">
-        <v>42690</v>
-      </c>
-      <c r="J36" s="51">
-        <v>42691</v>
-      </c>
-      <c r="K36" s="51">
-        <v>42692</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C36" s="51" t="s">
+        <v>625</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>626</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>627</v>
+      </c>
+      <c r="F36" s="51" t="s">
+        <v>666</v>
+      </c>
+      <c r="G36" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="H36" s="51" t="s">
+        <v>670</v>
+      </c>
+      <c r="J36" s="51" t="s">
+        <v>628</v>
+      </c>
+      <c r="K36" s="51" t="s">
+        <v>629</v>
+      </c>
+      <c r="L36" s="51" t="s">
+        <v>630</v>
+      </c>
+      <c r="M36" s="51" t="s">
+        <v>631</v>
+      </c>
+      <c r="N36" s="51" t="s">
+        <v>632</v>
+      </c>
+      <c r="O36" s="51" t="s">
+        <v>664</v>
+      </c>
+      <c r="P36" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="Q36" s="51" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="106"/>
-      <c r="C37" s="54" t="s">
+      <c r="B37" s="105"/>
+      <c r="C37" s="53" t="s">
         <v>73</v>
       </c>
       <c r="D37" s="52"/>
-      <c r="E37" s="53" t="s">
+      <c r="E37" s="54" t="s">
         <v>454</v>
       </c>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
+      <c r="G37" s="112">
+        <v>8</v>
+      </c>
+      <c r="H37" s="112">
+        <v>3.25</v>
+      </c>
       <c r="J37" s="52"/>
-      <c r="K37" s="53" t="s">
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="54" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="P37" s="112">
+        <v>1.25</v>
+      </c>
+      <c r="Q37" s="112">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="106"/>
+      <c r="B38" s="105"/>
       <c r="C38" s="52"/>
       <c r="D38" s="52"/>
       <c r="E38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
       <c r="J38" s="52"/>
       <c r="K38" s="52"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="106"/>
+      <c r="B39" s="105"/>
       <c r="C39" s="52"/>
       <c r="D39" s="52"/>
       <c r="E39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
       <c r="J39" s="52"/>
       <c r="K39" s="52"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="106"/>
+      <c r="B40" s="105"/>
       <c r="C40" s="52"/>
       <c r="D40" s="52"/>
       <c r="E40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
       <c r="J40" s="52"/>
       <c r="K40" s="52"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="106"/>
+      <c r="B41" s="105"/>
       <c r="C41" s="52"/>
       <c r="D41" s="52"/>
       <c r="E41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
       <c r="J41" s="52"/>
       <c r="K41" s="52"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="106"/>
+      <c r="B42" s="105"/>
       <c r="C42" s="52"/>
       <c r="D42" s="52"/>
       <c r="E42" s="52"/>
-      <c r="G42" s="107" t="s">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="J42" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="H42" s="107" t="s">
+      <c r="K42" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="100" t="s">
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="P42" s="112">
+        <v>6.25</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="99" t="s">
         <v>562</v>
       </c>
-      <c r="B44" s="51">
-        <v>42695</v>
-      </c>
-      <c r="C44" s="102">
+      <c r="B44" s="51" t="s">
+        <v>633</v>
+      </c>
+      <c r="C44" s="101">
         <v>42696</v>
       </c>
-      <c r="D44" s="51">
-        <v>42697</v>
-      </c>
-      <c r="E44" s="51">
-        <v>42698</v>
-      </c>
-      <c r="F44" s="51">
-        <v>42699</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="D44" s="51" t="s">
+        <v>634</v>
+      </c>
+      <c r="E44" s="51" t="s">
+        <v>635</v>
+      </c>
+      <c r="F44" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="G44" s="51" t="s">
+        <v>667</v>
+      </c>
+      <c r="H44" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="I44" s="51" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="52"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="54" t="s">
+        <v>581</v>
+      </c>
+      <c r="H45" s="112">
+        <v>1.5</v>
+      </c>
+      <c r="I45" s="112">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="53" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C46" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46" s="112">
+        <v>11</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>69</v>
       </c>
       <c r="B47" s="52"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="53" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="H48" s="112">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>71</v>
       </c>
       <c r="B49" s="52"/>
-      <c r="I49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>72</v>
       </c>
       <c r="B50" s="52"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="99" t="s">
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="98" t="s">
         <v>564</v>
       </c>
-      <c r="B52" s="51">
-        <v>42702</v>
-      </c>
-      <c r="C52" s="51">
-        <v>42703</v>
-      </c>
-      <c r="E52" s="51">
-        <v>42705</v>
-      </c>
-      <c r="F52" s="51">
-        <v>42706</v>
-      </c>
-      <c r="H52" s="51">
-        <v>42709</v>
-      </c>
-      <c r="I52" s="51">
-        <v>42710</v>
-      </c>
-      <c r="J52" s="51">
-        <v>42711</v>
-      </c>
-      <c r="K52" s="51">
-        <v>42712</v>
-      </c>
-      <c r="L52" s="51">
-        <v>42713</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="51" t="s">
+        <v>637</v>
+      </c>
+      <c r="C52" s="51" t="s">
+        <v>638</v>
+      </c>
+      <c r="D52" s="51" t="s">
+        <v>639</v>
+      </c>
+      <c r="E52" s="51" t="s">
+        <v>640</v>
+      </c>
+      <c r="F52" s="51" t="s">
+        <v>641</v>
+      </c>
+      <c r="G52" s="51" t="s">
+        <v>664</v>
+      </c>
+      <c r="H52" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="I52" s="51" t="s">
+        <v>670</v>
+      </c>
+      <c r="K52" s="51" t="s">
+        <v>642</v>
+      </c>
+      <c r="L52" s="51" t="s">
+        <v>643</v>
+      </c>
+      <c r="M52" s="51" t="s">
+        <v>644</v>
+      </c>
+      <c r="N52" s="51" t="s">
+        <v>645</v>
+      </c>
+      <c r="O52" s="51" t="s">
+        <v>646</v>
+      </c>
+      <c r="P52" s="51" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q52" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="R52" s="51" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="52"/>
+      <c r="C53" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="H53" s="112">
+        <v>11.25</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="54" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q53" s="112">
+        <v>1.5</v>
+      </c>
+      <c r="R53" s="112">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="52"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="K54" s="54" t="s">
+        <v>585</v>
+      </c>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="52"/>
+      <c r="Q54" s="112">
+        <v>0.5</v>
+      </c>
+      <c r="R54" s="112">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="52"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="52"/>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="K56" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="L56" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="M56" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="N56" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="O56" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q56" s="112">
+        <v>14.25</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="K57" s="52"/>
+      <c r="L57" s="108" t="s">
+        <v>586</v>
+      </c>
+      <c r="M57" s="52"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="108" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q57" s="112">
+        <v>3.75</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="99" t="s">
+      <c r="B58" s="52"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="K58" s="52"/>
+      <c r="L58" s="108" t="s">
+        <v>586</v>
+      </c>
+      <c r="M58" s="52"/>
+      <c r="N58" s="52"/>
+      <c r="O58" s="52"/>
+      <c r="Q58" s="112">
+        <v>3.25</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="98" t="s">
         <v>565</v>
       </c>
-      <c r="B60" s="51">
-        <v>42716</v>
-      </c>
-      <c r="C60" s="51">
-        <v>42717</v>
-      </c>
-      <c r="D60" s="51">
-        <v>42718</v>
-      </c>
-      <c r="E60" s="51">
-        <v>42719</v>
-      </c>
-      <c r="F60" s="51">
-        <v>42720</v>
-      </c>
-      <c r="H60" s="51">
-        <v>42723</v>
-      </c>
-      <c r="I60" s="51">
-        <v>42724</v>
-      </c>
-      <c r="J60" s="51">
+      <c r="B60" s="51" t="s">
+        <v>647</v>
+      </c>
+      <c r="C60" s="51" t="s">
+        <v>648</v>
+      </c>
+      <c r="D60" s="51" t="s">
+        <v>649</v>
+      </c>
+      <c r="E60" s="51" t="s">
+        <v>650</v>
+      </c>
+      <c r="F60" s="51" t="s">
+        <v>651</v>
+      </c>
+      <c r="G60" s="51" t="s">
+        <v>664</v>
+      </c>
+      <c r="H60" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="I60" s="51" t="s">
+        <v>670</v>
+      </c>
+      <c r="K60" s="51" t="s">
+        <v>652</v>
+      </c>
+      <c r="L60" s="51" t="s">
+        <v>653</v>
+      </c>
+      <c r="M60" s="106">
         <v>42725</v>
       </c>
-      <c r="K60" s="51">
-        <v>42726</v>
-      </c>
-      <c r="L60" s="51">
+      <c r="N60" s="51" t="s">
+        <v>654</v>
+      </c>
+      <c r="O60" s="106">
         <v>42727</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="P60" s="51" t="s">
+        <v>668</v>
+      </c>
+      <c r="Q60" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="R60" s="51" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="52"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="54" t="s">
+        <v>584</v>
+      </c>
+      <c r="H61" s="112">
+        <v>1.25</v>
+      </c>
+      <c r="I61" s="112">
+        <v>1.25</v>
+      </c>
+      <c r="K61" s="52"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="107"/>
+      <c r="N61" s="52"/>
+      <c r="O61" s="107"/>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="52"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="K62" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="L62" s="52"/>
+      <c r="M62" s="107"/>
+      <c r="N62" s="52"/>
+      <c r="O62" s="107"/>
+      <c r="Q62" s="112">
+        <v>3</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="107" t="s">
+        <v>588</v>
+      </c>
+      <c r="N63" s="52"/>
+      <c r="O63" s="107"/>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="52"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="107"/>
+      <c r="N64" s="52"/>
+      <c r="O64" s="107"/>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="52"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="108" t="s">
+        <v>587</v>
+      </c>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="H65" s="112">
+        <v>1.5</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="K65" s="52"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="107"/>
+      <c r="N65" s="52"/>
+      <c r="O65" s="107"/>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="101" t="s">
+      <c r="B66" s="52"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="H66" s="112">
+        <v>1.5</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="K66" s="52"/>
+      <c r="L66" s="52"/>
+      <c r="M66" s="107"/>
+      <c r="N66" s="52"/>
+      <c r="O66" s="107"/>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="100" t="s">
         <v>566</v>
       </c>
-      <c r="B68" s="98"/>
-      <c r="C68" s="98"/>
-      <c r="D68" s="98"/>
-      <c r="E68" s="98"/>
-      <c r="F68" s="98"/>
-      <c r="G68" s="98"/>
-      <c r="H68" s="98"/>
-      <c r="I68" s="98"/>
-      <c r="J68" s="98"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="99" t="s">
+      <c r="B68" s="97"/>
+      <c r="C68" s="97"/>
+      <c r="D68" s="97"/>
+      <c r="E68" s="97"/>
+      <c r="F68" s="97"/>
+      <c r="G68" s="97"/>
+      <c r="H68" s="97"/>
+      <c r="I68" s="97"/>
+      <c r="J68" s="97"/>
+      <c r="K68" s="97"/>
+      <c r="L68" s="97"/>
+      <c r="M68" s="97"/>
+      <c r="N68" s="97"/>
+      <c r="O68" s="97"/>
+      <c r="P68" s="97"/>
+      <c r="Q68" s="97"/>
+      <c r="R68" s="97"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="98" t="s">
         <v>567</v>
       </c>
-      <c r="B70" s="51">
-        <v>42378</v>
-      </c>
-      <c r="C70" s="51">
-        <v>42379</v>
-      </c>
-      <c r="D70" s="51">
-        <v>42380</v>
-      </c>
-      <c r="E70" s="51">
-        <v>42381</v>
-      </c>
-      <c r="F70" s="51">
-        <v>42382</v>
-      </c>
-      <c r="H70" s="51">
-        <v>42385</v>
-      </c>
-      <c r="I70" s="51">
-        <v>42386</v>
-      </c>
-      <c r="J70" s="51">
-        <v>42387</v>
-      </c>
-      <c r="K70" s="51">
-        <v>42388</v>
-      </c>
-      <c r="L70" s="51">
+      <c r="B70" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="C70" s="51" t="s">
+        <v>656</v>
+      </c>
+      <c r="D70" s="51" t="s">
+        <v>657</v>
+      </c>
+      <c r="E70" s="51" t="s">
+        <v>658</v>
+      </c>
+      <c r="F70" s="51" t="s">
+        <v>659</v>
+      </c>
+      <c r="G70" s="51" t="s">
+        <v>664</v>
+      </c>
+      <c r="H70" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="I70" s="51" t="s">
+        <v>670</v>
+      </c>
+      <c r="K70" s="51" t="s">
+        <v>660</v>
+      </c>
+      <c r="L70" s="51" t="s">
+        <v>661</v>
+      </c>
+      <c r="M70" s="51" t="s">
+        <v>662</v>
+      </c>
+      <c r="N70" s="51" t="s">
+        <v>663</v>
+      </c>
+      <c r="O70" s="106">
         <v>42389</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="P70" s="51" t="s">
+        <v>667</v>
+      </c>
+      <c r="Q70" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="R70" s="51" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="54" t="s">
+        <v>589</v>
+      </c>
+      <c r="C71" s="52"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="52"/>
+      <c r="F71" s="52"/>
+      <c r="H71" s="112">
+        <v>0.75</v>
+      </c>
+      <c r="I71" s="112">
+        <v>0.75</v>
+      </c>
+      <c r="K71" s="52"/>
+      <c r="L71" s="52"/>
+      <c r="M71" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="N71" s="52"/>
+      <c r="O71" s="107"/>
+      <c r="Q71" s="112">
+        <v>1.5</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" s="52"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52"/>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="K72" s="52"/>
+      <c r="L72" s="52"/>
+      <c r="M72" s="52"/>
+      <c r="N72" s="52"/>
+      <c r="O72" s="107"/>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" s="52"/>
+      <c r="C73" s="52"/>
+      <c r="D73" s="52"/>
+      <c r="E73" s="52"/>
+      <c r="F73" s="52"/>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="K73" s="52"/>
+      <c r="L73" s="52"/>
+      <c r="M73" s="52"/>
+      <c r="N73" s="52"/>
+      <c r="O73" s="107"/>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="52"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="52"/>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="K74" s="52"/>
+      <c r="L74" s="52"/>
+      <c r="M74" s="52"/>
+      <c r="N74" s="52"/>
+      <c r="O74" s="107"/>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="52"/>
+      <c r="C75" s="52"/>
+      <c r="D75" s="52"/>
+      <c r="E75" s="52"/>
+      <c r="F75" s="52"/>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="K75" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="L75" s="52"/>
+      <c r="M75" s="52"/>
+      <c r="N75" s="52"/>
+      <c r="O75" s="107"/>
+      <c r="Q75" s="112">
+        <v>3</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="100" t="s">
+      <c r="B76" s="52"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="52"/>
+      <c r="F76" s="52"/>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="K76" s="52"/>
+      <c r="L76" s="52"/>
+      <c r="M76" s="52"/>
+      <c r="N76" s="52"/>
+      <c r="O76" s="107"/>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="99" t="s">
         <v>562</v>
       </c>
       <c r="B78" s="51">
         <v>42392</v>
       </c>
-      <c r="C78" s="102">
+      <c r="C78" s="101">
         <v>42393</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" s="109" t="s">
+        <v>590</v>
+      </c>
+      <c r="C83" s="109" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>72</v>
+      </c>
+      <c r="B84" s="109" t="s">
+        <v>590</v>
+      </c>
+      <c r="C84" s="109" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B87" t="s">
+        <v>671</v>
+      </c>
+      <c r="C87" t="s">
+        <v>669</v>
+      </c>
+      <c r="D87" t="s">
+        <v>670</v>
+      </c>
+      <c r="E87" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="B88">
+        <v>212.25</v>
+      </c>
+      <c r="C88">
+        <f>SUM(G3,G11,G19,G29,O11,O19,P37,O29,G37,H45,H53,H61,H71,Q71,Q61,Q53)</f>
+        <v>49.25</v>
+      </c>
+      <c r="D88">
+        <f>SUM(H3,H11,H19,H29,P11,P19,Q37,P29,H37,I45,I53,I61,I71,R71,R61,R53)</f>
+        <v>20.75</v>
+      </c>
+      <c r="E88">
+        <f>SUM(100/B88*(B88-D88))</f>
+        <v>90.223792697290932</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="113" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89">
+        <v>212.25</v>
+      </c>
+      <c r="C89">
+        <f>SUM(G4,G12,G20,G30,G38,H46,H54,H62,H72,Q72,Q62,Q54,P38,O30,O20,O12)</f>
+        <v>25.5</v>
+      </c>
+      <c r="D89">
+        <f>SUM(H4,H12,H20,H30,H38,I46,I54,I62,I72,R72,R62,R54,Q38,P30,P20,P12)</f>
+        <v>3.75</v>
+      </c>
+      <c r="E89">
+        <f>SUM(100/B89*(B89-D89))</f>
+        <v>98.233215547703182</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="B90">
+        <v>212.25</v>
+      </c>
+      <c r="C90">
+        <f>SUM(G5,G13,G21,G31,H47,H55,H63,H73,Q73,Q63,Q55,P39,O31,O21,O13)</f>
+        <v>3.25</v>
+      </c>
+      <c r="D90">
+        <f>SUM(H5,H13,H21,H31,I47,I55,I63,I73,R73,R63,R55,Q39,P31,P21,P13)</f>
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <f>SUM(100/B90*(B90-D90))</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="113" t="s">
+        <v>70</v>
+      </c>
+      <c r="B91">
+        <v>212.25</v>
+      </c>
+      <c r="C91">
+        <f>SUM(G6,G14,G22,O14,O22,G32,O32,P40,G40,H48,H56,Q56,Q64,Q74,H64,H74)</f>
+        <v>38.25</v>
+      </c>
+      <c r="D91">
+        <f>SUM(H6,H14,H22,P14,P22,H32,P32,Q40,H40,I48,I56,R56,R64,R74,I64,I74)</f>
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <f>SUM(100/B91*(B91-D91))</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="B92">
+        <v>212.25</v>
+      </c>
+      <c r="C92">
+        <f>SUM(G7,G15,G23,O15,O23,G33,O33,P41,G41,H49,H57,Q57,Q65,Q75,H65,H75)</f>
+        <v>37.5</v>
+      </c>
+      <c r="D92">
+        <f>SUM(H7,H15,H23,P15,P23,H33,P33,Q41,H41,I49,I57,R57,R65,R75,I65,I75)</f>
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <f>SUM(100/B92*(B92-D92))</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="B93">
+        <v>212.25</v>
+      </c>
+      <c r="C93">
+        <f>SUM(G8,G16,G24,O16,O24,G34,O34,P42,G42,H50,H58,Q58,Q66,Q76,H66,H76)</f>
+        <v>30.25</v>
+      </c>
+      <c r="D93">
+        <f>SUM(H8,H16,H24,P16,P24,H34,P34,Q42,H42,I50,I58,R58,R66,R76,I66,I76)</f>
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <f>SUM(100/B93*(B93-D93))</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
